--- a/analysis_sample/封国/封国.xlsx
+++ b/analysis_sample/封国/封国.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/analysis_sample/封国/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92818479-6776-0F44-8430-CB4241DF6D57}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9326934F-6174-F84F-A3CD-65508E162D16}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="460" windowWidth="23900" windowHeight="12580" activeTab="2" xr2:uid="{5D274D72-60B0-D249-AA11-A197B2C8B521}"/>
+    <workbookView xWindow="680" yWindow="460" windowWidth="23900" windowHeight="12580" activeTab="2" xr2:uid="{5D274D72-60B0-D249-AA11-A197B2C8B521}"/>
   </bookViews>
   <sheets>
     <sheet name="複雜" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="214">
   <si>
     <t>封國</t>
     <rPh sb="0" eb="94">
@@ -431,9 +431,6 @@
   </si>
   <si>
     <t>柔县</t>
-  </si>
-  <si>
-    <t>即来侯国</t>
   </si>
   <si>
     <t>盛睦县</t>
@@ -723,10 +720,6 @@
   </si>
   <si>
     <t>皋虞煬侯建</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>膠東康王子。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -949,6 +942,31 @@
   </si>
   <si>
     <t>長沙定王子。王莽篡位，絕。泉陵侯劉慶上書言：「周成王幼少，稱孺子，周公居攝。今帝富於春秋，宜令安漢公行天子事，如周公。」羣臣皆曰：「宜如慶言。」</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>即来侯国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>膠東康王子。根據泉陵侯國134年六屆來估算，大約是每二十年一屆。那麼這麼算來，該國大約在王莽攝政前後國除，那麼換名字理所當然。</t>
+    <rPh sb="0" eb="1">
+      <t>an</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣帝封平干顷王子庆为侯国。</t>
+    <rPh sb="0" eb="1">
+      <t>qing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成鄉質侯慶</t>
+    <rPh sb="0" eb="1">
+      <t>ping'gan</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1691,33 +1709,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301C5228-0766-C84B-9BFD-7662BC32D069}">
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" t="s">
         <v>131</v>
       </c>
-      <c r="B1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>132</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>133</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>134</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>135</v>
-      </c>
-      <c r="G1" t="s">
-        <v>136</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -1890,7 +1908,7 @@
         <v>21112</v>
       </c>
       <c r="H5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I5">
         <v>-58</v>
@@ -1905,7 +1923,7 @@
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1931,7 +1949,7 @@
         <v>21113</v>
       </c>
       <c r="H6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I6">
         <v>-58</v>
@@ -2015,6 +2033,30 @@
       <c r="G8">
         <v>21116</v>
       </c>
+      <c r="H8" t="s">
+        <v>213</v>
+      </c>
+      <c r="I8">
+        <v>-61</v>
+      </c>
+      <c r="J8">
+        <v>900</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
@@ -2039,19 +2081,19 @@
         <v>23510</v>
       </c>
       <c r="H9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>144</v>
+      </c>
+      <c r="O9" t="s">
         <v>143</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>145</v>
-      </c>
-      <c r="O9" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -2077,19 +2119,19 @@
         <v>23511</v>
       </c>
       <c r="H10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="N10" t="s">
+        <v>144</v>
+      </c>
+      <c r="O10" t="s">
         <v>145</v>
-      </c>
-      <c r="O10" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -2106,7 +2148,7 @@
         <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F11" t="s">
         <v>44</v>
@@ -2115,19 +2157,19 @@
         <v>23513</v>
       </c>
       <c r="H11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2141,7 +2183,7 @@
         <v>233</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E12" t="s">
         <v>74</v>
@@ -2153,7 +2195,7 @@
         <v>23515</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I12" s="4">
         <v>-116</v>
@@ -2162,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M12">
         <v>4</v>
@@ -2171,7 +2213,7 @@
         <v>32</v>
       </c>
       <c r="O12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2185,7 +2227,7 @@
         <v>233</v>
       </c>
       <c r="D13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E13" t="s">
         <v>75</v>
@@ -2197,19 +2239,19 @@
         <v>23517</v>
       </c>
       <c r="H13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -2235,19 +2277,19 @@
         <v>23519</v>
       </c>
       <c r="H14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2273,19 +2315,19 @@
         <v>23521</v>
       </c>
       <c r="H15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2299,7 +2341,7 @@
         <v>233</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E16" t="s">
         <v>80</v>
@@ -2311,7 +2353,7 @@
         <v>23522</v>
       </c>
       <c r="H16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I16">
         <v>-110</v>
@@ -2326,7 +2368,7 @@
         <v>32</v>
       </c>
       <c r="O16" t="s">
-        <v>165</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -2352,7 +2394,7 @@
         <v>23527</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I17">
         <v>-110</v>
@@ -2361,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M17">
         <v>5</v>
@@ -2370,7 +2412,7 @@
         <v>32</v>
       </c>
       <c r="O17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2384,7 +2426,7 @@
         <v>233</v>
       </c>
       <c r="D18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E18" t="s">
         <v>83</v>
@@ -2396,7 +2438,7 @@
         <v>23529</v>
       </c>
       <c r="H18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I18">
         <v>-52</v>
@@ -2414,7 +2456,7 @@
         <v>32</v>
       </c>
       <c r="O18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2440,7 +2482,7 @@
         <v>23530</v>
       </c>
       <c r="H19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I19">
         <v>-50</v>
@@ -2458,7 +2500,7 @@
         <v>32</v>
       </c>
       <c r="O19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2484,7 +2526,7 @@
         <v>23532</v>
       </c>
       <c r="H20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I20">
         <v>-50</v>
@@ -2502,7 +2544,7 @@
         <v>32</v>
       </c>
       <c r="O20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2528,7 +2570,7 @@
         <v>23533</v>
       </c>
       <c r="H21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I21">
         <v>-50</v>
@@ -2546,7 +2588,7 @@
         <v>32</v>
       </c>
       <c r="O21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2572,7 +2614,7 @@
         <v>23534</v>
       </c>
       <c r="H22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I22">
         <v>-50</v>
@@ -2587,7 +2629,7 @@
         <v>32</v>
       </c>
       <c r="O22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2601,10 +2643,10 @@
         <v>233</v>
       </c>
       <c r="D23" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" t="s">
         <v>92</v>
-      </c>
-      <c r="E23" t="s">
-        <v>93</v>
       </c>
       <c r="F23" t="s">
         <v>45</v>
@@ -2613,7 +2655,7 @@
         <v>23535</v>
       </c>
       <c r="H23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I23">
         <v>-50</v>
@@ -2631,7 +2673,7 @@
         <v>32</v>
       </c>
       <c r="O23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2645,10 +2687,10 @@
         <v>233</v>
       </c>
       <c r="D24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" t="s">
         <v>94</v>
-      </c>
-      <c r="E24" t="s">
-        <v>95</v>
       </c>
       <c r="F24" t="s">
         <v>44</v>
@@ -2657,7 +2699,7 @@
         <v>23536</v>
       </c>
       <c r="H24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I24">
         <v>-31</v>
@@ -2675,7 +2717,7 @@
         <v>32</v>
       </c>
       <c r="O24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2689,10 +2731,10 @@
         <v>233</v>
       </c>
       <c r="D25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F25" t="s">
         <v>45</v>
@@ -2701,7 +2743,7 @@
         <v>23537</v>
       </c>
       <c r="H25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I25">
         <v>-31</v>
@@ -2719,7 +2761,7 @@
         <v>32</v>
       </c>
       <c r="O25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2733,10 +2775,10 @@
         <v>233</v>
       </c>
       <c r="D26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" t="s">
         <v>97</v>
-      </c>
-      <c r="E26" t="s">
-        <v>98</v>
       </c>
       <c r="F26" t="s">
         <v>44</v>
@@ -2745,7 +2787,7 @@
         <v>23538</v>
       </c>
       <c r="H26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I26">
         <v>-41</v>
@@ -2763,7 +2805,7 @@
         <v>32</v>
       </c>
       <c r="O26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2777,10 +2819,10 @@
         <v>233</v>
       </c>
       <c r="D27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" t="s">
         <v>99</v>
-      </c>
-      <c r="E27" t="s">
-        <v>100</v>
       </c>
       <c r="F27" t="s">
         <v>44</v>
@@ -2789,7 +2831,7 @@
         <v>23539</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I27">
         <v>-13</v>
@@ -2801,13 +2843,13 @@
         <v>2</v>
       </c>
       <c r="L27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N27" t="s">
         <v>31</v>
       </c>
       <c r="O27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2821,10 +2863,10 @@
         <v>233</v>
       </c>
       <c r="D28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" t="s">
         <v>101</v>
-      </c>
-      <c r="E28" t="s">
-        <v>102</v>
       </c>
       <c r="F28" t="s">
         <v>44</v>
@@ -2833,7 +2875,7 @@
         <v>23540</v>
       </c>
       <c r="H28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I28">
         <v>-20</v>
@@ -2851,10 +2893,10 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2868,10 +2910,10 @@
         <v>233</v>
       </c>
       <c r="D29" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" t="s">
         <v>103</v>
-      </c>
-      <c r="E29" t="s">
-        <v>104</v>
       </c>
       <c r="F29" t="s">
         <v>44</v>
@@ -2880,7 +2922,7 @@
         <v>23541</v>
       </c>
       <c r="H29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I29">
         <v>-48</v>
@@ -2898,7 +2940,7 @@
         <v>32</v>
       </c>
       <c r="O29" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2912,10 +2954,10 @@
         <v>233</v>
       </c>
       <c r="D30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" t="s">
         <v>105</v>
-      </c>
-      <c r="E30" t="s">
-        <v>106</v>
       </c>
       <c r="F30" t="s">
         <v>44</v>
@@ -2924,7 +2966,7 @@
         <v>23542</v>
       </c>
       <c r="H30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I30" s="4">
         <v>-41</v>
@@ -2942,7 +2984,7 @@
         <v>32</v>
       </c>
       <c r="O30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2956,10 +2998,10 @@
         <v>233</v>
       </c>
       <c r="D31" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" t="s">
         <v>107</v>
-      </c>
-      <c r="E31" t="s">
-        <v>108</v>
       </c>
       <c r="F31" t="s">
         <v>44</v>
@@ -2968,7 +3010,7 @@
         <v>23543</v>
       </c>
       <c r="H31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I31">
         <v>-48</v>
@@ -2986,7 +3028,7 @@
         <v>32</v>
       </c>
       <c r="O31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -3000,10 +3042,10 @@
         <v>233</v>
       </c>
       <c r="D32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" t="s">
         <v>109</v>
-      </c>
-      <c r="E32" t="s">
-        <v>110</v>
       </c>
       <c r="F32" t="s">
         <v>44</v>
@@ -3012,7 +3054,7 @@
         <v>23544</v>
       </c>
       <c r="H32" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I32">
         <v>-48</v>
@@ -3030,7 +3072,7 @@
         <v>32</v>
       </c>
       <c r="O32" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -3044,10 +3086,10 @@
         <v>233</v>
       </c>
       <c r="D33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" t="s">
         <v>111</v>
-      </c>
-      <c r="E33" t="s">
-        <v>112</v>
       </c>
       <c r="F33" t="s">
         <v>44</v>
@@ -3056,7 +3098,7 @@
         <v>23545</v>
       </c>
       <c r="H33" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I33">
         <v>-48</v>
@@ -3074,7 +3116,7 @@
         <v>32</v>
       </c>
       <c r="O33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -3088,10 +3130,10 @@
         <v>233</v>
       </c>
       <c r="D34" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" t="s">
         <v>113</v>
-      </c>
-      <c r="E34" t="s">
-        <v>114</v>
       </c>
       <c r="F34" t="s">
         <v>44</v>
@@ -3100,19 +3142,19 @@
         <v>23546</v>
       </c>
       <c r="H34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -3126,19 +3168,19 @@
         <v>233</v>
       </c>
       <c r="D35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" t="s">
         <v>115</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>116</v>
-      </c>
-      <c r="F35" t="s">
-        <v>117</v>
       </c>
       <c r="G35">
         <v>23547</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I35" s="4">
         <v>-20</v>
@@ -3150,7 +3192,7 @@
         <v>2</v>
       </c>
       <c r="L35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M35">
         <v>2</v>
@@ -3159,7 +3201,7 @@
         <v>31</v>
       </c>
       <c r="O35" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -3173,19 +3215,19 @@
         <v>233</v>
       </c>
       <c r="D36" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" t="s">
         <v>118</v>
       </c>
-      <c r="E36" t="s">
-        <v>119</v>
-      </c>
       <c r="F36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G36">
         <v>23548</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I36">
         <v>-20</v>
@@ -3194,7 +3236,7 @@
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -3203,7 +3245,7 @@
         <v>32</v>
       </c>
       <c r="O36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -3217,10 +3259,10 @@
         <v>233</v>
       </c>
       <c r="D37" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" t="s">
         <v>120</v>
-      </c>
-      <c r="E37" t="s">
-        <v>121</v>
       </c>
       <c r="F37" t="s">
         <v>48</v>
@@ -3229,7 +3271,7 @@
         <v>23549</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I37">
         <v>-15</v>
@@ -3241,16 +3283,16 @@
         <v>3</v>
       </c>
       <c r="L37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M37">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O37" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -3264,10 +3306,10 @@
         <v>233</v>
       </c>
       <c r="D38" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" t="s">
         <v>122</v>
-      </c>
-      <c r="E38" t="s">
-        <v>123</v>
       </c>
       <c r="F38" t="s">
         <v>45</v>
@@ -3276,7 +3318,7 @@
         <v>23550</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I38">
         <v>-15</v>
@@ -3285,7 +3327,7 @@
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -3294,7 +3336,7 @@
         <v>32</v>
       </c>
       <c r="O38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -3308,10 +3350,10 @@
         <v>233</v>
       </c>
       <c r="D39" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" t="s">
         <v>124</v>
-      </c>
-      <c r="E39" t="s">
-        <v>125</v>
       </c>
       <c r="F39" t="s">
         <v>44</v>
@@ -3320,7 +3362,7 @@
         <v>23551</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I39">
         <v>-41</v>
@@ -3338,24 +3380,24 @@
         <v>32</v>
       </c>
       <c r="O39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" t="s">
         <v>126</v>
-      </c>
-      <c r="B40" t="s">
-        <v>127</v>
       </c>
       <c r="C40">
         <v>405</v>
       </c>
       <c r="D40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F40" t="s">
         <v>44</v>
@@ -3364,7 +3406,7 @@
         <v>40506</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I40">
         <v>-124</v>
@@ -3373,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M40">
         <v>6</v>
@@ -3382,24 +3424,24 @@
         <v>32</v>
       </c>
       <c r="O40" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" t="s">
         <v>126</v>
-      </c>
-      <c r="B41" t="s">
-        <v>127</v>
       </c>
       <c r="C41">
         <v>405</v>
       </c>
       <c r="D41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E41" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F41" t="s">
         <v>45</v>
@@ -3408,7 +3450,7 @@
         <v>40508</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I41">
         <v>-124</v>
@@ -3417,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M41">
         <v>4</v>
@@ -3426,21 +3468,21 @@
         <v>32</v>
       </c>
       <c r="O41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="C42" s="1">
         <v>105</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>49</v>
@@ -3468,5 +3510,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/analysis_sample/封国/封国.xlsx
+++ b/analysis_sample/封国/封国.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/analysis_sample/封国/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9326934F-6174-F84F-A3CD-65508E162D16}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{133FF37F-88B7-5247-A785-FAE675B677C8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="460" windowWidth="23900" windowHeight="12580" activeTab="2" xr2:uid="{5D274D72-60B0-D249-AA11-A197B2C8B521}"/>
+    <workbookView xWindow="600" yWindow="460" windowWidth="23900" windowHeight="12580" activeTab="2" xr2:uid="{5D274D72-60B0-D249-AA11-A197B2C8B521}"/>
   </bookViews>
   <sheets>
     <sheet name="複雜" sheetId="1" r:id="rId1"/>
     <sheet name="簡單" sheetId="2" r:id="rId2"/>
     <sheet name="列表" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">列表!$F$1:$F$56</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,24 +31,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="288">
   <si>
     <t>封國</t>
-    <rPh sb="0" eb="94">
+    <rPh sb="0" eb="2">
       <t>di'ming</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>受封者</t>
-    <rPh sb="0" eb="135">
+    <rPh sb="0" eb="3">
       <t>shou'feng'zhe</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>事件</t>
-    <rPh sb="0" eb="15">
+    <rPh sb="0" eb="2">
       <t>shi'j</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -106,7 +110,7 @@
   </si>
   <si>
     <t>最後出現</t>
-    <rPh sb="0" eb="73">
+    <rPh sb="0" eb="4">
       <t>yan'xu</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -120,21 +124,21 @@
   </si>
   <si>
     <t>出現</t>
-    <rPh sb="0" eb="104">
+    <rPh sb="0" eb="2">
       <t>shi'j</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>出現時間</t>
-    <rPh sb="0" eb="49">
+    <rPh sb="0" eb="4">
       <t>chu'xia</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <rPh sb="0" eb="35">
+    <rPh sb="0" eb="2">
       <t>feng'guo</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -232,14 +236,14 @@
   </si>
   <si>
     <t>漢書作陽城</t>
-    <rPh sb="0" eb="153">
+    <rPh sb="0" eb="5">
       <t>han'shu</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>附言</t>
-    <rPh sb="0" eb="22">
+    <rPh sb="0" eb="2">
       <t>fu'yan</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -616,7 +620,7 @@
   </si>
   <si>
     <t>文獻通考·封建考·王子侯</t>
-    <rPh sb="0" eb="236">
+    <rPh sb="0" eb="12">
       <t>wen'xin'a'tong'kao</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -969,12 +973,416 @@
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>东郡</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>治亭郡</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳平侯国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳平县</t>
+  </si>
+  <si>
+    <t>以皇后父侯，二千六百戶，子鳳以大將軍益封五千四百戶，凡八千戶。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩澤表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陽平頃侯王禁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清河綱王子。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈留郡</t>
+    <rPh sb="0" eb="3">
+      <t>chen'liu'jun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>陈留郡</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>chen'liu'j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长罗侯国</t>
+  </si>
+  <si>
+    <t>長羅壯侯常惠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>以校尉光祿大夫持節將烏孫兵擊匈奴，獲名王，首虜三萬九千級，侯，二千八百五十戶。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建武四年薨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，亡後。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠泽县</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成安侯国</t>
+  </si>
+  <si>
+    <t>成安县</t>
+  </si>
+  <si>
+    <t>周承休侯国</t>
+  </si>
+  <si>
+    <t>嘉美县</t>
+  </si>
+  <si>
+    <t>颍川郡</t>
+    <rPh sb="0" eb="20">
+      <t>ying'chuan'j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左队郡</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>zuo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>父千秋以校尉擊南越死事，子侯，千三百八十戶。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成安侯韓延年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周承休君姬延年</t>
+    <rPh sb="0" eb="3">
+      <t>zhou'chegn'xiu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「周子南侯國」以周後詔所襃侯，三千戶。元康元年三月丙戌，君延年以當弟紹封，初元五年正月癸巳，更封為周承休 侯，位次諸侯王，二十九年薨，諡曰考。元始四年，為鄭公，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王莽篡位，為章牟公</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。天鳳元年，公常嗣，建武二年五月戊辰更為 周承休侯。</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>zhou'zi'nan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汝南郡</t>
+  </si>
+  <si>
+    <t>汝坟郡</t>
+    <rPh sb="0" eb="2">
+      <t>ru'fen</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弋阳县</t>
+  </si>
+  <si>
+    <t>安昌侯国</t>
+  </si>
+  <si>
+    <t>始成县</t>
+  </si>
+  <si>
+    <t>安阳侯国</t>
+  </si>
+  <si>
+    <t>均夏县</t>
+  </si>
+  <si>
+    <t>博阳侯国</t>
+  </si>
+  <si>
+    <t>乐家县</t>
+  </si>
+  <si>
+    <t>成阳侯国</t>
+  </si>
+  <si>
+    <t>新利县</t>
+  </si>
+  <si>
+    <t>定陵侯国</t>
+  </si>
+  <si>
+    <t>定陵县</t>
+  </si>
+  <si>
+    <t>弋阳侯国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弋陽節侯任宮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安昌節侯張禹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以丞相侯，六百一十七戶，益戶四百。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安陽敬侯王音</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以皇太后從弟大司馬車騎將軍侯，千六百戶，子舜益封。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>博陽定侯丙吉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以御史大夫關內侯有舊恩功德茂侯，千三百三十戶。南頓侯勝客嗣，王莽敗，絕。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成陽節侯趙臨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以皇后父侯，二千戶。建平元年，坐弟昭儀絕繼嗣，免，徙遼西。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>結束時間</t>
+    <rPh sb="0" eb="4">
+      <t>jie'shu'shi'j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定陵侯淳于長</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以侍中衞尉言昌陵不可成侯，千戶。皇太后姊子。元延三年二月丙午封，二年，綏和元年，坐大逆，下獄死。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>归德侯国</t>
+  </si>
+  <si>
+    <t>归惠县</t>
+  </si>
+  <si>
+    <t>改一</t>
+  </si>
+  <si>
+    <t>歸德靖侯先賢撣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以匈奴單于從兄日逐王率衆降，侯，二千二百五十戶。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳城侯国</t>
+    <rPh sb="0" eb="3">
+      <t>hou'fu'o</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新安县</t>
+  </si>
+  <si>
+    <t>安成侯国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>至成县</t>
+  </si>
+  <si>
+    <t>宜春侯国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣孱县</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陽城繆侯劉德</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>以宗正關內侯行謹重為宗室率，侯，子安民以戶五百贖弟更生罪，減一等，定戶六百四十戶。居攝元年，侯颯嗣，王莽敗，絕。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孫劉歆，按功臣親屬保持封地看，沒有被沒收封地，但是改了名字。</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>sun</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安成共侯王崇</t>
+    <rPh sb="0" eb="1">
+      <t>wnag</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <rPh sb="0" eb="1">
+      <t>wnag</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>建始元年二月壬子，以皇太后母弟散騎光祿大夫關內侯侯，萬戶，二年薨。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建國二年，侯持弓嗣，王莽敗，絕。</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以故丞相徵事手捕反者左將軍桀，侯，九百一十五戶。元始元年，侯固嗣，更始元年，為兵所殺。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜春敬侯王訢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以丞相侯，子譚與大將軍光定策，益封，坐法削戶五百，定六百八戶。二十六年，更始元年，為兵所殺。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐昌侯国</t>
+    <rPh sb="0" eb="2">
+      <t>hou'guo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐昌县</t>
+  </si>
+  <si>
+    <t>樂昌共侯王武</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <rPh sb="0" eb="1">
+      <t>guo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以帝舅關內侯侯，六百戶。河平四年，侯安嗣，二十七年，元始三年，為王莽所殺。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1000,6 +1408,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="SimSun"/>
       <family val="3"/>
@@ -1017,6 +1431,12 @@
       <color rgb="FFFF0000"/>
       <name val="等线 (正文)"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线 (正文)"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1042,14 +1462,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -1059,6 +1482,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1384,81 +1816,81 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>550</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>2</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>10524</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="2">
         <v>-12</v>
       </c>
     </row>
@@ -1522,58 +1954,58 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
         <v>550</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>10524</v>
       </c>
       <c r="J2" t="s">
@@ -1707,15 +2139,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301C5228-0766-C84B-9BFD-7662BC32D069}">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>130</v>
       </c>
@@ -1737,32 +2169,35 @@
       <c r="G1" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1799,11 +2234,14 @@
       <c r="M2">
         <v>3</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -1840,11 +2278,14 @@
       <c r="M3">
         <v>3</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -1881,11 +2322,14 @@
       <c r="M4">
         <v>4</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1922,11 +2366,11 @@
       <c r="M5">
         <v>4</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1963,11 +2407,14 @@
       <c r="M6">
         <v>3</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -2004,14 +2451,14 @@
       <c r="M7">
         <v>4</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>32</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -2051,14 +2498,14 @@
       <c r="M8">
         <v>3</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>32</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -2083,20 +2530,20 @@
       <c r="H9" t="s">
         <v>146</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="4" t="s">
         <v>142</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>144</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -2121,20 +2568,20 @@
       <c r="H10" t="s">
         <v>147</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="4" t="s">
         <v>142</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>144</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -2159,20 +2606,20 @@
       <c r="H11" t="s">
         <v>150</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="4" t="s">
         <v>142</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>144</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -2194,10 +2641,10 @@
       <c r="G12">
         <v>23515</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="5">
         <v>-116</v>
       </c>
       <c r="K12">
@@ -2209,14 +2656,14 @@
       <c r="M12">
         <v>4</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>32</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -2241,20 +2688,20 @@
       <c r="H13" t="s">
         <v>157</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="4" t="s">
         <v>142</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>144</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -2279,20 +2726,20 @@
       <c r="H14" t="s">
         <v>159</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="4" t="s">
         <v>142</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>144</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -2317,20 +2764,20 @@
       <c r="H15" t="s">
         <v>161</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="4" t="s">
         <v>142</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>144</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -2364,14 +2811,14 @@
       <c r="M16">
         <v>5</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>32</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -2393,7 +2840,7 @@
       <c r="G17">
         <v>23527</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="6" t="s">
         <v>164</v>
       </c>
       <c r="I17">
@@ -2408,14 +2855,14 @@
       <c r="M17">
         <v>5</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>32</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -2452,14 +2899,14 @@
       <c r="M18">
         <v>4</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>32</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -2496,14 +2943,14 @@
       <c r="M19">
         <v>3</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>32</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -2540,14 +2987,14 @@
       <c r="M20">
         <v>4</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>32</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -2584,14 +3031,14 @@
       <c r="M21">
         <v>3</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>32</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -2625,14 +3072,14 @@
       <c r="L22" t="s">
         <v>40</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>32</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -2669,14 +3116,14 @@
       <c r="M23">
         <v>2</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>32</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -2713,14 +3160,14 @@
       <c r="M24">
         <v>2</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>32</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -2757,14 +3204,14 @@
       <c r="M25">
         <v>2</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>32</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -2801,14 +3248,14 @@
       <c r="M26">
         <v>1</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>32</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -2830,7 +3277,7 @@
       <c r="G27">
         <v>23539</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="6" t="s">
         <v>182</v>
       </c>
       <c r="I27">
@@ -2845,14 +3292,14 @@
       <c r="L27" t="s">
         <v>153</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>31</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -2881,7 +3328,7 @@
         <v>-20</v>
       </c>
       <c r="J28">
-        <v>1000</v>
+        <v>1090</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2892,14 +3339,14 @@
       <c r="M28">
         <v>1</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>186</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -2936,14 +3383,14 @@
       <c r="M29">
         <v>2</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>32</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -2968,7 +3415,7 @@
       <c r="H30" t="s">
         <v>188</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="5">
         <v>-41</v>
       </c>
       <c r="K30">
@@ -2980,14 +3427,14 @@
       <c r="M30">
         <v>2</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>32</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -3024,14 +3471,14 @@
       <c r="M31">
         <v>2</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>32</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -3068,14 +3515,14 @@
       <c r="M32">
         <v>2</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>32</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:16">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -3112,14 +3559,14 @@
       <c r="M33">
         <v>1</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>32</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:16">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -3144,20 +3591,20 @@
       <c r="H34" t="s">
         <v>193</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="4" t="s">
         <v>142</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>144</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:16">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -3179,10 +3626,10 @@
       <c r="G35">
         <v>23547</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="5">
         <v>-20</v>
       </c>
       <c r="J35">
@@ -3197,14 +3644,14 @@
       <c r="M35">
         <v>2</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>31</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:16">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -3226,7 +3673,7 @@
       <c r="G36">
         <v>23548</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="6" t="s">
         <v>196</v>
       </c>
       <c r="I36">
@@ -3241,14 +3688,14 @@
       <c r="M36">
         <v>1</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>32</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:16">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -3270,7 +3717,7 @@
       <c r="G37">
         <v>23549</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="6" t="s">
         <v>198</v>
       </c>
       <c r="I37">
@@ -3288,14 +3735,14 @@
       <c r="M37">
         <v>2</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>186</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:16">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -3317,7 +3764,7 @@
       <c r="G38">
         <v>23550</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="6" t="s">
         <v>201</v>
       </c>
       <c r="I38">
@@ -3332,14 +3779,14 @@
       <c r="M38">
         <v>1</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>32</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -3361,7 +3808,7 @@
       <c r="G39">
         <v>23551</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="2" t="s">
         <v>203</v>
       </c>
       <c r="I39">
@@ -3376,14 +3823,14 @@
       <c r="M39">
         <v>2</v>
       </c>
-      <c r="N39" t="s">
+      <c r="O39" t="s">
         <v>32</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:16">
       <c r="A40" t="s">
         <v>125</v>
       </c>
@@ -3405,7 +3852,7 @@
       <c r="G40">
         <v>40506</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="6" t="s">
         <v>206</v>
       </c>
       <c r="I40">
@@ -3420,14 +3867,14 @@
       <c r="M40">
         <v>6</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>32</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -3449,7 +3896,7 @@
       <c r="G41">
         <v>40508</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="6" t="s">
         <v>208</v>
       </c>
       <c r="I41">
@@ -3464,50 +3911,785 @@
       <c r="M41">
         <v>4</v>
       </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>32</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:16">
+      <c r="A42" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
         <v>105</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="2">
         <v>10524</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1">
-        <v>550</v>
-      </c>
-      <c r="K42" s="1">
+      <c r="I42" s="7">
+        <v>-112</v>
+      </c>
+      <c r="J42" s="2">
+        <v>520</v>
+      </c>
+      <c r="K42" s="2">
         <v>2</v>
       </c>
-      <c r="N42" t="s">
+      <c r="L42" t="s">
+        <v>153</v>
+      </c>
+      <c r="M42">
+        <v>3</v>
+      </c>
+      <c r="O42" t="s">
         <v>31</v>
       </c>
+      <c r="P42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="2">
+        <v>216</v>
+      </c>
+      <c r="D43" t="s">
+        <v>216</v>
+      </c>
+      <c r="E43" t="s">
+        <v>217</v>
+      </c>
+      <c r="F43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43">
+        <v>21619</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="I43">
+        <v>-48</v>
+      </c>
+      <c r="J43">
+        <v>8000</v>
+      </c>
+      <c r="K43" s="2">
+        <v>3</v>
+      </c>
+      <c r="L43" t="s">
+        <v>153</v>
+      </c>
+      <c r="M43">
+        <v>5</v>
+      </c>
+      <c r="O43" t="s">
+        <v>219</v>
+      </c>
+      <c r="P43" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C44" s="2">
+        <v>217</v>
+      </c>
+      <c r="D44" t="s">
+        <v>224</v>
+      </c>
+      <c r="E44" t="s">
+        <v>227</v>
+      </c>
+      <c r="F44" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44">
+        <v>21711</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I44">
+        <v>-70</v>
+      </c>
+      <c r="J44">
+        <v>2850</v>
+      </c>
+      <c r="K44" s="2">
+        <v>2</v>
+      </c>
+      <c r="L44" t="s">
+        <v>153</v>
+      </c>
+      <c r="M44">
+        <v>4</v>
+      </c>
+      <c r="O44" t="s">
+        <v>31</v>
+      </c>
+      <c r="P44" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C45" s="2">
+        <v>201</v>
+      </c>
+      <c r="D45" t="s">
+        <v>228</v>
+      </c>
+      <c r="E45" t="s">
+        <v>229</v>
+      </c>
+      <c r="F45" t="s">
+        <v>44</v>
+      </c>
+      <c r="G45">
+        <v>20117</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I45" s="8">
+        <v>-112</v>
+      </c>
+      <c r="J45">
+        <v>1380</v>
+      </c>
+      <c r="K45" s="2">
+        <v>2</v>
+      </c>
+      <c r="L45" t="s">
+        <v>40</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="O45" t="s">
+        <v>31</v>
+      </c>
+      <c r="P45" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C46" s="2">
+        <v>201</v>
+      </c>
+      <c r="D46" t="s">
+        <v>230</v>
+      </c>
+      <c r="E46" t="s">
+        <v>231</v>
+      </c>
+      <c r="F46" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46">
+        <v>20118</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="I46">
+        <v>-44</v>
+      </c>
+      <c r="J46">
+        <v>3000</v>
+      </c>
+      <c r="K46" s="2">
+        <v>3</v>
+      </c>
+      <c r="L46" t="s">
+        <v>153</v>
+      </c>
+      <c r="M46">
+        <v>6</v>
+      </c>
+      <c r="O46" t="s">
+        <v>186</v>
+      </c>
+      <c r="P46" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C47" s="2">
+        <v>202</v>
+      </c>
+      <c r="D47" t="s">
+        <v>251</v>
+      </c>
+      <c r="E47" t="s">
+        <v>240</v>
+      </c>
+      <c r="F47" t="s">
+        <v>44</v>
+      </c>
+      <c r="G47">
+        <v>20222</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="I47">
+        <v>-80</v>
+      </c>
+      <c r="J47">
+        <v>915</v>
+      </c>
+      <c r="K47" s="2">
+        <v>2</v>
+      </c>
+      <c r="L47" t="s">
+        <v>153</v>
+      </c>
+      <c r="M47">
+        <v>5</v>
+      </c>
+      <c r="N47">
+        <v>23</v>
+      </c>
+      <c r="O47" t="s">
+        <v>31</v>
+      </c>
+      <c r="P47" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C48" s="2">
+        <v>202</v>
+      </c>
+      <c r="D48" t="s">
+        <v>241</v>
+      </c>
+      <c r="E48" t="s">
+        <v>242</v>
+      </c>
+      <c r="F48" t="s">
+        <v>48</v>
+      </c>
+      <c r="G48">
+        <v>20233</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="I48">
+        <v>-25</v>
+      </c>
+      <c r="J48">
+        <v>1017</v>
+      </c>
+      <c r="K48" s="2">
+        <v>3</v>
+      </c>
+      <c r="L48" t="s">
+        <v>153</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="O48" t="s">
+        <v>186</v>
+      </c>
+      <c r="P48" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C49" s="2">
+        <v>202</v>
+      </c>
+      <c r="D49" t="s">
+        <v>243</v>
+      </c>
+      <c r="E49" t="s">
+        <v>244</v>
+      </c>
+      <c r="F49" t="s">
+        <v>45</v>
+      </c>
+      <c r="G49">
+        <v>20234</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="I49" s="5">
+        <v>-20</v>
+      </c>
+      <c r="J49">
+        <v>1600</v>
+      </c>
+      <c r="K49" s="2">
+        <v>3</v>
+      </c>
+      <c r="L49" t="s">
+        <v>153</v>
+      </c>
+      <c r="M49">
+        <v>3</v>
+      </c>
+      <c r="O49" t="s">
+        <v>186</v>
+      </c>
+      <c r="P49" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C50" s="2">
+        <v>202</v>
+      </c>
+      <c r="D50" t="s">
+        <v>245</v>
+      </c>
+      <c r="E50" t="s">
+        <v>246</v>
+      </c>
+      <c r="F50" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50">
+        <v>20235</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="I50" s="5">
+        <v>-63</v>
+      </c>
+      <c r="J50">
+        <v>1330</v>
+      </c>
+      <c r="K50" s="2">
+        <v>3</v>
+      </c>
+      <c r="L50" t="s">
+        <v>153</v>
+      </c>
+      <c r="M50">
+        <v>5</v>
+      </c>
+      <c r="O50" t="s">
+        <v>186</v>
+      </c>
+      <c r="P50" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C51" s="2">
+        <v>202</v>
+      </c>
+      <c r="D51" t="s">
+        <v>247</v>
+      </c>
+      <c r="E51" t="s">
+        <v>248</v>
+      </c>
+      <c r="F51" t="s">
+        <v>48</v>
+      </c>
+      <c r="G51">
+        <v>20236</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="I51" s="5">
+        <v>-16</v>
+      </c>
+      <c r="J51">
+        <v>2000</v>
+      </c>
+      <c r="K51" s="2">
+        <v>3</v>
+      </c>
+      <c r="L51" t="s">
+        <v>40</v>
+      </c>
+      <c r="M51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>-6</v>
+      </c>
+      <c r="O51" t="s">
+        <v>186</v>
+      </c>
+      <c r="P51" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C52" s="2">
+        <v>202</v>
+      </c>
+      <c r="D52" t="s">
+        <v>249</v>
+      </c>
+      <c r="E52" t="s">
+        <v>250</v>
+      </c>
+      <c r="F52" t="s">
+        <v>44</v>
+      </c>
+      <c r="G52">
+        <v>20237</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="I52" s="9">
+        <v>-10</v>
+      </c>
+      <c r="J52">
+        <v>1000</v>
+      </c>
+      <c r="K52" s="2">
+        <v>3</v>
+      </c>
+      <c r="L52" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>-8</v>
+      </c>
+      <c r="O52" t="s">
+        <v>186</v>
+      </c>
+      <c r="P52" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C53" s="2">
+        <v>202</v>
+      </c>
+      <c r="D53" t="s">
+        <v>264</v>
+      </c>
+      <c r="E53" t="s">
+        <v>265</v>
+      </c>
+      <c r="F53" t="s">
+        <v>266</v>
+      </c>
+      <c r="G53">
+        <v>20231</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="I53" s="9">
+        <v>-59</v>
+      </c>
+      <c r="J53">
+        <v>2250</v>
+      </c>
+      <c r="K53" s="2">
+        <v>2</v>
+      </c>
+      <c r="L53" t="s">
+        <v>153</v>
+      </c>
+      <c r="M53">
+        <v>5</v>
+      </c>
+      <c r="N53">
+        <v>71</v>
+      </c>
+      <c r="O53" t="s">
+        <v>31</v>
+      </c>
+      <c r="P53" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C54" s="2">
+        <v>202</v>
+      </c>
+      <c r="D54" t="s">
+        <v>269</v>
+      </c>
+      <c r="E54" t="s">
+        <v>270</v>
+      </c>
+      <c r="F54" t="s">
+        <v>45</v>
+      </c>
+      <c r="G54">
+        <v>20203</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="I54" s="9">
+        <v>-66</v>
+      </c>
+      <c r="J54">
+        <v>640</v>
+      </c>
+      <c r="K54" s="2">
+        <v>3</v>
+      </c>
+      <c r="L54" t="s">
+        <v>153</v>
+      </c>
+      <c r="M54">
+        <v>4</v>
+      </c>
+      <c r="O54" t="s">
+        <v>186</v>
+      </c>
+      <c r="P54" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C55" s="2">
+        <v>202</v>
+      </c>
+      <c r="D55" t="s">
+        <v>271</v>
+      </c>
+      <c r="E55" t="s">
+        <v>272</v>
+      </c>
+      <c r="F55" t="s">
+        <v>266</v>
+      </c>
+      <c r="G55">
+        <v>20209</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="I55" s="9">
+        <v>-32</v>
+      </c>
+      <c r="J55">
+        <v>10000</v>
+      </c>
+      <c r="K55" s="2">
+        <v>3</v>
+      </c>
+      <c r="L55" t="s">
+        <v>278</v>
+      </c>
+      <c r="M55">
+        <v>3</v>
+      </c>
+      <c r="O55" t="s">
+        <v>186</v>
+      </c>
+      <c r="P55" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C56" s="2">
+        <v>202</v>
+      </c>
+      <c r="D56" t="s">
+        <v>273</v>
+      </c>
+      <c r="E56" t="s">
+        <v>274</v>
+      </c>
+      <c r="F56" t="s">
+        <v>266</v>
+      </c>
+      <c r="G56">
+        <v>20213</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="I56" s="9">
+        <v>-77</v>
+      </c>
+      <c r="J56">
+        <v>608</v>
+      </c>
+      <c r="K56" s="2">
+        <v>3</v>
+      </c>
+      <c r="L56" t="s">
+        <v>153</v>
+      </c>
+      <c r="M56">
+        <v>5</v>
+      </c>
+      <c r="N56">
+        <v>23</v>
+      </c>
+      <c r="O56" t="s">
+        <v>186</v>
+      </c>
+      <c r="P56" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="2">
+        <v>216</v>
+      </c>
+      <c r="D57" t="s">
+        <v>283</v>
+      </c>
+      <c r="E57" t="s">
+        <v>284</v>
+      </c>
+      <c r="F57" t="s">
+        <v>44</v>
+      </c>
+      <c r="G57">
+        <v>21618</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="I57" s="9">
+        <v>-66</v>
+      </c>
+      <c r="J57">
+        <v>600</v>
+      </c>
+      <c r="K57" s="2">
+        <v>3</v>
+      </c>
+      <c r="L57" t="s">
+        <v>286</v>
+      </c>
+      <c r="M57">
+        <v>3</v>
+      </c>
+      <c r="N57">
+        <v>3</v>
+      </c>
+      <c r="O57" t="s">
+        <v>186</v>
+      </c>
+      <c r="P57" t="s">
+        <v>287</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="F1:F56" xr:uid="{AB6E04FE-3713-5749-AACE-E08409A608DA}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/analysis_sample/封国/封国.xlsx
+++ b/analysis_sample/封国/封国.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/analysis_sample/封国/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{133FF37F-88B7-5247-A785-FAE675B677C8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{48510074-860B-F44D-8909-B8F7439B695F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="460" windowWidth="23900" windowHeight="12580" activeTab="2" xr2:uid="{5D274D72-60B0-D249-AA11-A197B2C8B521}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="288">
   <si>
     <t>封國</t>
     <rPh sb="0" eb="2">
@@ -2141,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301C5228-0766-C84B-9BFD-7662BC32D069}">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4639,15 +4639,9 @@
       </c>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C57" s="2">
-        <v>216</v>
-      </c>
+      <c r="A57" s="2"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="2"/>
       <c r="D57" t="s">
         <v>283</v>
       </c>

--- a/analysis_sample/封国/封国.xlsx
+++ b/analysis_sample/封国/封国.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/analysis_sample/封国/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{7B425DE8-90E6-F145-8ADE-9F2921C3562D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2A254C-6523-FE47-AEEC-09561476D7DE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="460" windowWidth="23900" windowHeight="12580" activeTab="2" xr2:uid="{5D274D72-60B0-D249-AA11-A197B2C8B521}"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="23900" windowHeight="12580" activeTab="2" xr2:uid="{5D274D72-60B0-D249-AA11-A197B2C8B521}"/>
   </bookViews>
   <sheets>
     <sheet name="複雜" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,9 @@
     <sheet name="列表" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">列表!$A$1:$R$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">列表!$A$1:$R$96</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="506">
   <si>
     <t>封國</t>
     <rPh sb="0" eb="2">
@@ -939,10 +938,6 @@
     <t>阳平县</t>
   </si>
   <si>
-    <t>以皇后父侯，二千六百戶，子鳳以大將軍益封五千四百戶，凡八千戶。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>恩澤表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1045,14 +1040,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>父千秋以校尉擊南越死事，子侯，千三百八十戶。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成安侯韓延年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>周承休君姬延年</t>
     <rPh sb="0" eb="3">
       <t>zhou'chegn'xiu</t>
@@ -1060,34 +1047,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>「周子南侯國」以周後詔所襃侯，三千戶。元康元年三月丙戌，君延年以當弟紹封，初元五年正月癸巳，更封為周承休 侯，位次諸侯王，二十九年薨，諡曰考。元始四年，為鄭公，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线 (正文)"/>
-      </rPr>
-      <t>王莽篡位，為章牟公</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。天鳳元年，公常嗣，建武二年五月戊辰更為 周承休侯。</t>
-    </r>
-    <rPh sb="0" eb="3">
-      <t>zhou'zi'nan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>汝南郡</t>
   </si>
   <si>
@@ -1143,15 +1102,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>以丞相侯，六百一十七戶，益戶四百。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>安陽敬侯王音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以皇太后從弟大司馬車騎將軍侯，千六百戶，子舜益封。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1196,10 +1147,6 @@
   </si>
   <si>
     <t>歸德靖侯先賢撣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以匈奴單于從兄日逐王率衆降，侯，二千二百五十戶。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1394,10 +1341,6 @@
   </si>
   <si>
     <t>城陽荒王子。三月封，五十六年薨。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1743,10 +1686,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>紅陽 荒侯立</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>六月乙亥封，以皇太后弟關內侯侯，二千一百戶，三十年薨。元始四年，侯柱嗣，王莽敗，絕。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1828,6 +1767,505 @@
   </si>
   <si>
     <t>以丞相侯，千戶，元始元年益萬戶。元始五年，侯放嗣，王莽敗，絕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东海郡</t>
+    <rPh sb="0" eb="3">
+      <t>dong'hai'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沂平郡</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良成侯国</t>
+  </si>
+  <si>
+    <t>承翰县</t>
+  </si>
+  <si>
+    <t>兰祺侯国</t>
+  </si>
+  <si>
+    <t>溥睦县</t>
+  </si>
+  <si>
+    <t>南成侯国</t>
+  </si>
+  <si>
+    <t>南成县</t>
+  </si>
+  <si>
+    <t>山乡侯国</t>
+  </si>
+  <si>
+    <t>山乡县</t>
+  </si>
+  <si>
+    <t>建乡侯国</t>
+  </si>
+  <si>
+    <t>建乡县</t>
+  </si>
+  <si>
+    <t>容丘侯国</t>
+  </si>
+  <si>
+    <t>容丘县</t>
+  </si>
+  <si>
+    <t>东安侯国</t>
+  </si>
+  <si>
+    <t>业亭县</t>
+  </si>
+  <si>
+    <t>建阳侯国</t>
+  </si>
+  <si>
+    <t>建力县</t>
+  </si>
+  <si>
+    <t>于乡侯国</t>
+  </si>
+  <si>
+    <t>于乡县</t>
+  </si>
+  <si>
+    <t>平曲侯国</t>
+  </si>
+  <si>
+    <t>端平县</t>
+  </si>
+  <si>
+    <t>都阳侯国</t>
+  </si>
+  <si>
+    <t>都阳县</t>
+  </si>
+  <si>
+    <t>阴平侯国</t>
+  </si>
+  <si>
+    <t>阴平县</t>
+  </si>
+  <si>
+    <t>徐亭县</t>
+  </si>
+  <si>
+    <t>武阳侯国</t>
+  </si>
+  <si>
+    <t>弘亭县</t>
+  </si>
+  <si>
+    <t>新阳侯国</t>
+  </si>
+  <si>
+    <t>博聚县</t>
+  </si>
+  <si>
+    <t>建陵侯国</t>
+  </si>
+  <si>
+    <t>付亭县</t>
+  </si>
+  <si>
+    <t>昌虑侯国</t>
+  </si>
+  <si>
+    <t>虑聚县</t>
+  </si>
+  <si>
+    <t>都平侯国</t>
+  </si>
+  <si>
+    <t>都平县</t>
+  </si>
+  <si>
+    <t>良成頃侯文德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魯安王子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魯安王子。侯閔嗣，絕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘭旗頃侯臨朝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南城節侯貞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城陽共王子。六世侯友嗣，王莽篡位，絕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山鄉節侯綰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魯孝王子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建鄉釐侯康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魯頃王子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魯頃王子。侯自當嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容丘戴侯方山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東安孝侯強</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">魯孝王子。	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建陽節侯咸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于鄉節侯定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泗水勤王子。侯聖嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平曲節侯曾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廣陵厲王子。侯農嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都陽節侯音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城陽戴王子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陰平釐侯回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楚孝王子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郚乡侯国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郚鄉侯閔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>魯頃王子。四年四月甲寅封，十七年，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>建平三年，為魯王</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鴻嘉元年四月庚辰以帝為太子時輔導有舊恩侯，千三百戶，七年薨。元壽二年，侯獲嗣，更始元年為兵所殺。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武陽頃侯丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新陽頃侯永</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建陵靖侯遂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魯孝王子。侯連文嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌慮康侯弘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魯孝王子。侯蓋嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都平愛侯丘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城陽荒王子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成安嚴侯郭忠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以張掖屬國都尉匈奴入寇與戰，斬黎汗王，侯，七百二十四戶。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「周子南侯國」以周後詔所襃侯，三千戶。元康元年三月丙戌，君延年以當弟紹封，初元五年正月癸巳，更封為周承休 侯，位次諸侯王，二十九年薨，諡曰考。元始四年，為鄭公，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王莽篡位，為章牟公</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。天鳳元年，公常嗣，建武二年五月戊辰更為 周承休侯。</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>zhou'zi'nan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以匈奴單于從兄日逐王率衆降，侯，二千二百五十戶。永平十四年，有罪免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以丞相侯，六百一十七戶，益戶四百。二十八年，更始元年，為兵所殺。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以皇太后從弟大司馬車騎將軍侯，千六百戶，子舜益封。建國三年，公攝嗣，更號和新公，與莽俱死。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以皇后父侯，二千六百戶，子鳳以大將軍益封五千四百戶，凡八千戶。建國三年，侯莫嗣，十二年，更始元年，為兵所殺。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临淮郡</t>
+    <rPh sb="0" eb="3">
+      <t>lin'huai'jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淮平郡</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西平侯国</t>
+    <rPh sb="0" eb="2">
+      <t>hou'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永聚县</t>
+  </si>
+  <si>
+    <t>高平侯国</t>
+  </si>
+  <si>
+    <t>成丘县</t>
+  </si>
+  <si>
+    <t>开陵侯国</t>
+  </si>
+  <si>
+    <t>成乡县</t>
+  </si>
+  <si>
+    <t>昌阳侯国</t>
+  </si>
+  <si>
+    <t>昌阳县</t>
+  </si>
+  <si>
+    <t>广平侯国</t>
+  </si>
+  <si>
+    <t>兰阳侯国</t>
+  </si>
+  <si>
+    <t>建节县</t>
+  </si>
+  <si>
+    <t>襄平侯国</t>
+  </si>
+  <si>
+    <t>相平县</t>
+  </si>
+  <si>
+    <t>乐陵侯国</t>
+  </si>
+  <si>
+    <t>乐陵县</t>
+  </si>
+  <si>
+    <t>西平安侯于定國</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以丞相侯，六百六十戶。鴻嘉元年，侯恬嗣，四十三年，更始元年絕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅陽荒侯立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元延四年，侯置嗣，王莽敗，絕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高平戴侯逢時</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開陵 侯成娩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以故匈奴介和王將兵擊車師，不得封年。侯參嗣，王莽敗，絕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昌陽侯霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泗水戾王子。五月戊申封，二十一年免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廣平節侯德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廣陵孝王子。侯德嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘭陵節侯宜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廣陵孝王子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>襄平侯舋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廣陽厲王子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以悼皇考舅子侍中關內侯與發霍氏姦，侯，二千三百戶。元始四年，侯岑以高曾孫紹封，王莽敗，絕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂陵安侯史高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豫章郡</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九江郡</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安平侯国</t>
+  </si>
+  <si>
+    <t>安宁县</t>
+  </si>
+  <si>
+    <t>安平釐侯習</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長沙孝王子。侯嘉嗣，免。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1835,7 +2273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1898,6 +2336,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1921,7 +2374,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1953,6 +2406,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2601,10 +3057,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301C5228-0766-C84B-9BFD-7662BC32D069}">
-  <dimension ref="A1:R78"/>
+  <dimension ref="A1:R105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="O68" sqref="O68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R105" sqref="R105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2650,7 +3107,7 @@
         <v>27</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>30</v>
@@ -2659,13 +3116,13 @@
         <v>35</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2714,19 +3171,19 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="C3" s="2">
         <v>201</v>
       </c>
       <c r="D3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" t="s">
         <v>216</v>
-      </c>
-      <c r="E3" t="s">
-        <v>217</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -2735,42 +3192,48 @@
         <v>20117</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>223</v>
+        <v>458</v>
       </c>
       <c r="I3" s="7">
-        <v>-112</v>
+        <v>-78</v>
       </c>
       <c r="J3">
-        <v>1380</v>
+        <v>724</v>
       </c>
       <c r="K3" s="2">
         <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <v>23</v>
       </c>
       <c r="N3" t="s">
         <v>31</v>
       </c>
       <c r="O3" t="s">
-        <v>222</v>
+        <v>459</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="C4" s="2">
         <v>201</v>
       </c>
       <c r="D4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" t="s">
         <v>218</v>
-      </c>
-      <c r="E4" t="s">
-        <v>219</v>
       </c>
       <c r="F4" t="s">
         <v>45</v>
@@ -2779,7 +3242,7 @@
         <v>20118</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I4">
         <v>-44</v>
@@ -2793,28 +3256,34 @@
       <c r="L4">
         <v>6</v>
       </c>
+      <c r="M4" t="s">
+        <v>461</v>
+      </c>
       <c r="N4" t="s">
         <v>179</v>
       </c>
       <c r="O4" t="s">
-        <v>225</v>
+        <v>460</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C5" s="2">
         <v>202</v>
       </c>
       <c r="D5" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E5" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -2823,7 +3292,7 @@
         <v>20203</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I5" s="8">
         <v>-66</v>
@@ -2837,37 +3306,43 @@
       <c r="L5">
         <v>4</v>
       </c>
+      <c r="M5">
+        <v>23</v>
+      </c>
       <c r="N5" t="s">
         <v>179</v>
       </c>
       <c r="O5" t="s">
-        <v>264</v>
+        <v>257</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C6" s="2">
         <v>202</v>
       </c>
       <c r="D6" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="E6" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F6" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G6">
         <v>20209</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I6" s="8">
         <v>-32</v>
@@ -2881,37 +3356,43 @@
       <c r="L6">
         <v>3</v>
       </c>
+      <c r="M6">
+        <v>23</v>
+      </c>
       <c r="N6" t="s">
         <v>179</v>
       </c>
       <c r="O6" t="s">
-        <v>266</v>
+        <v>259</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C7" s="2">
         <v>202</v>
       </c>
       <c r="D7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="E7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G7">
         <v>20213</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="I7" s="8">
         <v>-77</v>
@@ -2932,24 +3413,27 @@
         <v>179</v>
       </c>
       <c r="O7" t="s">
-        <v>269</v>
+        <v>262</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C8" s="2">
         <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E8" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F8" t="s">
         <v>44</v>
@@ -2958,7 +3442,7 @@
         <v>20222</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I8">
         <v>-80</v>
@@ -2979,33 +3463,36 @@
         <v>31</v>
       </c>
       <c r="O8" t="s">
-        <v>267</v>
+        <v>260</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C9" s="2">
         <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E9" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F9" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G9">
         <v>20231</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I9" s="8">
         <v>-59</v>
@@ -3026,24 +3513,27 @@
         <v>31</v>
       </c>
       <c r="O9" t="s">
-        <v>256</v>
+        <v>462</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C10" s="2">
         <v>202</v>
       </c>
       <c r="D10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E10" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F10" t="s">
         <v>48</v>
@@ -3052,7 +3542,7 @@
         <v>20233</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I10">
         <v>-25</v>
@@ -3066,28 +3556,34 @@
       <c r="L10">
         <v>2</v>
       </c>
+      <c r="M10">
+        <v>23</v>
+      </c>
       <c r="N10" t="s">
         <v>179</v>
       </c>
       <c r="O10" t="s">
-        <v>242</v>
+        <v>463</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C11" s="2">
         <v>202</v>
       </c>
       <c r="D11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E11" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F11" t="s">
         <v>45</v>
@@ -3096,7 +3592,7 @@
         <v>20234</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="I11" s="5">
         <v>-20</v>
@@ -3110,28 +3606,34 @@
       <c r="L11">
         <v>3</v>
       </c>
+      <c r="M11">
+        <v>23</v>
+      </c>
       <c r="N11" t="s">
         <v>179</v>
       </c>
       <c r="O11" t="s">
-        <v>244</v>
+        <v>464</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C12" s="2">
         <v>202</v>
       </c>
       <c r="D12" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E12" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F12" t="s">
         <v>45</v>
@@ -3140,7 +3642,7 @@
         <v>20235</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I12" s="5">
         <v>-63</v>
@@ -3154,28 +3656,34 @@
       <c r="L12">
         <v>5</v>
       </c>
+      <c r="M12">
+        <v>23</v>
+      </c>
       <c r="N12" t="s">
         <v>179</v>
       </c>
       <c r="O12" t="s">
-        <v>246</v>
+        <v>240</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C13" s="2">
         <v>202</v>
       </c>
       <c r="D13" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E13" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -3184,7 +3692,7 @@
         <v>20236</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="I13" s="5">
         <v>-16</v>
@@ -3205,24 +3713,27 @@
         <v>179</v>
       </c>
       <c r="O13" t="s">
-        <v>248</v>
+        <v>242</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C14" s="2">
         <v>202</v>
       </c>
       <c r="D14" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E14" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F14" t="s">
         <v>44</v>
@@ -3231,7 +3742,7 @@
         <v>20237</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I14" s="8">
         <v>-10</v>
@@ -3252,33 +3763,36 @@
         <v>179</v>
       </c>
       <c r="O14" t="s">
-        <v>251</v>
+        <v>245</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C15" s="2">
         <v>203</v>
       </c>
       <c r="D15" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E15" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F15" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G15">
         <v>20308</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="I15" s="8">
         <v>-26</v>
@@ -3296,7 +3810,7 @@
         <v>32</v>
       </c>
       <c r="O15" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="P15">
         <v>2</v>
@@ -3304,22 +3818,25 @@
       <c r="Q15">
         <v>1</v>
       </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C16" s="2">
         <v>203</v>
       </c>
       <c r="D16" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E16" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F16" t="s">
         <v>44</v>
@@ -3328,7 +3845,7 @@
         <v>20317</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="I16" s="8">
         <v>-126</v>
@@ -3346,7 +3863,7 @@
         <v>32</v>
       </c>
       <c r="O16" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -3354,22 +3871,25 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C17" s="2">
         <v>203</v>
       </c>
       <c r="D17" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E17" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
@@ -3378,7 +3898,7 @@
         <v>20319</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="I17" s="8">
         <v>-126</v>
@@ -3387,10 +3907,10 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="O17" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -3398,31 +3918,34 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C18" s="2">
         <v>203</v>
       </c>
       <c r="D18" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E18" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F18" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G18">
         <v>20321</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="I18" s="8">
         <v>-92</v>
@@ -3437,30 +3960,33 @@
         <v>32</v>
       </c>
       <c r="O18" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="P18" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C19" s="2">
         <v>203</v>
       </c>
       <c r="D19" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="E19" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F19" t="s">
         <v>44</v>
@@ -3469,7 +3995,7 @@
         <v>20324</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="I19" s="8">
         <v>-55</v>
@@ -3490,33 +4016,39 @@
         <v>179</v>
       </c>
       <c r="O19" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>331</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C20" s="2">
         <v>203</v>
       </c>
       <c r="D20" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E20" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F20" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G20">
         <v>20326</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="I20" s="8">
         <v>-80</v>
@@ -3537,24 +4069,30 @@
         <v>31</v>
       </c>
       <c r="O20" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>333</v>
+      </c>
+      <c r="P20">
+        <v>2</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C21" s="2">
         <v>203</v>
       </c>
       <c r="D21" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E21" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F21" t="s">
         <v>45</v>
@@ -3563,7 +4101,7 @@
         <v>20328</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="I21" s="8">
         <v>-20</v>
@@ -3578,7 +4116,7 @@
         <v>32</v>
       </c>
       <c r="O21" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="P21">
         <v>1</v>
@@ -3586,31 +4124,34 @@
       <c r="Q21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C22" s="2">
         <v>203</v>
       </c>
       <c r="D22" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="E22" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F22" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G22">
         <v>20329</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="I22" s="8">
         <v>-71</v>
@@ -3628,24 +4169,30 @@
         <v>179</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>337</v>
+      </c>
+      <c r="P22" s="9">
+        <v>2</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C23" s="2">
         <v>203</v>
       </c>
       <c r="D23" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="E23" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="F23" t="s">
         <v>44</v>
@@ -3654,7 +4201,7 @@
         <v>20330</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="I23" s="8">
         <v>-48</v>
@@ -3669,7 +4216,7 @@
         <v>32</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="P23">
         <v>1</v>
@@ -3677,22 +4224,25 @@
       <c r="Q23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C24" s="2">
         <v>203</v>
       </c>
       <c r="D24" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E24" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="F24" t="s">
         <v>44</v>
@@ -3701,7 +4251,7 @@
         <v>20331</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="I24" s="8">
         <v>-48</v>
@@ -3716,7 +4266,7 @@
         <v>32</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="P24">
         <v>1</v>
@@ -3724,22 +4274,25 @@
       <c r="Q24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C25" s="2">
         <v>203</v>
       </c>
       <c r="D25" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E25" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F25" t="s">
         <v>44</v>
@@ -3747,31 +4300,34 @@
       <c r="G25">
         <v>20332</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C26" s="2">
         <v>203</v>
       </c>
       <c r="D26" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E26" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F26" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G26">
         <v>20333</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="I26">
         <v>-27</v>
@@ -3792,24 +4348,30 @@
         <v>179</v>
       </c>
       <c r="O26" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>343</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C27" s="2">
         <v>203</v>
       </c>
       <c r="D27" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E27" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F27" t="s">
         <v>45</v>
@@ -3818,7 +4380,7 @@
         <v>20337</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="I27">
         <v>-15</v>
@@ -3833,7 +4395,7 @@
         <v>32</v>
       </c>
       <c r="O27" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="P27">
         <v>1</v>
@@ -3841,8 +4403,11 @@
       <c r="Q27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -3880,7 +4445,7 @@
         <v>32</v>
       </c>
       <c r="O28" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="P28">
         <v>1</v>
@@ -3889,7 +4454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -3927,7 +4492,7 @@
         <v>32</v>
       </c>
       <c r="O29" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="P29">
         <v>1</v>
@@ -3936,7 +4501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -3974,7 +4539,7 @@
         <v>32</v>
       </c>
       <c r="O30" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="P30">
         <v>1</v>
@@ -3983,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -4021,7 +4586,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -4059,7 +4624,7 @@
         <v>32</v>
       </c>
       <c r="O32" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="P32">
         <v>1</v>
@@ -4106,7 +4671,7 @@
         <v>32</v>
       </c>
       <c r="O33" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="P33">
         <v>1</v>
@@ -4159,7 +4724,7 @@
         <v>32</v>
       </c>
       <c r="O34" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -4191,7 +4756,7 @@
         <v>21619</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I35">
         <v>-48</v>
@@ -4205,28 +4770,34 @@
       <c r="L35">
         <v>5</v>
       </c>
+      <c r="M35">
+        <v>23</v>
+      </c>
       <c r="N35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O35" t="s">
-        <v>207</v>
+        <v>465</v>
+      </c>
+      <c r="P35">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="C36" s="2">
         <v>217</v>
       </c>
       <c r="D36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F36" t="s">
         <v>45</v>
@@ -4235,7 +4806,7 @@
         <v>21711</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I36">
         <v>-70</v>
@@ -4249,11 +4820,17 @@
       <c r="L36">
         <v>4</v>
       </c>
+      <c r="M36">
+        <v>28</v>
+      </c>
       <c r="N36" t="s">
         <v>31</v>
       </c>
       <c r="O36" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+      <c r="P36">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4569,7 +5146,7 @@
         <v>32</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="P44">
         <v>1</v>
@@ -4663,7 +5240,7 @@
         <v>32</v>
       </c>
       <c r="O46" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="P46">
         <v>1</v>
@@ -4710,7 +5287,7 @@
         <v>32</v>
       </c>
       <c r="O47" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="P47">
         <v>1</v>
@@ -4757,7 +5334,7 @@
         <v>32</v>
       </c>
       <c r="O48" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="P48">
         <v>1</v>
@@ -4804,7 +5381,7 @@
         <v>32</v>
       </c>
       <c r="O49" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="P49">
         <v>1</v>
@@ -4848,7 +5425,7 @@
         <v>32</v>
       </c>
       <c r="O50" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -4895,7 +5472,7 @@
         <v>32</v>
       </c>
       <c r="O51" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="P51">
         <v>1</v>
@@ -4942,7 +5519,7 @@
         <v>32</v>
       </c>
       <c r="O52" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="P52">
         <v>1</v>
@@ -4989,7 +5566,7 @@
         <v>32</v>
       </c>
       <c r="O53" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="P53">
         <v>1</v>
@@ -5036,7 +5613,7 @@
         <v>32</v>
       </c>
       <c r="O54" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -5085,9 +5662,6 @@
       <c r="O55" t="s">
         <v>177</v>
       </c>
-      <c r="Q55" t="s">
-        <v>294</v>
-      </c>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" t="s">
@@ -5133,7 +5707,10 @@
         <v>179</v>
       </c>
       <c r="O56" t="s">
-        <v>288</v>
+        <v>281</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -5174,7 +5751,7 @@
         <v>32</v>
       </c>
       <c r="O57" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="P57">
         <v>1</v>
@@ -5221,7 +5798,7 @@
         <v>32</v>
       </c>
       <c r="O58" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="P58">
         <v>1</v>
@@ -5268,7 +5845,7 @@
         <v>32</v>
       </c>
       <c r="O59" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="P59">
         <v>1</v>
@@ -5315,7 +5892,7 @@
         <v>32</v>
       </c>
       <c r="O60" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="P60">
         <v>1</v>
@@ -5365,7 +5942,7 @@
         <v>32</v>
       </c>
       <c r="O61" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -5449,11 +6026,17 @@
       <c r="L63">
         <v>2</v>
       </c>
+      <c r="M63">
+        <v>23</v>
+      </c>
       <c r="N63" t="s">
         <v>31</v>
       </c>
       <c r="O63" t="s">
         <v>188</v>
+      </c>
+      <c r="P63">
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -5496,8 +6079,14 @@
       <c r="O64" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -5540,8 +6129,11 @@
       <c r="O65" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="P65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -5579,7 +6171,7 @@
         <v>32</v>
       </c>
       <c r="O66" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="P66">
         <v>1</v>
@@ -5588,7 +6180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -5626,7 +6218,7 @@
         <v>32</v>
       </c>
       <c r="O67" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="P67">
         <v>1</v>
@@ -5635,115 +6227,130 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:18">
       <c r="A68" s="2" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="C68" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D68" t="s">
+        <v>388</v>
+      </c>
+      <c r="E68" t="s">
+        <v>389</v>
+      </c>
+      <c r="F68" t="s">
+        <v>45</v>
+      </c>
+      <c r="G68">
+        <v>23405</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="I68">
+        <v>-82</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>32</v>
+      </c>
+      <c r="O68" t="s">
+        <v>425</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E68" t="s">
+      <c r="B69" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="F68" t="s">
-        <v>48</v>
-      </c>
-      <c r="G68">
-        <v>23504</v>
-      </c>
-      <c r="H68" s="10" t="s">
+      <c r="C69" s="2">
+        <v>234</v>
+      </c>
+      <c r="D69" t="s">
+        <v>390</v>
+      </c>
+      <c r="E69" t="s">
+        <v>391</v>
+      </c>
+      <c r="F69" t="s">
+        <v>45</v>
+      </c>
+      <c r="G69">
+        <v>23413</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="I69">
+        <v>-82</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>32</v>
+      </c>
+      <c r="O69" t="s">
+        <v>424</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C70" s="2">
+        <v>234</v>
+      </c>
+      <c r="D70" t="s">
         <v>392</v>
       </c>
-      <c r="K68">
-        <v>2</v>
-      </c>
-      <c r="L68">
-        <v>9</v>
-      </c>
-      <c r="N68" t="s">
-        <v>391</v>
-      </c>
-      <c r="O68" s="9" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
-      <c r="A69" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C69" s="2">
-        <v>235</v>
-      </c>
-      <c r="D69" t="s">
-        <v>388</v>
-      </c>
-      <c r="E69" t="s">
-        <v>389</v>
-      </c>
-      <c r="F69" t="s">
-        <v>44</v>
-      </c>
-      <c r="G69">
-        <v>23506</v>
-      </c>
-      <c r="H69" s="10" t="s">
+      <c r="E70" t="s">
         <v>393</v>
-      </c>
-      <c r="I69">
-        <v>-8</v>
-      </c>
-      <c r="J69">
-        <v>10000</v>
-      </c>
-      <c r="K69">
-        <v>3</v>
-      </c>
-      <c r="L69">
-        <v>2</v>
-      </c>
-      <c r="M69">
-        <v>23</v>
-      </c>
-      <c r="N69" t="s">
-        <v>179</v>
-      </c>
-      <c r="O69" s="9" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
-      <c r="A70" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C70" s="2">
-        <v>235</v>
-      </c>
-      <c r="D70" t="s">
-        <v>357</v>
-      </c>
-      <c r="E70" t="s">
-        <v>358</v>
       </c>
       <c r="F70" t="s">
         <v>44</v>
       </c>
       <c r="G70">
-        <v>23521</v>
+        <v>23415</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>369</v>
+        <v>427</v>
       </c>
       <c r="I70">
         <v>-125</v>
@@ -5752,298 +6359,313 @@
         <v>1</v>
       </c>
       <c r="L70">
-        <v>6</v>
-      </c>
-      <c r="M70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N70" t="s">
         <v>32</v>
       </c>
-      <c r="O70" t="s">
-        <v>370</v>
+      <c r="O70" s="9" t="s">
+        <v>428</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:17">
+      <c r="R70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
       <c r="A71" s="2" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="C71" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D71" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="E71" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="F71" t="s">
         <v>44</v>
       </c>
       <c r="G71">
-        <v>23530</v>
+        <v>23416</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>371</v>
+        <v>429</v>
       </c>
       <c r="I71">
-        <v>-124</v>
+        <v>-52</v>
       </c>
       <c r="K71">
         <v>1</v>
       </c>
       <c r="L71">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N71" t="s">
         <v>32</v>
       </c>
-      <c r="O71" t="s">
-        <v>372</v>
-      </c>
-      <c r="P71" t="s">
-        <v>337</v>
+      <c r="O71" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
       </c>
       <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:18">
       <c r="A72" s="2" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="C72" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D72" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="E72" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="F72" t="s">
-        <v>254</v>
+        <v>44</v>
       </c>
       <c r="G72">
-        <v>23531</v>
+        <v>23417</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>373</v>
+        <v>431</v>
       </c>
       <c r="I72">
-        <v>-16</v>
-      </c>
-      <c r="J72">
-        <v>1500</v>
+        <v>-21</v>
       </c>
       <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>32</v>
+      </c>
+      <c r="O72" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C73" s="2">
+        <v>234</v>
+      </c>
+      <c r="D73" t="s">
+        <v>398</v>
+      </c>
+      <c r="E73" t="s">
+        <v>399</v>
+      </c>
+      <c r="F73" t="s">
+        <v>44</v>
+      </c>
+      <c r="G73">
+        <v>23422</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="I73">
+        <v>-82</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
         <v>3</v>
       </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72">
-        <v>23</v>
-      </c>
-      <c r="N72" t="s">
-        <v>179</v>
-      </c>
-      <c r="O72" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
-      <c r="A73" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C73" s="2">
-        <v>235</v>
-      </c>
-      <c r="D73" t="s">
-        <v>363</v>
-      </c>
-      <c r="E73" t="s">
-        <v>364</v>
-      </c>
-      <c r="F73" t="s">
-        <v>254</v>
-      </c>
-      <c r="G73">
-        <v>23533</v>
-      </c>
-      <c r="H73" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="I73">
-        <v>-27</v>
-      </c>
-      <c r="J73">
-        <v>2100</v>
-      </c>
-      <c r="K73">
+      <c r="N73" t="s">
+        <v>32</v>
+      </c>
+      <c r="O73" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C74" s="2">
+        <v>234</v>
+      </c>
+      <c r="D74" t="s">
+        <v>400</v>
+      </c>
+      <c r="E74" t="s">
+        <v>401</v>
+      </c>
+      <c r="F74" t="s">
+        <v>46</v>
+      </c>
+      <c r="G74">
+        <v>23423</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="I74">
+        <v>-52</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>32</v>
+      </c>
+      <c r="O74" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C75" s="2">
+        <v>234</v>
+      </c>
+      <c r="D75" t="s">
+        <v>402</v>
+      </c>
+      <c r="E75" t="s">
+        <v>403</v>
+      </c>
+      <c r="F75" t="s">
+        <v>248</v>
+      </c>
+      <c r="G75">
+        <v>23426</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="I75">
+        <v>-52</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
         <v>3</v>
       </c>
-      <c r="L73">
-        <v>2</v>
-      </c>
-      <c r="M73">
-        <v>23</v>
-      </c>
-      <c r="N73" t="s">
-        <v>179</v>
-      </c>
-      <c r="O73" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
-      <c r="A74" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C74" s="2">
-        <v>235</v>
-      </c>
-      <c r="D74" t="s">
-        <v>379</v>
-      </c>
-      <c r="E74" t="s">
-        <v>380</v>
-      </c>
-      <c r="F74" t="s">
-        <v>44</v>
-      </c>
-      <c r="G74">
-        <v>23534</v>
-      </c>
-      <c r="H74" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="I74">
-        <v>-64</v>
-      </c>
-      <c r="J74">
-        <v>1500</v>
-      </c>
-      <c r="K74">
-        <v>3</v>
-      </c>
-      <c r="L74">
-        <v>4</v>
-      </c>
-      <c r="M74">
-        <v>23</v>
-      </c>
-      <c r="N74" t="s">
-        <v>179</v>
-      </c>
-      <c r="O74" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
-      <c r="A75" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C75" s="2">
-        <v>235</v>
-      </c>
-      <c r="D75" t="s">
-        <v>365</v>
-      </c>
-      <c r="E75" t="s">
-        <v>366</v>
-      </c>
-      <c r="F75" t="s">
-        <v>45</v>
-      </c>
-      <c r="G75">
-        <v>23535</v>
-      </c>
-      <c r="H75" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="I75">
-        <v>-64</v>
-      </c>
-      <c r="J75">
-        <v>1500</v>
-      </c>
-      <c r="K75">
-        <v>3</v>
-      </c>
-      <c r="L75">
-        <v>5</v>
-      </c>
-      <c r="M75">
-        <v>23</v>
-      </c>
       <c r="N75" t="s">
-        <v>179</v>
-      </c>
-      <c r="O75" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
+        <v>32</v>
+      </c>
+      <c r="O75" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
       <c r="A76" s="2" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="C76" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D76" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="E76" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="F76" t="s">
         <v>44</v>
       </c>
       <c r="G76">
-        <v>23536</v>
+        <v>23429</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>383</v>
+        <v>438</v>
       </c>
       <c r="I76">
-        <v>-65</v>
+        <v>-41</v>
       </c>
       <c r="K76">
         <v>1</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N76" t="s">
         <v>32</v>
       </c>
-      <c r="O76" t="s">
-        <v>384</v>
+      <c r="O76" s="9" t="s">
+        <v>439</v>
       </c>
       <c r="P76">
         <v>1</v>
@@ -6051,107 +6673,1486 @@
       <c r="Q76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:17">
-      <c r="A77" t="s">
-        <v>125</v>
-      </c>
-      <c r="B77" t="s">
-        <v>126</v>
-      </c>
-      <c r="C77">
-        <v>405</v>
+      <c r="R76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C77" s="2">
+        <v>234</v>
       </c>
       <c r="D77" t="s">
-        <v>195</v>
+        <v>406</v>
       </c>
       <c r="E77" t="s">
-        <v>127</v>
+        <v>407</v>
       </c>
       <c r="F77" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G77">
-        <v>40506</v>
+        <v>23430</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>197</v>
+        <v>440</v>
       </c>
       <c r="I77">
-        <v>-124</v>
+        <v>-73</v>
       </c>
       <c r="K77">
         <v>1</v>
       </c>
       <c r="L77">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N77" t="s">
         <v>32</v>
       </c>
-      <c r="O77" t="s">
-        <v>196</v>
+      <c r="O77" s="9" t="s">
+        <v>441</v>
       </c>
       <c r="P77">
         <v>1</v>
       </c>
       <c r="Q77">
+        <v>1</v>
+      </c>
+      <c r="R77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
-      <c r="A78" t="s">
-        <v>125</v>
-      </c>
-      <c r="B78" t="s">
-        <v>126</v>
-      </c>
-      <c r="C78">
-        <v>405</v>
+    <row r="78" spans="1:18">
+      <c r="A78" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C78" s="2">
+        <v>234</v>
       </c>
       <c r="D78" t="s">
-        <v>128</v>
+        <v>408</v>
       </c>
       <c r="E78" t="s">
-        <v>198</v>
+        <v>409</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G78">
-        <v>40508</v>
+        <v>23431</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>199</v>
+        <v>442</v>
       </c>
       <c r="I78">
-        <v>-124</v>
+        <v>-41</v>
       </c>
       <c r="K78">
         <v>1</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N78" t="s">
         <v>32</v>
       </c>
-      <c r="O78" t="s">
+      <c r="O78" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C79" s="2">
+        <v>234</v>
+      </c>
+      <c r="D79" t="s">
+        <v>410</v>
+      </c>
+      <c r="E79" t="s">
+        <v>411</v>
+      </c>
+      <c r="F79" t="s">
+        <v>44</v>
+      </c>
+      <c r="G79">
+        <v>23432</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="I79">
+        <v>-23</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>32</v>
+      </c>
+      <c r="O79" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+      <c r="R79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C80" s="2">
+        <v>234</v>
+      </c>
+      <c r="D80" t="s">
+        <v>446</v>
+      </c>
+      <c r="E80" t="s">
+        <v>412</v>
+      </c>
+      <c r="F80" t="s">
+        <v>46</v>
+      </c>
+      <c r="G80">
+        <v>23433</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="I80">
+        <v>-21</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>-4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>32</v>
+      </c>
+      <c r="O80" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C81" s="2">
+        <v>234</v>
+      </c>
+      <c r="D81" t="s">
+        <v>413</v>
+      </c>
+      <c r="E81" t="s">
+        <v>414</v>
+      </c>
+      <c r="F81" t="s">
+        <v>46</v>
+      </c>
+      <c r="G81">
+        <v>23434</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="I81">
+        <v>-20</v>
+      </c>
+      <c r="J81">
+        <v>1300</v>
+      </c>
+      <c r="K81">
+        <v>3</v>
+      </c>
+      <c r="L81">
+        <v>3</v>
+      </c>
+      <c r="M81">
+        <v>23</v>
+      </c>
+      <c r="N81" t="s">
+        <v>179</v>
+      </c>
+      <c r="O81" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="P81" s="9">
+        <v>2</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C82" s="2">
+        <v>234</v>
+      </c>
+      <c r="D82" t="s">
+        <v>415</v>
+      </c>
+      <c r="E82" t="s">
+        <v>416</v>
+      </c>
+      <c r="F82" t="s">
+        <v>292</v>
+      </c>
+      <c r="G82">
+        <v>23435</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>32</v>
+      </c>
+      <c r="O82" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="P82">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C83" s="2">
+        <v>234</v>
+      </c>
+      <c r="D83" t="s">
+        <v>417</v>
+      </c>
+      <c r="E83" t="s">
+        <v>418</v>
+      </c>
+      <c r="F83" t="s">
+        <v>46</v>
+      </c>
+      <c r="G83">
+        <v>23436</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="I83">
+        <v>-50</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>32</v>
+      </c>
+      <c r="O83" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C84" s="2">
+        <v>234</v>
+      </c>
+      <c r="D84" t="s">
+        <v>419</v>
+      </c>
+      <c r="E84" t="s">
+        <v>420</v>
+      </c>
+      <c r="F84" t="s">
+        <v>292</v>
+      </c>
+      <c r="G84">
+        <v>23437</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="I84">
+        <v>-52</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>32</v>
+      </c>
+      <c r="O84" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="P84">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C85" s="2">
+        <v>234</v>
+      </c>
+      <c r="D85" t="s">
+        <v>421</v>
+      </c>
+      <c r="E85" t="s">
+        <v>422</v>
+      </c>
+      <c r="F85" t="s">
+        <v>44</v>
+      </c>
+      <c r="G85">
+        <v>23438</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="I85">
+        <v>-50</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>32</v>
+      </c>
+      <c r="O85" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="P85">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>1</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C86" s="2">
+        <v>235</v>
+      </c>
+      <c r="D86" t="s">
+        <v>377</v>
+      </c>
+      <c r="E86" t="s">
+        <v>378</v>
+      </c>
+      <c r="F86" t="s">
+        <v>48</v>
+      </c>
+      <c r="G86">
+        <v>23504</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="K86">
+        <v>2</v>
+      </c>
+      <c r="L86">
+        <v>9</v>
+      </c>
+      <c r="M86">
+        <v>23</v>
+      </c>
+      <c r="N86" t="s">
+        <v>382</v>
+      </c>
+      <c r="O86" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="P86" s="9">
+        <v>2</v>
+      </c>
+      <c r="R86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C87" s="2">
+        <v>235</v>
+      </c>
+      <c r="D87" t="s">
+        <v>379</v>
+      </c>
+      <c r="E87" t="s">
+        <v>380</v>
+      </c>
+      <c r="F87" t="s">
+        <v>44</v>
+      </c>
+      <c r="G87">
+        <v>23506</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="I87">
+        <v>-8</v>
+      </c>
+      <c r="J87">
+        <v>10000</v>
+      </c>
+      <c r="K87">
+        <v>3</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>23</v>
+      </c>
+      <c r="N87" t="s">
+        <v>179</v>
+      </c>
+      <c r="O87" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="P87" s="9">
+        <v>2</v>
+      </c>
+      <c r="R87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="A88" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C88" s="2">
+        <v>235</v>
+      </c>
+      <c r="D88" t="s">
+        <v>349</v>
+      </c>
+      <c r="E88" t="s">
+        <v>350</v>
+      </c>
+      <c r="F88" t="s">
+        <v>44</v>
+      </c>
+      <c r="G88">
+        <v>23521</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="I88">
+        <v>-125</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>6</v>
+      </c>
+      <c r="M88">
+        <v>6</v>
+      </c>
+      <c r="N88" t="s">
+        <v>32</v>
+      </c>
+      <c r="O88" t="s">
+        <v>362</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="A89" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C89" s="2">
+        <v>235</v>
+      </c>
+      <c r="D89" t="s">
+        <v>351</v>
+      </c>
+      <c r="E89" t="s">
+        <v>352</v>
+      </c>
+      <c r="F89" t="s">
+        <v>44</v>
+      </c>
+      <c r="G89">
+        <v>23530</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="I89">
+        <v>-124</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>32</v>
+      </c>
+      <c r="O89" t="s">
+        <v>364</v>
+      </c>
+      <c r="P89" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C90" s="2">
+        <v>235</v>
+      </c>
+      <c r="D90" t="s">
+        <v>353</v>
+      </c>
+      <c r="E90" t="s">
+        <v>354</v>
+      </c>
+      <c r="F90" t="s">
+        <v>248</v>
+      </c>
+      <c r="G90">
+        <v>23531</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="I90">
+        <v>-16</v>
+      </c>
+      <c r="J90">
+        <v>1500</v>
+      </c>
+      <c r="K90">
+        <v>3</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>23</v>
+      </c>
+      <c r="N90" t="s">
+        <v>179</v>
+      </c>
+      <c r="O90" t="s">
+        <v>366</v>
+      </c>
+      <c r="P90">
+        <v>2</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C91" s="2">
+        <v>235</v>
+      </c>
+      <c r="D91" t="s">
+        <v>355</v>
+      </c>
+      <c r="E91" t="s">
+        <v>356</v>
+      </c>
+      <c r="F91" t="s">
+        <v>248</v>
+      </c>
+      <c r="G91">
+        <v>23533</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="I91">
+        <v>-27</v>
+      </c>
+      <c r="J91">
+        <v>2100</v>
+      </c>
+      <c r="K91">
+        <v>3</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
+      <c r="M91">
+        <v>23</v>
+      </c>
+      <c r="N91" t="s">
+        <v>179</v>
+      </c>
+      <c r="O91" t="s">
+        <v>367</v>
+      </c>
+      <c r="P91">
+        <v>2</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="A92" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C92" s="2">
+        <v>235</v>
+      </c>
+      <c r="D92" t="s">
+        <v>370</v>
+      </c>
+      <c r="E92" t="s">
+        <v>371</v>
+      </c>
+      <c r="F92" t="s">
+        <v>44</v>
+      </c>
+      <c r="G92">
+        <v>23534</v>
+      </c>
+      <c r="H92" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="I92">
+        <v>-64</v>
+      </c>
+      <c r="J92">
+        <v>1500</v>
+      </c>
+      <c r="K92">
+        <v>3</v>
+      </c>
+      <c r="L92">
+        <v>4</v>
+      </c>
+      <c r="M92">
+        <v>23</v>
+      </c>
+      <c r="N92" t="s">
+        <v>179</v>
+      </c>
+      <c r="O92" t="s">
+        <v>369</v>
+      </c>
+      <c r="P92">
+        <v>2</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="A93" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C93" s="2">
+        <v>235</v>
+      </c>
+      <c r="D93" t="s">
+        <v>357</v>
+      </c>
+      <c r="E93" t="s">
+        <v>358</v>
+      </c>
+      <c r="F93" t="s">
+        <v>45</v>
+      </c>
+      <c r="G93">
+        <v>23535</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="I93">
+        <v>-64</v>
+      </c>
+      <c r="J93">
+        <v>1500</v>
+      </c>
+      <c r="K93">
+        <v>3</v>
+      </c>
+      <c r="L93">
+        <v>5</v>
+      </c>
+      <c r="M93">
+        <v>23</v>
+      </c>
+      <c r="N93" t="s">
+        <v>179</v>
+      </c>
+      <c r="O93" t="s">
+        <v>373</v>
+      </c>
+      <c r="P93">
+        <v>2</v>
+      </c>
+      <c r="R93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="A94" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C94" s="2">
+        <v>235</v>
+      </c>
+      <c r="D94" t="s">
+        <v>359</v>
+      </c>
+      <c r="E94" t="s">
+        <v>360</v>
+      </c>
+      <c r="F94" t="s">
+        <v>44</v>
+      </c>
+      <c r="G94">
+        <v>23536</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="I94">
+        <v>-65</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>3</v>
+      </c>
+      <c r="N94" t="s">
+        <v>32</v>
+      </c>
+      <c r="O94" t="s">
+        <v>375</v>
+      </c>
+      <c r="P94">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+      <c r="R94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="A95" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" t="s">
+        <v>126</v>
+      </c>
+      <c r="C95">
+        <v>405</v>
+      </c>
+      <c r="D95" t="s">
+        <v>195</v>
+      </c>
+      <c r="E95" t="s">
+        <v>127</v>
+      </c>
+      <c r="F95" t="s">
+        <v>44</v>
+      </c>
+      <c r="G95">
+        <v>40506</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="I95">
+        <v>-124</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>6</v>
+      </c>
+      <c r="N95" t="s">
+        <v>32</v>
+      </c>
+      <c r="O95" t="s">
+        <v>196</v>
+      </c>
+      <c r="P95">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="A96" t="s">
+        <v>125</v>
+      </c>
+      <c r="B96" t="s">
+        <v>126</v>
+      </c>
+      <c r="C96">
+        <v>405</v>
+      </c>
+      <c r="D96" t="s">
+        <v>128</v>
+      </c>
+      <c r="E96" t="s">
+        <v>198</v>
+      </c>
+      <c r="F96" t="s">
+        <v>45</v>
+      </c>
+      <c r="G96">
+        <v>40508</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="I96">
+        <v>-124</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>32</v>
+      </c>
+      <c r="O96" t="s">
         <v>200</v>
       </c>
-      <c r="P78">
-        <v>1</v>
-      </c>
-      <c r="Q78">
+      <c r="P96">
+        <v>1</v>
+      </c>
+      <c r="Q96">
         <v>0</v>
       </c>
     </row>
+    <row r="97" spans="1:18">
+      <c r="A97" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C97" s="2">
+        <v>301</v>
+      </c>
+      <c r="D97" t="s">
+        <v>468</v>
+      </c>
+      <c r="E97" t="s">
+        <v>469</v>
+      </c>
+      <c r="F97" t="s">
+        <v>292</v>
+      </c>
+      <c r="G97">
+        <v>30119</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="I97">
+        <v>-51</v>
+      </c>
+      <c r="J97">
+        <v>660</v>
+      </c>
+      <c r="K97">
+        <v>3</v>
+      </c>
+      <c r="L97">
+        <v>3</v>
+      </c>
+      <c r="M97">
+        <v>23</v>
+      </c>
+      <c r="N97" t="s">
+        <v>179</v>
+      </c>
+      <c r="O97" t="s">
+        <v>484</v>
+      </c>
+      <c r="P97">
+        <v>2</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C98" s="2">
+        <v>301</v>
+      </c>
+      <c r="D98" t="s">
+        <v>470</v>
+      </c>
+      <c r="E98" t="s">
+        <v>471</v>
+      </c>
+      <c r="F98" t="s">
+        <v>47</v>
+      </c>
+      <c r="G98">
+        <v>30120</v>
+      </c>
+      <c r="H98" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="I98">
+        <v>-27</v>
+      </c>
+      <c r="K98">
+        <v>3</v>
+      </c>
+      <c r="L98">
+        <v>2</v>
+      </c>
+      <c r="M98">
+        <v>23</v>
+      </c>
+      <c r="N98" t="s">
+        <v>179</v>
+      </c>
+      <c r="O98" t="s">
+        <v>486</v>
+      </c>
+      <c r="P98">
+        <v>2</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C99" s="2">
+        <v>301</v>
+      </c>
+      <c r="D99" t="s">
+        <v>472</v>
+      </c>
+      <c r="E99" t="s">
+        <v>473</v>
+      </c>
+      <c r="F99" t="s">
+        <v>116</v>
+      </c>
+      <c r="G99">
+        <v>30121</v>
+      </c>
+      <c r="H99" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="I99">
+        <v>-99</v>
+      </c>
+      <c r="J99">
+        <v>1200</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <v>5</v>
+      </c>
+      <c r="M99">
+        <v>23</v>
+      </c>
+      <c r="N99" t="s">
+        <v>382</v>
+      </c>
+      <c r="O99" t="s">
+        <v>489</v>
+      </c>
+      <c r="P99">
+        <v>2</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="A100" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C100" s="2">
+        <v>301</v>
+      </c>
+      <c r="D100" t="s">
+        <v>474</v>
+      </c>
+      <c r="E100" t="s">
+        <v>475</v>
+      </c>
+      <c r="F100" t="s">
+        <v>44</v>
+      </c>
+      <c r="G100">
+        <v>30122</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="I100">
+        <v>-13</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s">
+        <v>32</v>
+      </c>
+      <c r="O100" t="s">
+        <v>491</v>
+      </c>
+      <c r="P100">
+        <v>1</v>
+      </c>
+      <c r="Q100">
+        <v>1</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="A101" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C101" s="2">
+        <v>301</v>
+      </c>
+      <c r="D101" t="s">
+        <v>476</v>
+      </c>
+      <c r="E101" t="s">
+        <v>316</v>
+      </c>
+      <c r="F101" t="s">
+        <v>317</v>
+      </c>
+      <c r="G101">
+        <v>30123</v>
+      </c>
+      <c r="H101" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="I101">
+        <v>-34</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>2</v>
+      </c>
+      <c r="N101" t="s">
+        <v>32</v>
+      </c>
+      <c r="O101" t="s">
+        <v>493</v>
+      </c>
+      <c r="P101">
+        <v>1</v>
+      </c>
+      <c r="Q101">
+        <v>1</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C102" s="2">
+        <v>301</v>
+      </c>
+      <c r="D102" t="s">
+        <v>477</v>
+      </c>
+      <c r="E102" t="s">
+        <v>478</v>
+      </c>
+      <c r="F102" t="s">
+        <v>45</v>
+      </c>
+      <c r="G102">
+        <v>30124</v>
+      </c>
+      <c r="H102" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="I102">
+        <v>-34</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>3</v>
+      </c>
+      <c r="N102" t="s">
+        <v>32</v>
+      </c>
+      <c r="O102" t="s">
+        <v>495</v>
+      </c>
+      <c r="P102">
+        <v>1</v>
+      </c>
+      <c r="Q102">
+        <v>1</v>
+      </c>
+      <c r="R102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C103" s="2">
+        <v>301</v>
+      </c>
+      <c r="D103" t="s">
+        <v>479</v>
+      </c>
+      <c r="E103" t="s">
+        <v>480</v>
+      </c>
+      <c r="F103" t="s">
+        <v>248</v>
+      </c>
+      <c r="G103">
+        <v>30125</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="I103">
+        <v>-39</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="N103" t="s">
+        <v>32</v>
+      </c>
+      <c r="O103" t="s">
+        <v>497</v>
+      </c>
+      <c r="P103">
+        <v>1</v>
+      </c>
+      <c r="Q103">
+        <v>1</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="A104" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C104" s="2">
+        <v>301</v>
+      </c>
+      <c r="D104" t="s">
+        <v>481</v>
+      </c>
+      <c r="E104" t="s">
+        <v>482</v>
+      </c>
+      <c r="F104" t="s">
+        <v>44</v>
+      </c>
+      <c r="G104">
+        <v>30129</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="I104">
+        <v>-66</v>
+      </c>
+      <c r="J104">
+        <v>2300</v>
+      </c>
+      <c r="K104">
+        <v>3</v>
+      </c>
+      <c r="L104">
+        <v>4</v>
+      </c>
+      <c r="M104">
+        <v>23</v>
+      </c>
+      <c r="N104" t="s">
+        <v>179</v>
+      </c>
+      <c r="O104" t="s">
+        <v>498</v>
+      </c>
+      <c r="P104">
+        <v>2</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="A105" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C105" s="2">
+        <v>308</v>
+      </c>
+      <c r="D105" t="s">
+        <v>502</v>
+      </c>
+      <c r="E105" t="s">
+        <v>503</v>
+      </c>
+      <c r="F105" t="s">
+        <v>248</v>
+      </c>
+      <c r="G105">
+        <v>30818</v>
+      </c>
+      <c r="H105" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="I105">
+        <v>-48</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>2</v>
+      </c>
+      <c r="N105" t="s">
+        <v>32</v>
+      </c>
+      <c r="O105" t="s">
+        <v>505</v>
+      </c>
+      <c r="P105">
+        <v>1</v>
+      </c>
+      <c r="Q105">
+        <v>1</v>
+      </c>
+      <c r="R105">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R78" xr:uid="{1094BEFC-A808-8B41-9FFA-7B4A00011995}">
-    <sortState ref="A2:R78">
-      <sortCondition ref="G64"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:R96" xr:uid="{1094BEFC-A808-8B41-9FFA-7B4A00011995}"/>
   <sortState ref="A44:R78">
     <sortCondition ref="G50"/>
   </sortState>

--- a/analysis_sample/封国/封国.xlsx
+++ b/analysis_sample/封国/封国.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/analysis_sample/封国/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2A254C-6523-FE47-AEEC-09561476D7DE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E5B0EF-7204-A94E-84F4-77B7FEEB4603}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="460" windowWidth="23900" windowHeight="12580" activeTab="2" xr2:uid="{5D274D72-60B0-D249-AA11-A197B2C8B521}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="554">
   <si>
     <t>封國</t>
     <rPh sb="0" eb="2">
@@ -2266,6 +2266,195 @@
   </si>
   <si>
     <t>長沙孝王子。侯嘉嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>山阳郡</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>shan'yang'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨野郡</t>
+    <rPh sb="0" eb="2">
+      <t>ju'ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城都侯国</t>
+  </si>
+  <si>
+    <t>城穀县</t>
+  </si>
+  <si>
+    <t>黄侯国</t>
+  </si>
+  <si>
+    <t>黄县</t>
+  </si>
+  <si>
+    <t>爰戚侯国</t>
+  </si>
+  <si>
+    <t>戚亭县</t>
+  </si>
+  <si>
+    <t>告成县</t>
+  </si>
+  <si>
+    <t>同音</t>
+  </si>
+  <si>
+    <t>中乡侯国</t>
+  </si>
+  <si>
+    <t>中乡县</t>
+  </si>
+  <si>
+    <t>平乐侯国</t>
+  </si>
+  <si>
+    <t>平乐县</t>
+  </si>
+  <si>
+    <t>郑侯国</t>
+  </si>
+  <si>
+    <t>郑县</t>
+  </si>
+  <si>
+    <t>瑕丘侯国</t>
+    <rPh sb="0" eb="2">
+      <t>hou'guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甾乡县</t>
+  </si>
+  <si>
+    <t>栗乡侯国</t>
+  </si>
+  <si>
+    <t>足亭县</t>
+  </si>
+  <si>
+    <t>曲乡侯国</t>
+  </si>
+  <si>
+    <t>曲乡县</t>
+  </si>
+  <si>
+    <t>西阳侯国</t>
+  </si>
+  <si>
+    <t>西阳县</t>
+  </si>
+  <si>
+    <t>成都 景成侯商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六月乙亥，以皇太后弟關內侯侯，二千戶，以大司馬益封二千戶，十六年薨。建平元年，侯邑以況弟紹封，王莽篡位，為隆信公，與莽俱死。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃節侯順</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁敬王子。釐侯申嗣，元壽二年薨，亡後。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爰戚靖侯趙長年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以平陵大夫告楚王延壽反，侯，千五百三十戶。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郜成侯国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邛成 共侯王奉光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以皇后父關內侯侯，二千七百五十戶。元始元年，侯堅固以奉光曾孫紹封，王莽敗，絕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中鄉侯延年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁敬王子。正月封，四十六年薨。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平樂節侯遷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁敬王子。侯寶嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁敬王子。侯良嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄭頃侯罷軍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑕丘县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑕丘節侯政</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魯共王子。六世侯禹嗣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甾乡侯国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲鄉頃侯鳳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁荒王子。侯雲嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西陽頃侯並</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東平思王子。侯偃嗣，免。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3057,11 +3246,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301C5228-0766-C84B-9BFD-7662BC32D069}">
-  <dimension ref="A1:R105"/>
+  <dimension ref="A1:R117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R105" sqref="R105"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q117" sqref="Q117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8151,6 +8340,558 @@
         <v>1</v>
       </c>
     </row>
+    <row r="106" spans="1:18">
+      <c r="A106" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C106" s="2">
+        <v>218</v>
+      </c>
+      <c r="D106" t="s">
+        <v>508</v>
+      </c>
+      <c r="E106" t="s">
+        <v>509</v>
+      </c>
+      <c r="F106" t="s">
+        <v>248</v>
+      </c>
+      <c r="G106">
+        <v>21812</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="I106">
+        <v>-27</v>
+      </c>
+      <c r="J106">
+        <v>4000</v>
+      </c>
+      <c r="K106">
+        <v>3</v>
+      </c>
+      <c r="L106">
+        <v>3</v>
+      </c>
+      <c r="M106">
+        <v>23</v>
+      </c>
+      <c r="N106" t="s">
+        <v>179</v>
+      </c>
+      <c r="O106" t="s">
+        <v>531</v>
+      </c>
+      <c r="P106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="A107" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C107" s="2">
+        <v>218</v>
+      </c>
+      <c r="D107" t="s">
+        <v>510</v>
+      </c>
+      <c r="E107" t="s">
+        <v>511</v>
+      </c>
+      <c r="F107" t="s">
+        <v>44</v>
+      </c>
+      <c r="G107">
+        <v>21813</v>
+      </c>
+      <c r="H107" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="I107">
+        <v>-38</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>2</v>
+      </c>
+      <c r="M107">
+        <v>-1</v>
+      </c>
+      <c r="N107" t="s">
+        <v>32</v>
+      </c>
+      <c r="O107" t="s">
+        <v>533</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="A108" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C108" s="2">
+        <v>218</v>
+      </c>
+      <c r="D108" t="s">
+        <v>512</v>
+      </c>
+      <c r="E108" t="s">
+        <v>513</v>
+      </c>
+      <c r="F108" t="s">
+        <v>46</v>
+      </c>
+      <c r="G108">
+        <v>21814</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="I108">
+        <v>-68</v>
+      </c>
+      <c r="J108">
+        <v>1530</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+      <c r="L108">
+        <v>3</v>
+      </c>
+      <c r="M108" t="s">
+        <v>536</v>
+      </c>
+      <c r="N108" t="s">
+        <v>382</v>
+      </c>
+      <c r="O108" t="s">
+        <v>535</v>
+      </c>
+      <c r="P108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="A109" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C109" s="2">
+        <v>218</v>
+      </c>
+      <c r="D109" t="s">
+        <v>537</v>
+      </c>
+      <c r="E109" t="s">
+        <v>514</v>
+      </c>
+      <c r="F109" t="s">
+        <v>515</v>
+      </c>
+      <c r="G109">
+        <v>21815</v>
+      </c>
+      <c r="H109" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="I109">
+        <v>-64</v>
+      </c>
+      <c r="J109">
+        <v>2750</v>
+      </c>
+      <c r="K109">
+        <v>3</v>
+      </c>
+      <c r="L109">
+        <v>4</v>
+      </c>
+      <c r="M109">
+        <v>23</v>
+      </c>
+      <c r="N109" t="s">
+        <v>179</v>
+      </c>
+      <c r="O109" t="s">
+        <v>539</v>
+      </c>
+      <c r="P109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="A110" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C110" s="2">
+        <v>218</v>
+      </c>
+      <c r="D110" t="s">
+        <v>516</v>
+      </c>
+      <c r="E110" t="s">
+        <v>517</v>
+      </c>
+      <c r="F110" t="s">
+        <v>44</v>
+      </c>
+      <c r="G110">
+        <v>21816</v>
+      </c>
+      <c r="H110" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="I110">
+        <v>-38</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>8</v>
+      </c>
+      <c r="N110" t="s">
+        <v>32</v>
+      </c>
+      <c r="O110" t="s">
+        <v>541</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
+      <c r="A111" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C111" s="2">
+        <v>218</v>
+      </c>
+      <c r="D111" t="s">
+        <v>518</v>
+      </c>
+      <c r="E111" t="s">
+        <v>519</v>
+      </c>
+      <c r="F111" t="s">
+        <v>44</v>
+      </c>
+      <c r="G111">
+        <v>21817</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="I111">
+        <v>-38</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="N111" t="s">
+        <v>32</v>
+      </c>
+      <c r="O111" t="s">
+        <v>543</v>
+      </c>
+      <c r="P111">
+        <v>1</v>
+      </c>
+      <c r="Q111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
+      <c r="A112" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C112" s="2">
+        <v>218</v>
+      </c>
+      <c r="D112" t="s">
+        <v>520</v>
+      </c>
+      <c r="E112" t="s">
+        <v>521</v>
+      </c>
+      <c r="F112" t="s">
+        <v>44</v>
+      </c>
+      <c r="G112">
+        <v>21818</v>
+      </c>
+      <c r="H112" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="I112">
+        <v>-38</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>3</v>
+      </c>
+      <c r="N112" t="s">
+        <v>32</v>
+      </c>
+      <c r="O112" t="s">
+        <v>544</v>
+      </c>
+      <c r="P112">
+        <v>1</v>
+      </c>
+      <c r="Q112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17">
+      <c r="A113" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C113" s="2">
+        <v>218</v>
+      </c>
+      <c r="D113" t="s">
+        <v>522</v>
+      </c>
+      <c r="E113" t="s">
+        <v>546</v>
+      </c>
+      <c r="F113" t="s">
+        <v>44</v>
+      </c>
+      <c r="G113">
+        <v>21819</v>
+      </c>
+      <c r="H113" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="I113">
+        <v>-126</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>6</v>
+      </c>
+      <c r="N113" t="s">
+        <v>32</v>
+      </c>
+      <c r="O113" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17">
+      <c r="A114" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C114" s="2">
+        <v>218</v>
+      </c>
+      <c r="D114" t="s">
+        <v>549</v>
+      </c>
+      <c r="E114" t="s">
+        <v>523</v>
+      </c>
+      <c r="F114" t="s">
+        <v>44</v>
+      </c>
+      <c r="G114">
+        <v>21820</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17">
+      <c r="A115" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C115" s="2">
+        <v>218</v>
+      </c>
+      <c r="D115" t="s">
+        <v>524</v>
+      </c>
+      <c r="E115" t="s">
+        <v>525</v>
+      </c>
+      <c r="F115" t="s">
+        <v>46</v>
+      </c>
+      <c r="G115">
+        <v>21821</v>
+      </c>
+      <c r="H115" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="I115">
+        <v>-20</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+      <c r="N115" t="s">
+        <v>32</v>
+      </c>
+      <c r="O115" t="s">
+        <v>335</v>
+      </c>
+      <c r="P115">
+        <v>1</v>
+      </c>
+      <c r="Q115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17">
+      <c r="A116" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C116" s="2">
+        <v>218</v>
+      </c>
+      <c r="D116" t="s">
+        <v>526</v>
+      </c>
+      <c r="E116" t="s">
+        <v>527</v>
+      </c>
+      <c r="F116" t="s">
+        <v>44</v>
+      </c>
+      <c r="G116">
+        <v>21822</v>
+      </c>
+      <c r="H116" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="I116">
+        <v>-15</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="N116" t="s">
+        <v>32</v>
+      </c>
+      <c r="O116" t="s">
+        <v>551</v>
+      </c>
+      <c r="P116">
+        <v>1</v>
+      </c>
+      <c r="Q116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17">
+      <c r="A117" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C117" s="2">
+        <v>218</v>
+      </c>
+      <c r="D117" t="s">
+        <v>528</v>
+      </c>
+      <c r="E117" t="s">
+        <v>529</v>
+      </c>
+      <c r="F117" t="s">
+        <v>44</v>
+      </c>
+      <c r="G117">
+        <v>21823</v>
+      </c>
+      <c r="H117" s="10" t="s">
+        <v>552</v>
+      </c>
+      <c r="I117">
+        <v>-11</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="N117" t="s">
+        <v>32</v>
+      </c>
+      <c r="O117" t="s">
+        <v>553</v>
+      </c>
+      <c r="P117">
+        <v>1</v>
+      </c>
+      <c r="Q117">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R96" xr:uid="{1094BEFC-A808-8B41-9FFA-7B4A00011995}"/>
   <sortState ref="A44:R78">

--- a/analysis_sample/封国/封国.xlsx
+++ b/analysis_sample/封国/封国.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/analysis_sample/封国/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E5B0EF-7204-A94E-84F4-77B7FEEB4603}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B271CDD6-2AC9-1842-80CA-2D0DA48E0851}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="460" windowWidth="23900" windowHeight="12580" activeTab="2" xr2:uid="{5D274D72-60B0-D249-AA11-A197B2C8B521}"/>
   </bookViews>
@@ -21,6 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">列表!$A$1:$R$96</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="589">
   <si>
     <t>封國</t>
     <rPh sb="0" eb="2">
@@ -2455,6 +2456,145 @@
   </si>
   <si>
     <t>東平思王子。侯偃嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨鹿郡</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和戎郡</t>
+    <rPh sb="0" eb="40">
+      <t>ju'lu'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>象氏侯国</t>
+  </si>
+  <si>
+    <t>宁昌县</t>
+  </si>
+  <si>
+    <t>新市侯国</t>
+  </si>
+  <si>
+    <t>市乐县</t>
+  </si>
+  <si>
+    <t>安定侯国</t>
+  </si>
+  <si>
+    <t>安定县</t>
+  </si>
+  <si>
+    <t>历乡侯国</t>
+  </si>
+  <si>
+    <t>历聚县</t>
+  </si>
+  <si>
+    <t>乐信侯国</t>
+  </si>
+  <si>
+    <t>乐信县</t>
+  </si>
+  <si>
+    <t>武陶侯国</t>
+  </si>
+  <si>
+    <t>武陶县</t>
+  </si>
+  <si>
+    <t>柏乡侯国</t>
+  </si>
+  <si>
+    <t>柏乡县</t>
+  </si>
+  <si>
+    <t>安乡侯国</t>
+  </si>
+  <si>
+    <t>安乡县</t>
+  </si>
+  <si>
+    <t>趙敬肅王子賀</t>
+    <rPh sb="0" eb="1">
+      <t>qu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙敬肅王子賀國。武帝封。</t>
+    <rPh sb="0" eb="1">
+      <t>he</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新市康侯吉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廣川繆王子。侯欽嗣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匯釋</t>
+    <rPh sb="0" eb="2">
+      <t>hui'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安定戾侯賢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕剌王子。侯昱嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歷鄉康侯必勝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廣川繆王子。侯東之嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂信頃侯強</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廣川繆王子。侯涉嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廣川繆王子。侯京嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武陶節侯朝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏鄉戴侯買</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙哀王子。侯譚嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安鄉孝侯喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙哀王子。侯合衆嗣，免。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3246,11 +3386,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301C5228-0766-C84B-9BFD-7662BC32D069}">
-  <dimension ref="A1:R117"/>
+  <dimension ref="A1:R125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q117" sqref="Q117"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L125" sqref="L125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8892,6 +9032,370 @@
         <v>1</v>
       </c>
     </row>
+    <row r="118" spans="1:17">
+      <c r="A118" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C118" s="2">
+        <v>207</v>
+      </c>
+      <c r="D118" t="s">
+        <v>556</v>
+      </c>
+      <c r="E118" t="s">
+        <v>557</v>
+      </c>
+      <c r="F118" t="s">
+        <v>45</v>
+      </c>
+      <c r="G118">
+        <v>20704</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="N118" t="s">
+        <v>576</v>
+      </c>
+      <c r="O118" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17">
+      <c r="A119" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C119" s="2">
+        <v>207</v>
+      </c>
+      <c r="D119" t="s">
+        <v>558</v>
+      </c>
+      <c r="E119" t="s">
+        <v>559</v>
+      </c>
+      <c r="F119" t="s">
+        <v>317</v>
+      </c>
+      <c r="G119">
+        <v>20712</v>
+      </c>
+      <c r="H119" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="I119">
+        <v>-76</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>3</v>
+      </c>
+      <c r="N119" t="s">
+        <v>32</v>
+      </c>
+      <c r="O119" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17">
+      <c r="A120" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C120" s="2">
+        <v>207</v>
+      </c>
+      <c r="D120" t="s">
+        <v>560</v>
+      </c>
+      <c r="E120" t="s">
+        <v>561</v>
+      </c>
+      <c r="F120" t="s">
+        <v>44</v>
+      </c>
+      <c r="G120">
+        <v>20714</v>
+      </c>
+      <c r="H120" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="I120">
+        <v>-73</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>3</v>
+      </c>
+      <c r="N120" t="s">
+        <v>32</v>
+      </c>
+      <c r="O120" t="s">
+        <v>578</v>
+      </c>
+      <c r="P120">
+        <v>1</v>
+      </c>
+      <c r="Q120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="A121" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C121" s="2">
+        <v>207</v>
+      </c>
+      <c r="D121" t="s">
+        <v>562</v>
+      </c>
+      <c r="E121" t="s">
+        <v>563</v>
+      </c>
+      <c r="F121" t="s">
+        <v>248</v>
+      </c>
+      <c r="G121">
+        <v>20716</v>
+      </c>
+      <c r="H121" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="I121">
+        <v>-59</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>4</v>
+      </c>
+      <c r="N121" t="s">
+        <v>32</v>
+      </c>
+      <c r="O121" t="s">
+        <v>580</v>
+      </c>
+      <c r="P121">
+        <v>1</v>
+      </c>
+      <c r="Q121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="A122" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C122" s="2">
+        <v>207</v>
+      </c>
+      <c r="D122" t="s">
+        <v>564</v>
+      </c>
+      <c r="E122" t="s">
+        <v>565</v>
+      </c>
+      <c r="F122" t="s">
+        <v>44</v>
+      </c>
+      <c r="G122">
+        <v>20717</v>
+      </c>
+      <c r="H122" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="I122">
+        <v>-59</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>4</v>
+      </c>
+      <c r="N122" t="s">
+        <v>32</v>
+      </c>
+      <c r="O122" t="s">
+        <v>582</v>
+      </c>
+      <c r="P122">
+        <v>1</v>
+      </c>
+      <c r="Q122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17">
+      <c r="A123" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C123" s="2">
+        <v>207</v>
+      </c>
+      <c r="D123" t="s">
+        <v>566</v>
+      </c>
+      <c r="E123" t="s">
+        <v>567</v>
+      </c>
+      <c r="F123" t="s">
+        <v>44</v>
+      </c>
+      <c r="G123">
+        <v>20718</v>
+      </c>
+      <c r="H123" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="I123">
+        <v>-57</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>4</v>
+      </c>
+      <c r="N123" t="s">
+        <v>32</v>
+      </c>
+      <c r="O123" t="s">
+        <v>583</v>
+      </c>
+      <c r="P123">
+        <v>1</v>
+      </c>
+      <c r="Q123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17">
+      <c r="A124" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C124" s="2">
+        <v>207</v>
+      </c>
+      <c r="D124" t="s">
+        <v>568</v>
+      </c>
+      <c r="E124" t="s">
+        <v>569</v>
+      </c>
+      <c r="F124" t="s">
+        <v>44</v>
+      </c>
+      <c r="G124">
+        <v>20719</v>
+      </c>
+      <c r="H124" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="I124">
+        <v>-33</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>3</v>
+      </c>
+      <c r="N124" t="s">
+        <v>32</v>
+      </c>
+      <c r="O124" t="s">
+        <v>586</v>
+      </c>
+      <c r="P124">
+        <v>1</v>
+      </c>
+      <c r="Q124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17">
+      <c r="A125" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C125" s="2">
+        <v>207</v>
+      </c>
+      <c r="D125" t="s">
+        <v>570</v>
+      </c>
+      <c r="E125" t="s">
+        <v>571</v>
+      </c>
+      <c r="F125" t="s">
+        <v>44</v>
+      </c>
+      <c r="G125">
+        <v>20720</v>
+      </c>
+      <c r="H125" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="I125">
+        <v>-33</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>3</v>
+      </c>
+      <c r="N125" t="s">
+        <v>32</v>
+      </c>
+      <c r="O125" t="s">
+        <v>588</v>
+      </c>
+      <c r="P125">
+        <v>1</v>
+      </c>
+      <c r="Q125">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R96" xr:uid="{1094BEFC-A808-8B41-9FFA-7B4A00011995}"/>
   <sortState ref="A44:R78">

--- a/analysis_sample/封国/封国.xlsx
+++ b/analysis_sample/封国/封国.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/后汉书-郡国志/analysis_sample/封国/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/汉书-地理志/analysis_sample/封国/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B271CDD6-2AC9-1842-80CA-2D0DA48E0851}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{E25424E1-65BC-3A4B-9860-DF635E742942}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="460" windowWidth="23900" windowHeight="12580" activeTab="2" xr2:uid="{5D274D72-60B0-D249-AA11-A197B2C8B521}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="列表" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">列表!$A$1:$R$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">列表!$A$1:$R$132</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="620">
   <si>
     <t>封國</t>
     <rPh sb="0" eb="2">
@@ -2467,7 +2467,7 @@
   </si>
   <si>
     <t>和戎郡</t>
-    <rPh sb="0" eb="40">
+    <rPh sb="0" eb="3">
       <t>ju'lu'j</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2595,6 +2595,151 @@
   </si>
   <si>
     <t>趙哀王子。侯合衆嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清河郡</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平河郡</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东阳侯国</t>
+  </si>
+  <si>
+    <t>胥陵县</t>
+  </si>
+  <si>
+    <t>信乡侯国</t>
+  </si>
+  <si>
+    <t>信乡县</t>
+  </si>
+  <si>
+    <t>東陽節侯弘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清河綱王子。侯伯造嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新鄉 侯豹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>清河綱王子。侯佟嗣，元始元年上書言王莽宜居攝，莽篡位，賜姓王。師古曰：「王子侯表清河綱王子豹始封新鄉侯，傳爵至曾孫佟，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王莽篡位賜姓王</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，即謂此也。而此傳作 信鄉侯，古者新信同音故耳。佟音（從）〔徒〕冬反。」</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常山郡</t>
+    <rPh sb="0" eb="2">
+      <t>chang'shan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>井关郡</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑中侯国</t>
+  </si>
+  <si>
+    <t>桑中县</t>
+  </si>
+  <si>
+    <t>封斯侯国</t>
+  </si>
+  <si>
+    <t>封斯县</t>
+  </si>
+  <si>
+    <t>乐阳侯国</t>
+  </si>
+  <si>
+    <t>畅苗县</t>
+  </si>
+  <si>
+    <t>平台侯国</t>
+  </si>
+  <si>
+    <t>顺台县</t>
+  </si>
+  <si>
+    <t>都乡侯国</t>
+  </si>
+  <si>
+    <t>分乡县</t>
+  </si>
+  <si>
+    <t>桑中戴侯廣漢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙頃王子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙頃王子。元延二年，侯舜以敬弟紹封，十九年免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封斯戴侯胡傷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂陽 繆侯說</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙頃王子。侯鎮嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平臺康侯史玄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以悼皇考舅子侍中中郎將關內侯有舊恩侯，千九百戶。鴻嘉二年，侯習嗣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都鄉孝侯景</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2703,7 +2848,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2738,6 +2883,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3386,11 +3536,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301C5228-0766-C84B-9BFD-7662BC32D069}">
-  <dimension ref="A1:R125"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:R132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L125" sqref="L125"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L132" sqref="L132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3454,7 +3605,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" hidden="1">
       <c r="A2" s="2" t="s">
         <v>136</v>
       </c>
@@ -3498,7 +3649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" hidden="1">
       <c r="A3" s="2" t="s">
         <v>219</v>
       </c>
@@ -3548,7 +3699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" hidden="1">
       <c r="A4" s="2" t="s">
         <v>219</v>
       </c>
@@ -3598,7 +3749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" hidden="1">
       <c r="A5" s="1" t="s">
         <v>222</v>
       </c>
@@ -3648,7 +3799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" hidden="1">
       <c r="A6" s="1" t="s">
         <v>222</v>
       </c>
@@ -3698,7 +3849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" hidden="1">
       <c r="A7" s="1" t="s">
         <v>222</v>
       </c>
@@ -3748,7 +3899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" hidden="1">
       <c r="A8" s="1" t="s">
         <v>222</v>
       </c>
@@ -3798,7 +3949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" hidden="1">
       <c r="A9" s="1" t="s">
         <v>222</v>
       </c>
@@ -3848,7 +3999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" hidden="1">
       <c r="A10" s="1" t="s">
         <v>222</v>
       </c>
@@ -3898,7 +4049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" hidden="1">
       <c r="A11" s="1" t="s">
         <v>222</v>
       </c>
@@ -3948,7 +4099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" hidden="1">
       <c r="A12" s="1" t="s">
         <v>222</v>
       </c>
@@ -3998,7 +4149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" hidden="1">
       <c r="A13" s="1" t="s">
         <v>222</v>
       </c>
@@ -4048,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" hidden="1">
       <c r="A14" s="1" t="s">
         <v>222</v>
       </c>
@@ -4098,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" hidden="1">
       <c r="A15" s="2" t="s">
         <v>288</v>
       </c>
@@ -4151,7 +4302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" hidden="1">
       <c r="A16" s="2" t="s">
         <v>288</v>
       </c>
@@ -4204,7 +4355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" hidden="1">
       <c r="A17" s="2" t="s">
         <v>288</v>
       </c>
@@ -4251,7 +4402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" hidden="1">
       <c r="A18" s="2" t="s">
         <v>288</v>
       </c>
@@ -4301,7 +4452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" hidden="1">
       <c r="A19" s="2" t="s">
         <v>288</v>
       </c>
@@ -4354,7 +4505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" hidden="1">
       <c r="A20" s="2" t="s">
         <v>288</v>
       </c>
@@ -4407,7 +4558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" hidden="1">
       <c r="A21" s="2" t="s">
         <v>288</v>
       </c>
@@ -4457,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" hidden="1">
       <c r="A22" s="2" t="s">
         <v>288</v>
       </c>
@@ -4607,7 +4758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" hidden="1">
       <c r="A25" s="2" t="s">
         <v>288</v>
       </c>
@@ -4633,7 +4784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" hidden="1">
       <c r="A26" s="2" t="s">
         <v>288</v>
       </c>
@@ -4686,7 +4837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" hidden="1">
       <c r="A27" s="2" t="s">
         <v>288</v>
       </c>
@@ -4783,7 +4934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" hidden="1">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -4877,7 +5028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" hidden="1">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -5009,7 +5160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" hidden="1">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -5062,7 +5213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" hidden="1">
       <c r="A35" s="2" t="s">
         <v>203</v>
       </c>
@@ -5112,7 +5263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" hidden="1">
       <c r="A36" s="2" t="s">
         <v>209</v>
       </c>
@@ -5162,7 +5313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" hidden="1">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -5200,7 +5351,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" hidden="1">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -5238,7 +5389,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" hidden="1">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -5276,7 +5427,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" hidden="1">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -5323,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" hidden="1">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -5361,7 +5512,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" hidden="1">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -5399,7 +5550,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" hidden="1">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -5437,7 +5588,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" hidden="1">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -5484,7 +5635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" hidden="1">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -5719,7 +5870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" hidden="1">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -5763,7 +5914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" hidden="1">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -5857,7 +6008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" hidden="1">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -5904,7 +6055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" hidden="1">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -5951,7 +6102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" hidden="1">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -5992,7 +6143,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" hidden="1">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -6230,7 +6381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" hidden="1">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -6280,7 +6431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" hidden="1">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -6318,7 +6469,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" hidden="1">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -6368,7 +6519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" hidden="1">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -6415,7 +6566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" hidden="1">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -6462,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" hidden="1">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -6556,7 +6707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" hidden="1">
       <c r="A68" s="2" t="s">
         <v>386</v>
       </c>
@@ -6606,7 +6757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" hidden="1">
       <c r="A69" s="2" t="s">
         <v>386</v>
       </c>
@@ -6656,7 +6807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" hidden="1">
       <c r="A70" s="2" t="s">
         <v>386</v>
       </c>
@@ -6856,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" hidden="1">
       <c r="A74" s="2" t="s">
         <v>386</v>
       </c>
@@ -6906,7 +7057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" hidden="1">
       <c r="A75" s="2" t="s">
         <v>386</v>
       </c>
@@ -7006,7 +7157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" hidden="1">
       <c r="A77" s="2" t="s">
         <v>386</v>
       </c>
@@ -7156,7 +7307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" hidden="1">
       <c r="A80" s="2" t="s">
         <v>386</v>
       </c>
@@ -7209,7 +7360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" hidden="1">
       <c r="A81" s="2" t="s">
         <v>386</v>
       </c>
@@ -7262,7 +7413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" hidden="1">
       <c r="A82" s="2" t="s">
         <v>386</v>
       </c>
@@ -7312,7 +7463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" hidden="1">
       <c r="A83" s="2" t="s">
         <v>386</v>
       </c>
@@ -7362,7 +7513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" hidden="1">
       <c r="A84" s="2" t="s">
         <v>386</v>
       </c>
@@ -7462,7 +7613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" hidden="1">
       <c r="A86" s="2" t="s">
         <v>347</v>
       </c>
@@ -7509,7 +7660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" hidden="1">
       <c r="A87" s="2" t="s">
         <v>347</v>
       </c>
@@ -7562,7 +7713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" hidden="1">
       <c r="A88" s="2" t="s">
         <v>347</v>
       </c>
@@ -7615,7 +7766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" hidden="1">
       <c r="A89" s="2" t="s">
         <v>347</v>
       </c>
@@ -7665,7 +7816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" hidden="1">
       <c r="A90" s="2" t="s">
         <v>347</v>
       </c>
@@ -7718,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" hidden="1">
       <c r="A91" s="2" t="s">
         <v>347</v>
       </c>
@@ -7771,7 +7922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" hidden="1">
       <c r="A92" s="2" t="s">
         <v>347</v>
       </c>
@@ -7824,7 +7975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" hidden="1">
       <c r="A93" s="2" t="s">
         <v>347</v>
       </c>
@@ -7927,7 +8078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" hidden="1">
       <c r="A95" t="s">
         <v>125</v>
       </c>
@@ -7974,7 +8125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" hidden="1">
       <c r="A96" t="s">
         <v>125</v>
       </c>
@@ -8021,7 +8172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" hidden="1">
       <c r="A97" s="2" t="s">
         <v>466</v>
       </c>
@@ -8074,7 +8225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" hidden="1">
       <c r="A98" s="2" t="s">
         <v>466</v>
       </c>
@@ -8124,7 +8275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" hidden="1">
       <c r="A99" s="2" t="s">
         <v>466</v>
       </c>
@@ -8227,7 +8378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" hidden="1">
       <c r="A101" s="2" t="s">
         <v>466</v>
       </c>
@@ -8277,7 +8428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" hidden="1">
       <c r="A102" s="2" t="s">
         <v>466</v>
       </c>
@@ -8327,7 +8478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" hidden="1">
       <c r="A103" s="2" t="s">
         <v>466</v>
       </c>
@@ -8377,7 +8528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" hidden="1">
       <c r="A104" s="2" t="s">
         <v>466</v>
       </c>
@@ -8430,7 +8581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" hidden="1">
       <c r="A105" s="2" t="s">
         <v>500</v>
       </c>
@@ -8480,7 +8631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" hidden="1">
       <c r="A106" s="1" t="s">
         <v>506</v>
       </c>
@@ -8530,7 +8681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" hidden="1">
       <c r="A107" s="1" t="s">
         <v>506</v>
       </c>
@@ -8580,7 +8731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" hidden="1">
       <c r="A108" s="1" t="s">
         <v>506</v>
       </c>
@@ -8630,7 +8781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" hidden="1">
       <c r="A109" s="1" t="s">
         <v>506</v>
       </c>
@@ -8680,7 +8831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" hidden="1">
       <c r="A110" s="1" t="s">
         <v>506</v>
       </c>
@@ -8824,7 +8975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:18" hidden="1">
       <c r="A113" s="1" t="s">
         <v>506</v>
       </c>
@@ -8868,7 +9019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:18" hidden="1">
       <c r="A114" s="1" t="s">
         <v>506</v>
       </c>
@@ -8891,7 +9042,7 @@
         <v>21820</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:18" hidden="1">
       <c r="A115" s="1" t="s">
         <v>506</v>
       </c>
@@ -8938,7 +9089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:17">
+    <row r="116" spans="1:18">
       <c r="A116" s="1" t="s">
         <v>506</v>
       </c>
@@ -8985,7 +9136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:17">
+    <row r="117" spans="1:18">
       <c r="A117" s="1" t="s">
         <v>506</v>
       </c>
@@ -9032,7 +9183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:17">
+    <row r="118" spans="1:18" hidden="1">
       <c r="A118" s="2" t="s">
         <v>554</v>
       </c>
@@ -9070,7 +9221,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="119" spans="1:17">
+    <row r="119" spans="1:18" hidden="1">
       <c r="A119" s="2" t="s">
         <v>554</v>
       </c>
@@ -9114,7 +9265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:17">
+    <row r="120" spans="1:18">
       <c r="A120" s="2" t="s">
         <v>554</v>
       </c>
@@ -9161,7 +9312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:17">
+    <row r="121" spans="1:18" hidden="1">
       <c r="A121" s="2" t="s">
         <v>554</v>
       </c>
@@ -9208,7 +9359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:17">
+    <row r="122" spans="1:18">
       <c r="A122" s="2" t="s">
         <v>554</v>
       </c>
@@ -9255,7 +9406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:17">
+    <row r="123" spans="1:18">
       <c r="A123" s="2" t="s">
         <v>554</v>
       </c>
@@ -9302,7 +9453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:17">
+    <row r="124" spans="1:18">
       <c r="A124" s="2" t="s">
         <v>554</v>
       </c>
@@ -9349,7 +9500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:17">
+    <row r="125" spans="1:18">
       <c r="A125" s="2" t="s">
         <v>554</v>
       </c>
@@ -9396,8 +9547,350 @@
         <v>1</v>
       </c>
     </row>
+    <row r="126" spans="1:18" hidden="1">
+      <c r="A126" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C126" s="2">
+        <v>209</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G126" s="13">
+        <v>20910</v>
+      </c>
+      <c r="H126" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="I126">
+        <v>-70</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>5</v>
+      </c>
+      <c r="N126" t="s">
+        <v>32</v>
+      </c>
+      <c r="O126" t="s">
+        <v>596</v>
+      </c>
+      <c r="P126">
+        <v>1</v>
+      </c>
+      <c r="Q126">
+        <v>1</v>
+      </c>
+      <c r="R126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" hidden="1">
+      <c r="A127" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C127" s="2">
+        <v>209</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G127" s="13">
+        <v>20911</v>
+      </c>
+      <c r="H127" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="I127">
+        <v>-70</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>4</v>
+      </c>
+      <c r="N127" t="s">
+        <v>32</v>
+      </c>
+      <c r="O127" t="s">
+        <v>598</v>
+      </c>
+      <c r="P127">
+        <v>2</v>
+      </c>
+      <c r="Q127">
+        <v>1</v>
+      </c>
+      <c r="R127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
+      <c r="A128" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C128" s="2">
+        <v>208</v>
+      </c>
+      <c r="D128" t="s">
+        <v>601</v>
+      </c>
+      <c r="E128" t="s">
+        <v>602</v>
+      </c>
+      <c r="F128" t="s">
+        <v>44</v>
+      </c>
+      <c r="G128">
+        <v>20803</v>
+      </c>
+      <c r="H128" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="I128">
+        <v>-67</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>4</v>
+      </c>
+      <c r="N128" t="s">
+        <v>32</v>
+      </c>
+      <c r="O128" t="s">
+        <v>613</v>
+      </c>
+      <c r="P128">
+        <v>1</v>
+      </c>
+      <c r="Q128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" hidden="1">
+      <c r="A129" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C129" s="2">
+        <v>208</v>
+      </c>
+      <c r="D129" t="s">
+        <v>603</v>
+      </c>
+      <c r="E129" t="s">
+        <v>604</v>
+      </c>
+      <c r="F129" t="s">
+        <v>44</v>
+      </c>
+      <c r="G129">
+        <v>20811</v>
+      </c>
+      <c r="H129" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="I129">
+        <v>-127</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>4</v>
+      </c>
+      <c r="N129" t="s">
+        <v>32</v>
+      </c>
+      <c r="O129" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" hidden="1">
+      <c r="A130" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C130" s="2">
+        <v>208</v>
+      </c>
+      <c r="D130" t="s">
+        <v>605</v>
+      </c>
+      <c r="E130" t="s">
+        <v>606</v>
+      </c>
+      <c r="F130" t="s">
+        <v>45</v>
+      </c>
+      <c r="G130">
+        <v>20815</v>
+      </c>
+      <c r="H130" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="I130">
+        <v>-67</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>4</v>
+      </c>
+      <c r="N130" t="s">
+        <v>32</v>
+      </c>
+      <c r="O130" t="s">
+        <v>616</v>
+      </c>
+      <c r="P130">
+        <v>1</v>
+      </c>
+      <c r="Q130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" hidden="1">
+      <c r="A131" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C131" s="2">
+        <v>208</v>
+      </c>
+      <c r="D131" t="s">
+        <v>607</v>
+      </c>
+      <c r="E131" t="s">
+        <v>608</v>
+      </c>
+      <c r="F131" t="s">
+        <v>317</v>
+      </c>
+      <c r="G131">
+        <v>20816</v>
+      </c>
+      <c r="H131" t="s">
+        <v>617</v>
+      </c>
+      <c r="I131">
+        <v>-64</v>
+      </c>
+      <c r="J131">
+        <v>1900</v>
+      </c>
+      <c r="K131">
+        <v>3</v>
+      </c>
+      <c r="L131">
+        <v>3</v>
+      </c>
+      <c r="N131" t="s">
+        <v>179</v>
+      </c>
+      <c r="O131" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" hidden="1">
+      <c r="A132" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C132" s="2">
+        <v>208</v>
+      </c>
+      <c r="D132" t="s">
+        <v>609</v>
+      </c>
+      <c r="E132" t="s">
+        <v>610</v>
+      </c>
+      <c r="F132" t="s">
+        <v>248</v>
+      </c>
+      <c r="G132">
+        <v>20817</v>
+      </c>
+      <c r="H132" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="I132">
+        <v>-52</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="N132" t="s">
+        <v>32</v>
+      </c>
+      <c r="O132" t="s">
+        <v>612</v>
+      </c>
+      <c r="P132">
+        <v>1</v>
+      </c>
+      <c r="Q132">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R96" xr:uid="{1094BEFC-A808-8B41-9FFA-7B4A00011995}"/>
+  <autoFilter ref="A1:R132" xr:uid="{1094BEFC-A808-8B41-9FFA-7B4A00011995}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="不改"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="15">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="16">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A44:R78">
     <sortCondition ref="G50"/>
   </sortState>

--- a/analysis_sample/封国/封国.xlsx
+++ b/analysis_sample/封国/封国.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/汉书-地理志/analysis_sample/封国/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{E25424E1-65BC-3A4B-9860-DF635E742942}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{BF7F9305-0BF4-4844-85BA-33D25F949855}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="460" windowWidth="23900" windowHeight="12580" activeTab="2" xr2:uid="{5D274D72-60B0-D249-AA11-A197B2C8B521}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="639">
   <si>
     <t>封國</t>
     <rPh sb="0" eb="2">
@@ -2740,6 +2740,91 @@
   </si>
   <si>
     <t>都鄉孝侯景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏城郡</t>
+    <rPh sb="0" eb="2">
+      <t>wei'cheng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即裴侯国</t>
+  </si>
+  <si>
+    <t>即是县</t>
+  </si>
+  <si>
+    <t>邯会县</t>
+  </si>
+  <si>
+    <t>平恩侯国</t>
+  </si>
+  <si>
+    <t>延平县</t>
+  </si>
+  <si>
+    <t>邯沟侯国</t>
+  </si>
+  <si>
+    <t>邯沟县</t>
+  </si>
+  <si>
+    <t>魏郡</t>
+    <rPh sb="0" eb="2">
+      <t>wei'jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙敬肅王子道</t>
+    <rPh sb="0" eb="1">
+      <t>zhao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙敬肅王子道國。</t>
+    <rPh sb="0" eb="1">
+      <t>guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匯釋</t>
+    <rPh sb="0" eb="1">
+      <t>guo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邯会侯国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邯會衍侯仁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙敬肅王子。七世
+懷侯蒼嗣，薨，亡後。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平恩戴侯許廣漢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以皇太子外祖父昌成君侯，五千六百戶。建國四年，侯敬嗣，王莽敗，絕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邯冓節侯偃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙頃王子。侯定嗣，免。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3536,12 +3621,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301C5228-0766-C84B-9BFD-7662BC32D069}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:R132"/>
+  <dimension ref="A1:R136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L132" sqref="L132"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O136" sqref="O136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3605,7 +3689,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1">
+    <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
         <v>136</v>
       </c>
@@ -3649,7 +3733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1">
+    <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
         <v>219</v>
       </c>
@@ -3699,7 +3783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1">
+    <row r="4" spans="1:18">
       <c r="A4" s="2" t="s">
         <v>219</v>
       </c>
@@ -3749,7 +3833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>222</v>
       </c>
@@ -3799,7 +3883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>222</v>
       </c>
@@ -3849,7 +3933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>222</v>
       </c>
@@ -3899,7 +3983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1">
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>222</v>
       </c>
@@ -3949,7 +4033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1">
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>222</v>
       </c>
@@ -3999,7 +4083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>222</v>
       </c>
@@ -4049,7 +4133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1">
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>222</v>
       </c>
@@ -4099,7 +4183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1">
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>222</v>
       </c>
@@ -4149,7 +4233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1">
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
         <v>222</v>
       </c>
@@ -4199,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1">
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
         <v>222</v>
       </c>
@@ -4249,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1">
+    <row r="15" spans="1:18">
       <c r="A15" s="2" t="s">
         <v>288</v>
       </c>
@@ -4302,7 +4386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1">
+    <row r="16" spans="1:18">
       <c r="A16" s="2" t="s">
         <v>288</v>
       </c>
@@ -4355,7 +4439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" hidden="1">
+    <row r="17" spans="1:18">
       <c r="A17" s="2" t="s">
         <v>288</v>
       </c>
@@ -4402,7 +4486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" hidden="1">
+    <row r="18" spans="1:18">
       <c r="A18" s="2" t="s">
         <v>288</v>
       </c>
@@ -4452,7 +4536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" hidden="1">
+    <row r="19" spans="1:18">
       <c r="A19" s="2" t="s">
         <v>288</v>
       </c>
@@ -4505,7 +4589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1">
+    <row r="20" spans="1:18">
       <c r="A20" s="2" t="s">
         <v>288</v>
       </c>
@@ -4558,7 +4642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" hidden="1">
+    <row r="21" spans="1:18">
       <c r="A21" s="2" t="s">
         <v>288</v>
       </c>
@@ -4608,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" hidden="1">
+    <row r="22" spans="1:18">
       <c r="A22" s="2" t="s">
         <v>288</v>
       </c>
@@ -4758,7 +4842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" hidden="1">
+    <row r="25" spans="1:18">
       <c r="A25" s="2" t="s">
         <v>288</v>
       </c>
@@ -4784,7 +4868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" hidden="1">
+    <row r="26" spans="1:18">
       <c r="A26" s="2" t="s">
         <v>288</v>
       </c>
@@ -4837,7 +4921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" hidden="1">
+    <row r="27" spans="1:18">
       <c r="A27" s="2" t="s">
         <v>288</v>
       </c>
@@ -4934,7 +5018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" hidden="1">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -5028,7 +5112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18" hidden="1">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -5160,7 +5244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" hidden="1">
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -5213,7 +5297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" hidden="1">
+    <row r="35" spans="1:17">
       <c r="A35" s="2" t="s">
         <v>203</v>
       </c>
@@ -5263,7 +5347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:17" hidden="1">
+    <row r="36" spans="1:17">
       <c r="A36" s="2" t="s">
         <v>209</v>
       </c>
@@ -5313,7 +5397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:17" hidden="1">
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -5351,7 +5435,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="1:17" hidden="1">
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -5389,7 +5473,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:17" hidden="1">
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -5427,7 +5511,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:17" hidden="1">
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -5474,7 +5558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" hidden="1">
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -5512,7 +5596,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:17" hidden="1">
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -5550,7 +5634,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:17" hidden="1">
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -5588,7 +5672,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:17" hidden="1">
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -5635,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" hidden="1">
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -5870,7 +5954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1">
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -5914,7 +5998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1">
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -6008,7 +6092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:17" hidden="1">
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -6055,7 +6139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:17" hidden="1">
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -6102,7 +6186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1">
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -6143,7 +6227,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="56" spans="1:17" hidden="1">
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -6381,7 +6465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:17" hidden="1">
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -6431,7 +6515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:17" hidden="1">
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -6469,7 +6553,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1">
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -6519,7 +6603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:17" hidden="1">
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -6566,7 +6650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18" hidden="1">
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -6613,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18" hidden="1">
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -6707,7 +6791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:18" hidden="1">
+    <row r="68" spans="1:18">
       <c r="A68" s="2" t="s">
         <v>386</v>
       </c>
@@ -6757,7 +6841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:18" hidden="1">
+    <row r="69" spans="1:18">
       <c r="A69" s="2" t="s">
         <v>386</v>
       </c>
@@ -6807,7 +6891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" hidden="1">
+    <row r="70" spans="1:18">
       <c r="A70" s="2" t="s">
         <v>386</v>
       </c>
@@ -7007,7 +7091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" hidden="1">
+    <row r="74" spans="1:18">
       <c r="A74" s="2" t="s">
         <v>386</v>
       </c>
@@ -7057,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" hidden="1">
+    <row r="75" spans="1:18">
       <c r="A75" s="2" t="s">
         <v>386</v>
       </c>
@@ -7157,7 +7241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18" hidden="1">
+    <row r="77" spans="1:18">
       <c r="A77" s="2" t="s">
         <v>386</v>
       </c>
@@ -7307,7 +7391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:18" hidden="1">
+    <row r="80" spans="1:18">
       <c r="A80" s="2" t="s">
         <v>386</v>
       </c>
@@ -7360,7 +7444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:18" hidden="1">
+    <row r="81" spans="1:18">
       <c r="A81" s="2" t="s">
         <v>386</v>
       </c>
@@ -7413,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:18" hidden="1">
+    <row r="82" spans="1:18">
       <c r="A82" s="2" t="s">
         <v>386</v>
       </c>
@@ -7463,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18" hidden="1">
+    <row r="83" spans="1:18">
       <c r="A83" s="2" t="s">
         <v>386</v>
       </c>
@@ -7513,7 +7597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18" hidden="1">
+    <row r="84" spans="1:18">
       <c r="A84" s="2" t="s">
         <v>386</v>
       </c>
@@ -7613,7 +7697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18" hidden="1">
+    <row r="86" spans="1:18">
       <c r="A86" s="2" t="s">
         <v>347</v>
       </c>
@@ -7660,7 +7744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:18" hidden="1">
+    <row r="87" spans="1:18">
       <c r="A87" s="2" t="s">
         <v>347</v>
       </c>
@@ -7713,7 +7797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:18" hidden="1">
+    <row r="88" spans="1:18">
       <c r="A88" s="2" t="s">
         <v>347</v>
       </c>
@@ -7766,7 +7850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:18" hidden="1">
+    <row r="89" spans="1:18">
       <c r="A89" s="2" t="s">
         <v>347</v>
       </c>
@@ -7816,7 +7900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:18" hidden="1">
+    <row r="90" spans="1:18">
       <c r="A90" s="2" t="s">
         <v>347</v>
       </c>
@@ -7869,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:18" hidden="1">
+    <row r="91" spans="1:18">
       <c r="A91" s="2" t="s">
         <v>347</v>
       </c>
@@ -7922,7 +8006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:18" hidden="1">
+    <row r="92" spans="1:18">
       <c r="A92" s="2" t="s">
         <v>347</v>
       </c>
@@ -7975,7 +8059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:18" hidden="1">
+    <row r="93" spans="1:18">
       <c r="A93" s="2" t="s">
         <v>347</v>
       </c>
@@ -8078,7 +8162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:18" hidden="1">
+    <row r="95" spans="1:18">
       <c r="A95" t="s">
         <v>125</v>
       </c>
@@ -8125,7 +8209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:18" hidden="1">
+    <row r="96" spans="1:18">
       <c r="A96" t="s">
         <v>125</v>
       </c>
@@ -8172,7 +8256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:18" hidden="1">
+    <row r="97" spans="1:18">
       <c r="A97" s="2" t="s">
         <v>466</v>
       </c>
@@ -8225,7 +8309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:18" hidden="1">
+    <row r="98" spans="1:18">
       <c r="A98" s="2" t="s">
         <v>466</v>
       </c>
@@ -8275,7 +8359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:18" hidden="1">
+    <row r="99" spans="1:18">
       <c r="A99" s="2" t="s">
         <v>466</v>
       </c>
@@ -8378,7 +8462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:18" hidden="1">
+    <row r="101" spans="1:18">
       <c r="A101" s="2" t="s">
         <v>466</v>
       </c>
@@ -8428,7 +8512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:18" hidden="1">
+    <row r="102" spans="1:18">
       <c r="A102" s="2" t="s">
         <v>466</v>
       </c>
@@ -8478,7 +8562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:18" hidden="1">
+    <row r="103" spans="1:18">
       <c r="A103" s="2" t="s">
         <v>466</v>
       </c>
@@ -8528,7 +8612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:18" hidden="1">
+    <row r="104" spans="1:18">
       <c r="A104" s="2" t="s">
         <v>466</v>
       </c>
@@ -8581,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:18" hidden="1">
+    <row r="105" spans="1:18">
       <c r="A105" s="2" t="s">
         <v>500</v>
       </c>
@@ -8631,7 +8715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:18" hidden="1">
+    <row r="106" spans="1:18">
       <c r="A106" s="1" t="s">
         <v>506</v>
       </c>
@@ -8681,7 +8765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:18" hidden="1">
+    <row r="107" spans="1:18">
       <c r="A107" s="1" t="s">
         <v>506</v>
       </c>
@@ -8731,7 +8815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:18" hidden="1">
+    <row r="108" spans="1:18">
       <c r="A108" s="1" t="s">
         <v>506</v>
       </c>
@@ -8781,7 +8865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:18" hidden="1">
+    <row r="109" spans="1:18">
       <c r="A109" s="1" t="s">
         <v>506</v>
       </c>
@@ -8831,7 +8915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:18" hidden="1">
+    <row r="110" spans="1:18">
       <c r="A110" s="1" t="s">
         <v>506</v>
       </c>
@@ -8975,7 +9059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:18" hidden="1">
+    <row r="113" spans="1:18">
       <c r="A113" s="1" t="s">
         <v>506</v>
       </c>
@@ -9019,7 +9103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:18" hidden="1">
+    <row r="114" spans="1:18">
       <c r="A114" s="1" t="s">
         <v>506</v>
       </c>
@@ -9042,7 +9126,7 @@
         <v>21820</v>
       </c>
     </row>
-    <row r="115" spans="1:18" hidden="1">
+    <row r="115" spans="1:18">
       <c r="A115" s="1" t="s">
         <v>506</v>
       </c>
@@ -9183,7 +9267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:18" hidden="1">
+    <row r="118" spans="1:18">
       <c r="A118" s="2" t="s">
         <v>554</v>
       </c>
@@ -9221,7 +9305,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="119" spans="1:18" hidden="1">
+    <row r="119" spans="1:18">
       <c r="A119" s="2" t="s">
         <v>554</v>
       </c>
@@ -9312,7 +9396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:18" hidden="1">
+    <row r="121" spans="1:18">
       <c r="A121" s="2" t="s">
         <v>554</v>
       </c>
@@ -9547,7 +9631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:18" hidden="1">
+    <row r="126" spans="1:18">
       <c r="A126" s="2" t="s">
         <v>589</v>
       </c>
@@ -9597,7 +9681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:18" hidden="1">
+    <row r="127" spans="1:18">
       <c r="A127" s="2" t="s">
         <v>589</v>
       </c>
@@ -9694,7 +9778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:17" hidden="1">
+    <row r="129" spans="1:18">
       <c r="A129" s="2" t="s">
         <v>599</v>
       </c>
@@ -9735,7 +9819,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="130" spans="1:17" hidden="1">
+    <row r="130" spans="1:18">
       <c r="A130" s="2" t="s">
         <v>599</v>
       </c>
@@ -9782,7 +9866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:17" hidden="1">
+    <row r="131" spans="1:18">
       <c r="A131" s="2" t="s">
         <v>599</v>
       </c>
@@ -9826,7 +9910,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="132" spans="1:17" hidden="1">
+    <row r="132" spans="1:18">
       <c r="A132" s="2" t="s">
         <v>599</v>
       </c>
@@ -9873,24 +9957,202 @@
         <v>1</v>
       </c>
     </row>
+    <row r="133" spans="1:18">
+      <c r="A133" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C133" s="2">
+        <v>206</v>
+      </c>
+      <c r="D133" t="s">
+        <v>621</v>
+      </c>
+      <c r="E133" t="s">
+        <v>622</v>
+      </c>
+      <c r="F133" t="s">
+        <v>317</v>
+      </c>
+      <c r="G133">
+        <v>20612</v>
+      </c>
+      <c r="H133" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="I133" s="4">
+        <v>-127</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="N133" t="s">
+        <v>631</v>
+      </c>
+      <c r="O133" t="s">
+        <v>630</v>
+      </c>
+      <c r="R133" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18">
+      <c r="A134" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C134" s="2">
+        <v>206</v>
+      </c>
+      <c r="D134" t="s">
+        <v>632</v>
+      </c>
+      <c r="E134" t="s">
+        <v>623</v>
+      </c>
+      <c r="F134" t="s">
+        <v>44</v>
+      </c>
+      <c r="G134">
+        <v>20614</v>
+      </c>
+      <c r="H134" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="I134">
+        <v>-127</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>7</v>
+      </c>
+      <c r="N134" t="s">
+        <v>32</v>
+      </c>
+      <c r="O134" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18">
+      <c r="A135" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C135" s="2">
+        <v>206</v>
+      </c>
+      <c r="D135" t="s">
+        <v>624</v>
+      </c>
+      <c r="E135" t="s">
+        <v>625</v>
+      </c>
+      <c r="F135" t="s">
+        <v>248</v>
+      </c>
+      <c r="G135">
+        <v>20616</v>
+      </c>
+      <c r="H135" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="I135">
+        <v>-67</v>
+      </c>
+      <c r="J135">
+        <v>5600</v>
+      </c>
+      <c r="K135">
+        <v>3</v>
+      </c>
+      <c r="L135">
+        <v>5</v>
+      </c>
+      <c r="M135">
+        <v>23</v>
+      </c>
+      <c r="N135" t="s">
+        <v>179</v>
+      </c>
+      <c r="O135" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="P135" s="9">
+        <v>2</v>
+      </c>
+      <c r="R135" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18">
+      <c r="A136" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C136" s="2">
+        <v>206</v>
+      </c>
+      <c r="D136" t="s">
+        <v>626</v>
+      </c>
+      <c r="E136" t="s">
+        <v>627</v>
+      </c>
+      <c r="F136" t="s">
+        <v>44</v>
+      </c>
+      <c r="G136">
+        <v>20617</v>
+      </c>
+      <c r="H136" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="I136">
+        <v>-67</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>4</v>
+      </c>
+      <c r="N136" t="s">
+        <v>32</v>
+      </c>
+      <c r="O136" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="P136" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q136">
+        <v>1</v>
+      </c>
+      <c r="R136" s="12">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R132" xr:uid="{1094BEFC-A808-8B41-9FFA-7B4A00011995}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="不改"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="15">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="16">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R132" xr:uid="{1094BEFC-A808-8B41-9FFA-7B4A00011995}"/>
   <sortState ref="A44:R78">
     <sortCondition ref="G50"/>
   </sortState>

--- a/analysis_sample/封国/封国.xlsx
+++ b/analysis_sample/封国/封国.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/汉书-地理志/analysis_sample/封国/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{BF7F9305-0BF4-4844-85BA-33D25F949855}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{35533D50-695A-5548-9949-5B27D92AAEA6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="460" windowWidth="23900" windowHeight="12580" activeTab="2" xr2:uid="{5D274D72-60B0-D249-AA11-A197B2C8B521}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="643">
   <si>
     <t>封國</t>
     <rPh sb="0" eb="2">
@@ -2825,6 +2825,26 @@
   </si>
   <si>
     <t>趙頃王子。侯定嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟武侯国</t>
+  </si>
+  <si>
+    <t>当利县</t>
+  </si>
+  <si>
+    <t>江夏郡</t>
+    <rPh sb="0" eb="3">
+      <t>jiang'xia'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江夏郡</t>
+    <rPh sb="0" eb="3">
+      <t>jiagn'xia'j</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3621,11 +3641,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301C5228-0766-C84B-9BFD-7662BC32D069}">
-  <dimension ref="A1:R136"/>
+  <dimension ref="A1:R137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O136" sqref="O136"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10151,6 +10171,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="137" spans="1:18">
+      <c r="A137" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C137" s="2">
+        <v>402</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G137" s="13">
+        <v>40214</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:R132" xr:uid="{1094BEFC-A808-8B41-9FFA-7B4A00011995}"/>
   <sortState ref="A44:R78">

--- a/analysis_sample/封国/封国.xlsx
+++ b/analysis_sample/封国/封国.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/汉书-地理志/analysis_sample/封国/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{35533D50-695A-5548-9949-5B27D92AAEA6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{1C70FBBE-5BF2-D248-8EFC-47A447B8577D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="460" windowWidth="23900" windowHeight="12580" activeTab="2" xr2:uid="{5D274D72-60B0-D249-AA11-A197B2C8B521}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="649">
   <si>
     <t>封國</t>
     <rPh sb="0" eb="2">
@@ -2845,6 +2845,28 @@
     <rPh sb="0" eb="3">
       <t>jiagn'xia'j</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍾武節侯度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長沙頃王子。元延二年，節侯則以霸叔父紹封。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳山侯国</t>
+  </si>
+  <si>
+    <t>阳山县</t>
+  </si>
+  <si>
+    <t>陽山節侯宗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長沙孝王子。侯買奴嗣，免。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2953,7 +2975,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2995,6 +3017,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3641,11 +3664,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301C5228-0766-C84B-9BFD-7662BC32D069}">
-  <dimension ref="A1:R137"/>
+  <dimension ref="A1:R138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C138" sqref="C138"/>
+      <selection pane="bottomLeft" activeCell="A139" sqref="A139:XFD139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10193,6 +10216,68 @@
       <c r="G137" s="13">
         <v>40214</v>
       </c>
+      <c r="H137" s="15" t="s">
+        <v>643</v>
+      </c>
+      <c r="I137">
+        <v>-65</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>4</v>
+      </c>
+      <c r="N137" t="s">
+        <v>32</v>
+      </c>
+      <c r="O137" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="P137" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18">
+      <c r="D138" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="F138" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G138" s="13">
+        <v>40307</v>
+      </c>
+      <c r="H138" s="15" t="s">
+        <v>647</v>
+      </c>
+      <c r="I138">
+        <v>-48</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="N138" t="s">
+        <v>32</v>
+      </c>
+      <c r="O138" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="P138" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q138">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:R132" xr:uid="{1094BEFC-A808-8B41-9FFA-7B4A00011995}"/>

--- a/analysis_sample/封国/封国.xlsx
+++ b/analysis_sample/封国/封国.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/汉书-地理志/analysis_sample/封国/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{1C70FBBE-5BF2-D248-8EFC-47A447B8577D}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{81F78364-DEAE-CB41-9B07-8BD8E2F124DA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="460" windowWidth="23900" windowHeight="12580" activeTab="2" xr2:uid="{5D274D72-60B0-D249-AA11-A197B2C8B521}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="697">
   <si>
     <t>封國</t>
     <rPh sb="0" eb="2">
@@ -2869,12 +2869,208 @@
     <t>長沙孝王子。侯買奴嗣，免。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>涿郡</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>垣翰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>郡</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广望侯国</t>
+  </si>
+  <si>
+    <t>广望县</t>
+  </si>
+  <si>
+    <t>州乡侯国</t>
+  </si>
+  <si>
+    <t>州乡县</t>
+  </si>
+  <si>
+    <t>樊舆侯国</t>
+  </si>
+  <si>
+    <t>握符县</t>
+  </si>
+  <si>
+    <t>成侯国</t>
+  </si>
+  <si>
+    <t>宜家县</t>
+  </si>
+  <si>
+    <t>良乡侯国</t>
+  </si>
+  <si>
+    <t>广阳县</t>
+  </si>
+  <si>
+    <t>利乡侯国</t>
+  </si>
+  <si>
+    <t>章符县</t>
+  </si>
+  <si>
+    <t>临乡侯国</t>
+  </si>
+  <si>
+    <t>临乡县</t>
+  </si>
+  <si>
+    <t>益昌侯国</t>
+  </si>
+  <si>
+    <t>有袟县</t>
+  </si>
+  <si>
+    <t>阳乡侯国</t>
+  </si>
+  <si>
+    <t>章武县</t>
+  </si>
+  <si>
+    <t>西乡侯国</t>
+  </si>
+  <si>
+    <t>移风县</t>
+  </si>
+  <si>
+    <t>阿武侯国</t>
+  </si>
+  <si>
+    <t>阿武县</t>
+  </si>
+  <si>
+    <t>高郭侯国</t>
+  </si>
+  <si>
+    <t>广堤县</t>
+  </si>
+  <si>
+    <t>新昌侯国</t>
+  </si>
+  <si>
+    <t>新昌县</t>
+  </si>
+  <si>
+    <t>桂阳郡</t>
+    <rPh sb="0" eb="3">
+      <t>gui'yang'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南平郡</t>
+    <rPh sb="0" eb="2">
+      <t>nan'ping</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廣望節侯忠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山靖王子。侯閣嗣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>州鄉節侯禁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河間獻王子。六世侯禹嗣，王莽篡位，絕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樊輿節侯脩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山靖王子。侯自（子）〔予〕嗣，王莽篡位，絕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成獻侯喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元鳳五年十一月庚子封，十五年薨。哀侯貴嗣，建平元年薨，亡後。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁鄉侯交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙共王子。六月丙寅封，十六年免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利鄉孝侯安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山頃王子。侯（固）〔國〕嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臨鄉頃侯雲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廣陽頃王子。侯交嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>益昌頃侯嬰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廣陽頃王子。永光三年三月封。侯福嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陽鄉思侯發</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廣陽頃王子。侯度嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2952,6 +3148,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2975,7 +3185,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3017,7 +3227,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3664,11 +3880,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301C5228-0766-C84B-9BFD-7662BC32D069}">
-  <dimension ref="A1:R138"/>
+  <dimension ref="A1:R151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A139" sqref="A139:XFD139"/>
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I148" sqref="I148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10216,7 +10432,7 @@
       <c r="G137" s="13">
         <v>40214</v>
       </c>
-      <c r="H137" s="15" t="s">
+      <c r="H137" s="16" t="s">
         <v>643</v>
       </c>
       <c r="I137">
@@ -10242,6 +10458,15 @@
       </c>
     </row>
     <row r="138" spans="1:18">
+      <c r="A138" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C138" s="2">
+        <v>403</v>
+      </c>
       <c r="D138" s="12" t="s">
         <v>645</v>
       </c>
@@ -10254,7 +10479,7 @@
       <c r="G138" s="13">
         <v>40307</v>
       </c>
-      <c r="H138" s="15" t="s">
+      <c r="H138" s="16" t="s">
         <v>647</v>
       </c>
       <c r="I138">
@@ -10277,6 +10502,522 @@
       </c>
       <c r="Q138">
         <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18">
+      <c r="A139" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B139" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="C139" s="2">
+        <v>238</v>
+      </c>
+      <c r="D139" t="s">
+        <v>651</v>
+      </c>
+      <c r="E139" t="s">
+        <v>652</v>
+      </c>
+      <c r="F139" t="s">
+        <v>44</v>
+      </c>
+      <c r="G139">
+        <v>23810</v>
+      </c>
+      <c r="H139" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="I139">
+        <v>-127</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>5</v>
+      </c>
+      <c r="N139" t="s">
+        <v>32</v>
+      </c>
+      <c r="O139" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18">
+      <c r="A140" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B140" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="C140" s="2">
+        <v>238</v>
+      </c>
+      <c r="D140" t="s">
+        <v>653</v>
+      </c>
+      <c r="E140" t="s">
+        <v>654</v>
+      </c>
+      <c r="F140" t="s">
+        <v>44</v>
+      </c>
+      <c r="G140">
+        <v>23813</v>
+      </c>
+      <c r="H140" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="I140">
+        <v>-126</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>6</v>
+      </c>
+      <c r="M140" s="15"/>
+      <c r="N140" t="s">
+        <v>32</v>
+      </c>
+      <c r="O140" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="P140">
+        <v>1</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18">
+      <c r="A141" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B141" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="C141" s="2">
+        <v>238</v>
+      </c>
+      <c r="D141" t="s">
+        <v>655</v>
+      </c>
+      <c r="E141" t="s">
+        <v>656</v>
+      </c>
+      <c r="F141" t="s">
+        <v>45</v>
+      </c>
+      <c r="G141">
+        <v>23815</v>
+      </c>
+      <c r="H141" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="I141">
+        <v>-124</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>5</v>
+      </c>
+      <c r="N141" t="s">
+        <v>32</v>
+      </c>
+      <c r="O141" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="P141">
+        <v>1</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18">
+      <c r="A142" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B142" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="C142" s="2">
+        <v>238</v>
+      </c>
+      <c r="D142" t="s">
+        <v>657</v>
+      </c>
+      <c r="E142" t="s">
+        <v>658</v>
+      </c>
+      <c r="F142" t="s">
+        <v>45</v>
+      </c>
+      <c r="G142">
+        <v>23816</v>
+      </c>
+      <c r="H142" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="I142">
+        <v>-76</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>4</v>
+      </c>
+      <c r="M142">
+        <v>-6</v>
+      </c>
+      <c r="N142" t="s">
+        <v>32</v>
+      </c>
+      <c r="O142" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="P142">
+        <v>0</v>
+      </c>
+      <c r="Q142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18">
+      <c r="A143" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="C143" s="2">
+        <v>238</v>
+      </c>
+      <c r="D143" t="s">
+        <v>659</v>
+      </c>
+      <c r="E143" t="s">
+        <v>660</v>
+      </c>
+      <c r="F143" t="s">
+        <v>47</v>
+      </c>
+      <c r="G143">
+        <v>23817</v>
+      </c>
+      <c r="H143" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="I143">
+        <v>-8</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="N143" t="s">
+        <v>32</v>
+      </c>
+      <c r="O143" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="P143">
+        <v>1</v>
+      </c>
+      <c r="Q143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18">
+      <c r="A144" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B144" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="C144" s="2">
+        <v>238</v>
+      </c>
+      <c r="D144" t="s">
+        <v>661</v>
+      </c>
+      <c r="E144" t="s">
+        <v>662</v>
+      </c>
+      <c r="F144" t="s">
+        <v>45</v>
+      </c>
+      <c r="G144">
+        <v>23818</v>
+      </c>
+      <c r="H144" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="I144">
+        <v>-53</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>3</v>
+      </c>
+      <c r="N144" t="s">
+        <v>32</v>
+      </c>
+      <c r="O144" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="P144">
+        <v>1</v>
+      </c>
+      <c r="Q144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17">
+      <c r="A145" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B145" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="C145" s="2">
+        <v>238</v>
+      </c>
+      <c r="D145" t="s">
+        <v>663</v>
+      </c>
+      <c r="E145" t="s">
+        <v>664</v>
+      </c>
+      <c r="F145" t="s">
+        <v>44</v>
+      </c>
+      <c r="G145">
+        <v>23819</v>
+      </c>
+      <c r="H145" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="I145">
+        <v>-44</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>2</v>
+      </c>
+      <c r="N145" t="s">
+        <v>32</v>
+      </c>
+      <c r="O145" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="P145">
+        <v>1</v>
+      </c>
+      <c r="Q145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17">
+      <c r="A146" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B146" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="C146" s="2">
+        <v>238</v>
+      </c>
+      <c r="D146" t="s">
+        <v>665</v>
+      </c>
+      <c r="E146" t="s">
+        <v>666</v>
+      </c>
+      <c r="F146" t="s">
+        <v>45</v>
+      </c>
+      <c r="G146">
+        <v>23820</v>
+      </c>
+      <c r="H146" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="I146">
+        <v>-41</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>3</v>
+      </c>
+      <c r="N146" t="s">
+        <v>32</v>
+      </c>
+      <c r="O146" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="P146">
+        <v>1</v>
+      </c>
+      <c r="Q146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17">
+      <c r="A147" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B147" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="C147" s="2">
+        <v>238</v>
+      </c>
+      <c r="D147" t="s">
+        <v>667</v>
+      </c>
+      <c r="E147" t="s">
+        <v>668</v>
+      </c>
+      <c r="F147" t="s">
+        <v>45</v>
+      </c>
+      <c r="G147">
+        <v>23821</v>
+      </c>
+      <c r="H147" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="I147">
+        <v>-44</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>2</v>
+      </c>
+      <c r="N147" t="s">
+        <v>32</v>
+      </c>
+      <c r="O147" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="P147">
+        <v>1</v>
+      </c>
+      <c r="Q147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17">
+      <c r="A148" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B148" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="C148" s="2">
+        <v>238</v>
+      </c>
+      <c r="D148" t="s">
+        <v>669</v>
+      </c>
+      <c r="E148" t="s">
+        <v>670</v>
+      </c>
+      <c r="F148" t="s">
+        <v>45</v>
+      </c>
+      <c r="G148">
+        <v>23822</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17">
+      <c r="A149" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B149" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="C149" s="2">
+        <v>238</v>
+      </c>
+      <c r="D149" t="s">
+        <v>671</v>
+      </c>
+      <c r="E149" t="s">
+        <v>672</v>
+      </c>
+      <c r="F149" t="s">
+        <v>44</v>
+      </c>
+      <c r="G149">
+        <v>23827</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17">
+      <c r="A150" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B150" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="C150" s="2">
+        <v>238</v>
+      </c>
+      <c r="D150" t="s">
+        <v>673</v>
+      </c>
+      <c r="E150" t="s">
+        <v>674</v>
+      </c>
+      <c r="F150" t="s">
+        <v>52</v>
+      </c>
+      <c r="G150">
+        <v>23828</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17">
+      <c r="A151" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B151" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="C151" s="2">
+        <v>238</v>
+      </c>
+      <c r="D151" t="s">
+        <v>675</v>
+      </c>
+      <c r="E151" t="s">
+        <v>676</v>
+      </c>
+      <c r="F151" t="s">
+        <v>44</v>
+      </c>
+      <c r="G151">
+        <v>23829</v>
       </c>
     </row>
   </sheetData>

--- a/analysis_sample/封国/封国.xlsx
+++ b/analysis_sample/封国/封国.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/汉书-地理志/analysis_sample/封国/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{81F78364-DEAE-CB41-9B07-8BD8E2F124DA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{71B94992-A79B-3248-AB57-750BDF40E869}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="460" windowWidth="23900" windowHeight="12580" activeTab="2" xr2:uid="{5D274D72-60B0-D249-AA11-A197B2C8B521}"/>
+    <workbookView xWindow="140" yWindow="460" windowWidth="23900" windowHeight="12580" activeTab="2" xr2:uid="{5D274D72-60B0-D249-AA11-A197B2C8B521}"/>
   </bookViews>
   <sheets>
     <sheet name="複雜" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="列表" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">列表!$A$1:$R$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">列表!$A$1:$R$198</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="896">
   <si>
     <t>封國</t>
     <rPh sb="0" eb="2">
@@ -401,9 +401,6 @@
     <t>稻县</t>
   </si>
   <si>
-    <t>盈庐县</t>
-  </si>
-  <si>
     <t>魏其侯国</t>
   </si>
   <si>
@@ -435,9 +432,6 @@
   </si>
   <si>
     <t>柔县</t>
-  </si>
-  <si>
-    <t>盛睦县</t>
   </si>
   <si>
     <t>丽侯国</t>
@@ -631,13 +625,6 @@
   </si>
   <si>
     <t>-157?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城阳顷王子禹国，武帝封。</t>
-    <rPh sb="0" eb="2">
-      <t>wang'zi</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2956,13 +2943,7 @@
     <t>章武县</t>
   </si>
   <si>
-    <t>西乡侯国</t>
-  </si>
-  <si>
     <t>移风县</t>
-  </si>
-  <si>
-    <t>阿武侯国</t>
   </si>
   <si>
     <t>阿武县</t>
@@ -3046,6 +3027,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>廣陽頃王子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>廣陽頃王子。侯交嗣，免。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3063,6 +3048,871 @@
   </si>
   <si>
     <t>廣陽頃王子。侯度嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰山郡</t>
+    <rPh sb="0" eb="3">
+      <t>tai'sahn'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柴侯国</t>
+    <rPh sb="0" eb="1">
+      <t>xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柴县</t>
+  </si>
+  <si>
+    <t>宁顺县</t>
+  </si>
+  <si>
+    <t>乘丘侯国</t>
+    <rPh sb="0" eb="2">
+      <t>hou'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘丘县</t>
+  </si>
+  <si>
+    <t>富阳侯国</t>
+    <rPh sb="0" eb="2">
+      <t>hou'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富阳县</t>
+  </si>
+  <si>
+    <t>桃山侯国</t>
+  </si>
+  <si>
+    <t>裒鲁县</t>
+  </si>
+  <si>
+    <t>桃乡侯国</t>
+  </si>
+  <si>
+    <t>鄣亭县</t>
+  </si>
+  <si>
+    <t>式侯国</t>
+    <rPh sb="0" eb="2">
+      <t>hou'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>式县</t>
+  </si>
+  <si>
+    <t>平原郡</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河平郡</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平昌县</t>
+  </si>
+  <si>
+    <t>羽侯国</t>
+  </si>
+  <si>
+    <t>羽贞县</t>
+  </si>
+  <si>
+    <t>加一</t>
+  </si>
+  <si>
+    <t>富平侯国</t>
+  </si>
+  <si>
+    <t>乐安亭县</t>
+  </si>
+  <si>
+    <t>合阳侯国</t>
+  </si>
+  <si>
+    <t>宜乡县</t>
+  </si>
+  <si>
+    <t>楼虚县</t>
+  </si>
+  <si>
+    <t>龙额侯国</t>
+  </si>
+  <si>
+    <t>清乡县</t>
+  </si>
+  <si>
+    <t>安侯国</t>
+  </si>
+  <si>
+    <t>安县</t>
+  </si>
+  <si>
+    <t>千乘郡</t>
+    <rPh sb="0" eb="3">
+      <t>qian'sheng'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建信郡</t>
+    <rPh sb="0" eb="2">
+      <t>jian'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安侯国</t>
+  </si>
+  <si>
+    <t>鸿睦县</t>
+  </si>
+  <si>
+    <t>被阳侯国</t>
+  </si>
+  <si>
+    <t>被阳县</t>
+  </si>
+  <si>
+    <t>高昌侯国</t>
+    <rPh sb="0" eb="2">
+      <t>hou'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高昌县</t>
+  </si>
+  <si>
+    <t>繁安侯国</t>
+  </si>
+  <si>
+    <t>瓦亭县</t>
+  </si>
+  <si>
+    <t>延乡侯国</t>
+    <rPh sb="0" eb="2">
+      <t>hou'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延乡县</t>
+  </si>
+  <si>
+    <t>西乡侯国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西鄉頃侯容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿武侯国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿武戴侯豫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河間獻王子。</t>
+  </si>
+  <si>
+    <t>河間獻王子。六世侯長久嗣，王莽篡位，絕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高郭節侯𣋞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新昌節侯慶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕剌王子。侯晉嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柴原侯代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齊孝王子。恭侯莫如嗣，薨，亡後。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁阳侯国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寧陽節侯恬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魯共王子。侯方嗣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘丘節侯將夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中山靖王子。侯外人嗣，元康四年，坐為子時與後母亂，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富陽侯萌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東平思王子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東平思王子。三年三月庚申封，二十三年免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王子侯表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃山侯欽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城陽孝王子。四年五月戊申封，二十一年免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃鄉頃侯宣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>式節侯憲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城陽荒王子。元延元年， 侯 萌以霸弟紹封，十九年免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平昌侯国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平昌節侯王無故</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以帝舅關內侯侯，六百戶。鴻嘉元年，侯獲嗣，三十八年，建武五年，詔書復獲。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽康侯成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濟北式王子。侯 棄嗣，王莽篡位，絕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富平敬侯張安世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>以右將軍光祿勳輔政勤勞侯，以車騎將軍與大將軍光定策，益封，凡萬三千六百四十戶。建平元年，侯純嗣，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王莽建國四年更為張鄉侯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，建武中為武始侯。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合陽節侯平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魯孝王子。孝侯安上嗣，建始元年薨，亡後。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼虚侯国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樓虛侯訾順</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元朔五年四月丁未，侯譊以都尉擊匈奴得王，侯，十二年，元鼎五年，坐酎金免。六世侯敞弓嗣，王莽敗，絕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功臣表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韓譊</t>
+    <rPh sb="0" eb="1">
+      <t>han</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安陽侯樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濟北貞王子。哀侯得嗣，薨，亡後。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元始五年，懷侯買嗣，王莽敗，絕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安平夷侯舜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被陽敬侯燕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齊孝王子。六世侯廣嗣，王莽篡位，絕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高昌壯侯董忠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以期門受張章言霍禹謀反，告左曹楊惲，侯，再坐法，削戶千一百，定七十九戶。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Siyuansong"/>
+      </rPr>
+      <t>元壽元年，侯武嗣，二年，坐父宏前為佞邪，免。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁安夷侯忠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齊孝王子。六世侯起嗣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延鄉節侯李譚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以尉氏男子捕得反者樊並侯，千戶。元始元年，侯成嗣，王莽敗，絕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南郡</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐安郡</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脩治县</t>
+  </si>
+  <si>
+    <t>利成县</t>
+  </si>
+  <si>
+    <t>宜成侯国</t>
+  </si>
+  <si>
+    <t>宜成县</t>
+  </si>
+  <si>
+    <t>齐郡</t>
+    <rPh sb="0" eb="1">
+      <t>jun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广侯国</t>
+    <rPh sb="0" eb="2">
+      <t>hou'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广县</t>
+  </si>
+  <si>
+    <t>广饶侯国</t>
+    <rPh sb="0" eb="2">
+      <t>hou'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广饶县</t>
+  </si>
+  <si>
+    <t>临朐侯国</t>
+    <rPh sb="0" eb="2">
+      <t>hou'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监朐县</t>
+  </si>
+  <si>
+    <t>监</t>
+  </si>
+  <si>
+    <t>北乡侯国</t>
+  </si>
+  <si>
+    <t>禺聚县</t>
+  </si>
+  <si>
+    <t>平广侯国</t>
+  </si>
+  <si>
+    <t>平广县</t>
+  </si>
+  <si>
+    <t>台乡侯国</t>
+    <rPh sb="0" eb="2">
+      <t>hou'g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台乡县</t>
+  </si>
+  <si>
+    <t>北海郡</t>
+    <rPh sb="0" eb="3">
+      <t>bei'hai'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧魁侯国</t>
+  </si>
+  <si>
+    <t>上符县</t>
+  </si>
+  <si>
+    <t>道德县</t>
+  </si>
+  <si>
+    <t>剧县</t>
+  </si>
+  <si>
+    <t>平望侯国</t>
+  </si>
+  <si>
+    <t>所聚县</t>
+  </si>
+  <si>
+    <t>平的侯国</t>
+  </si>
+  <si>
+    <t>平的县</t>
+  </si>
+  <si>
+    <t>柳泉侯国</t>
+  </si>
+  <si>
+    <t>弘睦县</t>
+  </si>
+  <si>
+    <t>乐望县</t>
+  </si>
+  <si>
+    <t>饶县</t>
+  </si>
+  <si>
+    <t>平城侯国</t>
+  </si>
+  <si>
+    <t>平城县</t>
+  </si>
+  <si>
+    <t>密乡侯国</t>
+  </si>
+  <si>
+    <t>密乡县</t>
+  </si>
+  <si>
+    <t>羊石侯国</t>
+  </si>
+  <si>
+    <t>羊石县</t>
+  </si>
+  <si>
+    <t>乐都侯国</t>
+  </si>
+  <si>
+    <t>石乡侯国</t>
+  </si>
+  <si>
+    <t>石乡县</t>
+  </si>
+  <si>
+    <t>上乡侯国</t>
+  </si>
+  <si>
+    <t>上乡县</t>
+  </si>
+  <si>
+    <t>新成侯国</t>
+  </si>
+  <si>
+    <t>新成县</t>
+  </si>
+  <si>
+    <t>成乡侯国</t>
+  </si>
+  <si>
+    <t>石乐县</t>
+  </si>
+  <si>
+    <t>胶阳侯国</t>
+  </si>
+  <si>
+    <t>胶阳县</t>
+  </si>
+  <si>
+    <t>东莱郡</t>
+    <rPh sb="0" eb="3">
+      <t>dong'lai'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临朐侯国</t>
+  </si>
+  <si>
+    <t>阳乐侯国</t>
+  </si>
+  <si>
+    <t>延乐县</t>
+  </si>
+  <si>
+    <t>朝阳侯国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝陽荒侯聖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廣陵厲王子。侯安國嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猇侯国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猇 節侯起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙敬肅王子。侯鉅鹿嗣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜成康侯偃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菑川懿王子。元鼎元年，侯福嗣，十二年，太初元年，坐殺弟棄市。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廣釐侯便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菑川孝王子。侯宇嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廣饒康侯國</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菑川靖王子。甘露元年，侯麟嗣，王莽篡位，絕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臨朐夷侯奴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菑川懿王子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北鄉侯譚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菑川孝王子。四年六月封，四十三年免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平 節 侯 服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菑川孝王子。侯 嘉嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臺鄉侯畛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菑川孝王子。二年正月癸卯封，十八年免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劇魁夷侯黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菑川懿王子。六世侯向嗣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓡侯国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓡 節侯息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>城陽頃王子。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Siyuansong"/>
+      </rPr>
+      <t>元康四年，質侯守嗣，七年薨。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王子侯表</t>
+    <rPh sb="0" eb="2">
+      <t>hui'shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城陽頃王子。五鳳四年，侯敞嗣，王莽篡位，絕。</t>
+    <rPh sb="0" eb="2">
+      <t>wang'zi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧侯国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劇 原侯錯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菑川懿王子。六世侯勝容嗣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平望夷侯賞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菑川懿王子。六世侯勝容嗣。六世侯旦嗣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平的戴侯強</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菑川懿王子。六世侯宣嗣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳泉節侯強</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膠東戴王子。侯永昌嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐望侯国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂望孝侯光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膠東戴王子。侯起嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饶侯国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饒康侯成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膠東戴王子。侯新嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平城釐侯邑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膠東頃王子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膠東頃王子。侯理嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密鄉頃侯林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膠東頃王子。侯敞嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊石頃侯回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂都煬侯訢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膠東頃王子。侯延年嗣，免。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拔垄县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盈庐县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛睦县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同音</t>
+    <rPh sb="0" eb="2">
+      <t>tong'yin</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3070,7 +3920,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3162,6 +4012,25 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Siyuansong"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Siyuansong"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3185,7 +4054,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3232,6 +4101,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3880,11 +4755,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301C5228-0766-C84B-9BFD-7662BC32D069}">
-  <dimension ref="A1:R151"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:R198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I148" sqref="I148"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3894,25 +4770,25 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" t="s">
         <v>130</v>
       </c>
-      <c r="B1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>131</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>132</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>133</v>
-      </c>
-      <c r="F1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G1" t="s">
-        <v>135</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>1</v>
@@ -3930,7 +4806,7 @@
         <v>27</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>30</v>
@@ -3939,27 +4815,27 @@
         <v>35</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" hidden="1">
       <c r="A2" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2">
         <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>49</v>
@@ -3992,21 +4868,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" hidden="1">
       <c r="A3" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C3" s="2">
         <v>201</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -4015,7 +4891,7 @@
         <v>20117</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I3" s="7">
         <v>-78</v>
@@ -4036,27 +4912,27 @@
         <v>31</v>
       </c>
       <c r="O3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="P3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" hidden="1">
       <c r="A4" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C4" s="2">
         <v>201</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F4" t="s">
         <v>45</v>
@@ -4065,7 +4941,7 @@
         <v>20118</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I4">
         <v>-44</v>
@@ -4080,33 +4956,33 @@
         <v>6</v>
       </c>
       <c r="M4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="N4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="P4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" hidden="1">
       <c r="A5" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C5" s="2">
         <v>202</v>
       </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F5" t="s">
         <v>45</v>
@@ -4115,7 +4991,7 @@
         <v>20203</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I5" s="8">
         <v>-66</v>
@@ -4133,39 +5009,39 @@
         <v>23</v>
       </c>
       <c r="N5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" hidden="1">
       <c r="A6" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C6" s="2">
         <v>202</v>
       </c>
       <c r="D6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G6">
         <v>20209</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I6" s="8">
         <v>-32</v>
@@ -4183,39 +5059,39 @@
         <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" hidden="1">
       <c r="A7" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C7" s="2">
         <v>202</v>
       </c>
       <c r="D7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G7">
         <v>20213</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="I7" s="8">
         <v>-77</v>
@@ -4233,30 +5109,30 @@
         <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" hidden="1">
       <c r="A8" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C8" s="2">
         <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F8" t="s">
         <v>44</v>
@@ -4265,7 +5141,7 @@
         <v>20222</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I8">
         <v>-80</v>
@@ -4286,36 +5162,36 @@
         <v>31</v>
       </c>
       <c r="O8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" hidden="1">
       <c r="A9" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C9" s="2">
         <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E9" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G9">
         <v>20231</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I9" s="8">
         <v>-59</v>
@@ -4336,27 +5212,27 @@
         <v>31</v>
       </c>
       <c r="O9" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="P9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" hidden="1">
       <c r="A10" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C10" s="2">
         <v>202</v>
       </c>
       <c r="D10" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F10" t="s">
         <v>48</v>
@@ -4365,7 +5241,7 @@
         <v>20233</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I10">
         <v>-25</v>
@@ -4383,30 +5259,30 @@
         <v>23</v>
       </c>
       <c r="N10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O10" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="P10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" hidden="1">
       <c r="A11" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C11" s="2">
         <v>202</v>
       </c>
       <c r="D11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F11" t="s">
         <v>45</v>
@@ -4415,7 +5291,7 @@
         <v>20234</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I11" s="5">
         <v>-20</v>
@@ -4433,30 +5309,30 @@
         <v>23</v>
       </c>
       <c r="N11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O11" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="P11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" hidden="1">
       <c r="A12" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C12" s="2">
         <v>202</v>
       </c>
       <c r="D12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F12" t="s">
         <v>45</v>
@@ -4465,7 +5341,7 @@
         <v>20235</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I12" s="5">
         <v>-63</v>
@@ -4483,30 +5359,30 @@
         <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O12" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" hidden="1">
       <c r="A13" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C13" s="2">
         <v>202</v>
       </c>
       <c r="D13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -4515,7 +5391,7 @@
         <v>20236</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I13" s="5">
         <v>-16</v>
@@ -4533,30 +5409,30 @@
         <v>-6</v>
       </c>
       <c r="N13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O13" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" hidden="1">
       <c r="A14" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C14" s="2">
         <v>202</v>
       </c>
       <c r="D14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E14" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F14" t="s">
         <v>44</v>
@@ -4565,7 +5441,7 @@
         <v>20237</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I14" s="8">
         <v>-10</v>
@@ -4583,39 +5459,39 @@
         <v>-8</v>
       </c>
       <c r="N14" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" hidden="1">
       <c r="A15" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C15" s="2">
         <v>203</v>
       </c>
       <c r="D15" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E15" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F15" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G15">
         <v>20308</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I15" s="8">
         <v>-26</v>
@@ -4633,7 +5509,7 @@
         <v>32</v>
       </c>
       <c r="O15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P15">
         <v>2</v>
@@ -4647,19 +5523,19 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C16" s="2">
         <v>203</v>
       </c>
       <c r="D16" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E16" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F16" t="s">
         <v>44</v>
@@ -4668,7 +5544,7 @@
         <v>20317</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="I16" s="8">
         <v>-126</v>
@@ -4686,7 +5562,7 @@
         <v>32</v>
       </c>
       <c r="O16" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -4700,19 +5576,19 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C17" s="2">
         <v>203</v>
       </c>
       <c r="D17" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E17" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F17" t="s">
         <v>44</v>
@@ -4721,7 +5597,7 @@
         <v>20319</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="I17" s="8">
         <v>-126</v>
@@ -4730,10 +5606,10 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="O17" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -4745,30 +5621,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" hidden="1">
       <c r="A18" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C18" s="2">
         <v>203</v>
       </c>
       <c r="D18" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E18" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F18" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G18">
         <v>20321</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I18" s="8">
         <v>-92</v>
@@ -4783,10 +5659,10 @@
         <v>32</v>
       </c>
       <c r="O18" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P18" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -4795,21 +5671,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" hidden="1">
       <c r="A19" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C19" s="2">
         <v>203</v>
       </c>
       <c r="D19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E19" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F19" t="s">
         <v>44</v>
@@ -4818,7 +5694,7 @@
         <v>20324</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I19" s="8">
         <v>-55</v>
@@ -4836,10 +5712,10 @@
         <v>23</v>
       </c>
       <c r="N19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O19" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P19">
         <v>2</v>
@@ -4848,30 +5724,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" hidden="1">
       <c r="A20" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C20" s="2">
         <v>203</v>
       </c>
       <c r="D20" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E20" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F20" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G20">
         <v>20326</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I20" s="8">
         <v>-80</v>
@@ -4892,7 +5768,7 @@
         <v>31</v>
       </c>
       <c r="O20" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="P20">
         <v>2</v>
@@ -4903,19 +5779,19 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C21" s="2">
         <v>203</v>
       </c>
       <c r="D21" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E21" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F21" t="s">
         <v>45</v>
@@ -4924,7 +5800,7 @@
         <v>20328</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I21" s="8">
         <v>-20</v>
@@ -4939,7 +5815,7 @@
         <v>32</v>
       </c>
       <c r="O21" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P21">
         <v>1</v>
@@ -4951,30 +5827,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" hidden="1">
       <c r="A22" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C22" s="2">
         <v>203</v>
       </c>
       <c r="D22" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E22" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F22" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G22">
         <v>20329</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I22" s="8">
         <v>-71</v>
@@ -4989,10 +5865,10 @@
         <v>23</v>
       </c>
       <c r="N22" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P22" s="9">
         <v>2</v>
@@ -5003,19 +5879,19 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C23" s="2">
         <v>203</v>
       </c>
       <c r="D23" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E23" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F23" t="s">
         <v>44</v>
@@ -5024,7 +5900,7 @@
         <v>20330</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I23" s="8">
         <v>-48</v>
@@ -5039,7 +5915,7 @@
         <v>32</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P23">
         <v>1</v>
@@ -5053,19 +5929,19 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C24" s="2">
         <v>203</v>
       </c>
       <c r="D24" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E24" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F24" t="s">
         <v>44</v>
@@ -5074,7 +5950,7 @@
         <v>20331</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="I24" s="8">
         <v>-48</v>
@@ -5089,7 +5965,7 @@
         <v>32</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P24">
         <v>1</v>
@@ -5101,21 +5977,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" hidden="1">
       <c r="A25" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C25" s="2">
         <v>203</v>
       </c>
       <c r="D25" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E25" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F25" t="s">
         <v>44</v>
@@ -5127,30 +6003,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" hidden="1">
       <c r="A26" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C26" s="2">
         <v>203</v>
       </c>
       <c r="D26" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E26" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F26" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G26">
         <v>20333</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I26">
         <v>-27</v>
@@ -5168,10 +6044,10 @@
         <v>26</v>
       </c>
       <c r="N26" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O26" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="P26">
         <v>2</v>
@@ -5182,19 +6058,19 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C27" s="2">
         <v>203</v>
       </c>
       <c r="D27" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E27" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F27" t="s">
         <v>45</v>
@@ -5203,7 +6079,7 @@
         <v>20337</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I27">
         <v>-15</v>
@@ -5218,7 +6094,7 @@
         <v>32</v>
       </c>
       <c r="O27" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P27">
         <v>1</v>
@@ -5268,7 +6144,7 @@
         <v>32</v>
       </c>
       <c r="O28" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P28">
         <v>1</v>
@@ -5315,7 +6191,7 @@
         <v>32</v>
       </c>
       <c r="O29" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P29">
         <v>1</v>
@@ -5362,7 +6238,7 @@
         <v>32</v>
       </c>
       <c r="O30" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P30">
         <v>1</v>
@@ -5371,7 +6247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" hidden="1">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -5394,7 +6270,7 @@
         <v>21112</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I31">
         <v>-58</v>
@@ -5406,7 +6282,7 @@
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -5432,7 +6308,7 @@
         <v>21113</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I32">
         <v>-58</v>
@@ -5447,7 +6323,7 @@
         <v>32</v>
       </c>
       <c r="O32" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P32">
         <v>1</v>
@@ -5494,7 +6370,7 @@
         <v>32</v>
       </c>
       <c r="O33" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P33">
         <v>1</v>
@@ -5503,7 +6379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" hidden="1">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -5526,7 +6402,7 @@
         <v>21116</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I34">
         <v>-61</v>
@@ -5547,7 +6423,7 @@
         <v>32</v>
       </c>
       <c r="O34" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -5556,21 +6432,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" hidden="1">
       <c r="A35" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C35" s="2">
         <v>216</v>
       </c>
       <c r="D35" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E35" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F35" t="s">
         <v>44</v>
@@ -5579,7 +6455,7 @@
         <v>21619</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I35">
         <v>-48</v>
@@ -5597,30 +6473,30 @@
         <v>23</v>
       </c>
       <c r="N35" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O35" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="P35">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" hidden="1">
       <c r="A36" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C36" s="2">
         <v>217</v>
       </c>
       <c r="D36" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" t="s">
         <v>211</v>
-      </c>
-      <c r="E36" t="s">
-        <v>214</v>
       </c>
       <c r="F36" t="s">
         <v>45</v>
@@ -5629,7 +6505,7 @@
         <v>21711</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I36">
         <v>-70</v>
@@ -5650,7 +6526,7 @@
         <v>31</v>
       </c>
       <c r="O36" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P36">
         <v>2</v>
@@ -5679,22 +6555,31 @@
         <v>23310</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="I37" s="4">
+        <v>-116</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
       <c r="N37" t="s">
-        <v>144</v>
+        <v>867</v>
       </c>
       <c r="O37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+        <v>868</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" hidden="1">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -5717,22 +6602,22 @@
         <v>23311</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I38" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>141</v>
+      </c>
+      <c r="O38" t="s">
         <v>142</v>
       </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="N38" t="s">
-        <v>144</v>
-      </c>
-      <c r="O38" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
+    </row>
+    <row r="39" spans="1:17" hidden="1">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -5746,7 +6631,7 @@
         <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F39" t="s">
         <v>44</v>
@@ -5755,19 +6640,19 @@
         <v>23313</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O39" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5781,7 +6666,7 @@
         <v>233</v>
       </c>
       <c r="D40" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E40" t="s">
         <v>74</v>
@@ -5793,7 +6678,7 @@
         <v>23315</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I40" s="5">
         <v>-116</v>
@@ -5808,7 +6693,7 @@
         <v>32</v>
       </c>
       <c r="O40" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="P40">
         <v>1</v>
@@ -5817,7 +6702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" hidden="1">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -5828,7 +6713,7 @@
         <v>233</v>
       </c>
       <c r="D41" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E41" t="s">
         <v>75</v>
@@ -5840,22 +6725,22 @@
         <v>23317</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O41" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" hidden="1">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -5878,22 +6763,22 @@
         <v>23319</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K42">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O42" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" hidden="1">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -5916,19 +6801,19 @@
         <v>23321</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O43" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5942,10 +6827,10 @@
         <v>233</v>
       </c>
       <c r="D44" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E44" t="s">
-        <v>80</v>
+        <v>893</v>
       </c>
       <c r="F44" t="s">
         <v>47</v>
@@ -5954,7 +6839,7 @@
         <v>23322</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I44">
         <v>-110</v>
@@ -5969,7 +6854,7 @@
         <v>32</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="P44">
         <v>1</v>
@@ -5989,10 +6874,10 @@
         <v>233</v>
       </c>
       <c r="D45" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" t="s">
         <v>81</v>
-      </c>
-      <c r="E45" t="s">
-        <v>82</v>
       </c>
       <c r="F45" t="s">
         <v>47</v>
@@ -6001,7 +6886,7 @@
         <v>23327</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I45">
         <v>-110</v>
@@ -6016,7 +6901,7 @@
         <v>32</v>
       </c>
       <c r="O45" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P45">
         <v>1</v>
@@ -6036,10 +6921,10 @@
         <v>233</v>
       </c>
       <c r="D46" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F46" t="s">
         <v>44</v>
@@ -6048,7 +6933,7 @@
         <v>23329</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I46">
         <v>-52</v>
@@ -6063,7 +6948,7 @@
         <v>32</v>
       </c>
       <c r="O46" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="P46">
         <v>1</v>
@@ -6083,10 +6968,10 @@
         <v>233</v>
       </c>
       <c r="D47" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" t="s">
         <v>84</v>
-      </c>
-      <c r="E47" t="s">
-        <v>85</v>
       </c>
       <c r="F47" t="s">
         <v>44</v>
@@ -6095,7 +6980,7 @@
         <v>23330</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I47">
         <v>-50</v>
@@ -6110,7 +6995,7 @@
         <v>32</v>
       </c>
       <c r="O47" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P47">
         <v>1</v>
@@ -6130,10 +7015,10 @@
         <v>233</v>
       </c>
       <c r="D48" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" t="s">
         <v>86</v>
-      </c>
-      <c r="E48" t="s">
-        <v>87</v>
       </c>
       <c r="F48" t="s">
         <v>44</v>
@@ -6142,7 +7027,7 @@
         <v>23332</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I48">
         <v>-50</v>
@@ -6157,7 +7042,7 @@
         <v>32</v>
       </c>
       <c r="O48" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P48">
         <v>1</v>
@@ -6177,10 +7062,10 @@
         <v>233</v>
       </c>
       <c r="D49" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" t="s">
         <v>88</v>
-      </c>
-      <c r="E49" t="s">
-        <v>89</v>
       </c>
       <c r="F49" t="s">
         <v>44</v>
@@ -6189,7 +7074,7 @@
         <v>23333</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I49">
         <v>-50</v>
@@ -6204,7 +7089,7 @@
         <v>32</v>
       </c>
       <c r="O49" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P49">
         <v>1</v>
@@ -6213,7 +7098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" hidden="1">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -6224,10 +7109,10 @@
         <v>233</v>
       </c>
       <c r="D50" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" t="s">
         <v>90</v>
-      </c>
-      <c r="E50" t="s">
-        <v>91</v>
       </c>
       <c r="F50" t="s">
         <v>44</v>
@@ -6236,7 +7121,7 @@
         <v>23334</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I50">
         <v>-50</v>
@@ -6248,7 +7133,7 @@
         <v>32</v>
       </c>
       <c r="O50" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -6268,10 +7153,10 @@
         <v>233</v>
       </c>
       <c r="D51" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E51" t="s">
-        <v>92</v>
+        <v>894</v>
       </c>
       <c r="F51" t="s">
         <v>45</v>
@@ -6280,7 +7165,7 @@
         <v>23335</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I51">
         <v>-50</v>
@@ -6295,7 +7180,7 @@
         <v>32</v>
       </c>
       <c r="O51" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P51">
         <v>1</v>
@@ -6315,10 +7200,10 @@
         <v>233</v>
       </c>
       <c r="D52" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E52" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F52" t="s">
         <v>44</v>
@@ -6327,7 +7212,7 @@
         <v>23336</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I52">
         <v>-31</v>
@@ -6342,7 +7227,7 @@
         <v>32</v>
       </c>
       <c r="O52" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P52">
         <v>1</v>
@@ -6362,10 +7247,10 @@
         <v>233</v>
       </c>
       <c r="D53" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E53" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F53" t="s">
         <v>45</v>
@@ -6374,7 +7259,7 @@
         <v>23337</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I53">
         <v>-31</v>
@@ -6389,7 +7274,7 @@
         <v>32</v>
       </c>
       <c r="O53" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P53">
         <v>1</v>
@@ -6398,7 +7283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" hidden="1">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -6409,10 +7294,10 @@
         <v>233</v>
       </c>
       <c r="D54" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F54" t="s">
         <v>44</v>
@@ -6421,7 +7306,7 @@
         <v>23338</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I54">
         <v>-41</v>
@@ -6436,7 +7321,7 @@
         <v>32</v>
       </c>
       <c r="O54" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -6445,7 +7330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" hidden="1">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -6456,10 +7341,10 @@
         <v>233</v>
       </c>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F55" t="s">
         <v>44</v>
@@ -6468,7 +7353,7 @@
         <v>23339</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I55">
         <v>-13</v>
@@ -6483,10 +7368,16 @@
         <v>31</v>
       </c>
       <c r="O55" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
+        <v>174</v>
+      </c>
+      <c r="P55" t="s">
+        <v>771</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" hidden="1">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -6497,10 +7388,10 @@
         <v>233</v>
       </c>
       <c r="D56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F56" t="s">
         <v>44</v>
@@ -6509,7 +7400,7 @@
         <v>23340</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I56">
         <v>-20</v>
@@ -6527,10 +7418,10 @@
         <v>-3</v>
       </c>
       <c r="N56" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O56" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -6547,10 +7438,10 @@
         <v>233</v>
       </c>
       <c r="D57" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E57" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F57" t="s">
         <v>44</v>
@@ -6559,7 +7450,7 @@
         <v>23341</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I57">
         <v>-48</v>
@@ -6574,7 +7465,7 @@
         <v>32</v>
       </c>
       <c r="O57" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P57">
         <v>1</v>
@@ -6594,10 +7485,10 @@
         <v>233</v>
       </c>
       <c r="D58" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F58" t="s">
         <v>44</v>
@@ -6606,7 +7497,7 @@
         <v>23342</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I58" s="5">
         <v>-41</v>
@@ -6621,7 +7512,7 @@
         <v>32</v>
       </c>
       <c r="O58" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P58">
         <v>1</v>
@@ -6641,10 +7532,10 @@
         <v>233</v>
       </c>
       <c r="D59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F59" t="s">
         <v>44</v>
@@ -6653,7 +7544,7 @@
         <v>23343</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I59">
         <v>-48</v>
@@ -6668,7 +7559,7 @@
         <v>32</v>
       </c>
       <c r="O59" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P59">
         <v>1</v>
@@ -6688,10 +7579,10 @@
         <v>233</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F60" t="s">
         <v>44</v>
@@ -6700,7 +7591,7 @@
         <v>23344</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I60">
         <v>-48</v>
@@ -6715,7 +7606,7 @@
         <v>32</v>
       </c>
       <c r="O60" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P60">
         <v>1</v>
@@ -6724,7 +7615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" hidden="1">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -6735,10 +7626,10 @@
         <v>233</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E61" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F61" t="s">
         <v>44</v>
@@ -6747,7 +7638,7 @@
         <v>23345</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I61">
         <v>-48</v>
@@ -6765,7 +7656,7 @@
         <v>32</v>
       </c>
       <c r="O61" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -6774,7 +7665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" hidden="1">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -6785,10 +7676,10 @@
         <v>233</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E62" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F62" t="s">
         <v>44</v>
@@ -6797,22 +7688,22 @@
         <v>23346</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K62">
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O62" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" hidden="1">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -6823,19 +7714,19 @@
         <v>233</v>
       </c>
       <c r="D63" t="s">
+        <v>112</v>
+      </c>
+      <c r="E63" t="s">
+        <v>113</v>
+      </c>
+      <c r="F63" t="s">
         <v>114</v>
-      </c>
-      <c r="E63" t="s">
-        <v>115</v>
-      </c>
-      <c r="F63" t="s">
-        <v>116</v>
       </c>
       <c r="G63">
         <v>23347</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I63" s="5">
         <v>-20</v>
@@ -6856,7 +7747,7 @@
         <v>31</v>
       </c>
       <c r="O63" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P63">
         <v>2</v>
@@ -6873,19 +7764,19 @@
         <v>233</v>
       </c>
       <c r="D64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E64" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F64" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G64">
         <v>23348</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I64">
         <v>-20</v>
@@ -6900,7 +7791,7 @@
         <v>32</v>
       </c>
       <c r="O64" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="P64">
         <v>1</v>
@@ -6909,7 +7800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" hidden="1">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -6920,10 +7811,10 @@
         <v>233</v>
       </c>
       <c r="D65" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -6932,7 +7823,7 @@
         <v>23349</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I65">
         <v>-15</v>
@@ -6947,10 +7838,10 @@
         <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O65" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -6967,10 +7858,10 @@
         <v>233</v>
       </c>
       <c r="D66" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E66" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F66" t="s">
         <v>45</v>
@@ -6979,7 +7870,7 @@
         <v>23350</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I66">
         <v>-15</v>
@@ -6994,7 +7885,7 @@
         <v>32</v>
       </c>
       <c r="O66" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="P66">
         <v>1</v>
@@ -7014,10 +7905,10 @@
         <v>233</v>
       </c>
       <c r="D67" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E67" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F67" t="s">
         <v>44</v>
@@ -7026,7 +7917,7 @@
         <v>23351</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I67">
         <v>-41</v>
@@ -7041,7 +7932,7 @@
         <v>32</v>
       </c>
       <c r="O67" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="P67">
         <v>1</v>
@@ -7052,19 +7943,19 @@
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C68" s="2">
         <v>234</v>
       </c>
       <c r="D68" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E68" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F68" t="s">
         <v>45</v>
@@ -7073,7 +7964,7 @@
         <v>23405</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I68">
         <v>-82</v>
@@ -7088,7 +7979,7 @@
         <v>32</v>
       </c>
       <c r="O68" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="P68">
         <v>1</v>
@@ -7102,19 +7993,19 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C69" s="2">
         <v>234</v>
       </c>
       <c r="D69" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E69" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F69" t="s">
         <v>45</v>
@@ -7123,7 +8014,7 @@
         <v>23413</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I69">
         <v>-82</v>
@@ -7138,7 +8029,7 @@
         <v>32</v>
       </c>
       <c r="O69" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="P69">
         <v>1</v>
@@ -7152,19 +8043,19 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C70" s="2">
         <v>234</v>
       </c>
       <c r="D70" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E70" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F70" t="s">
         <v>44</v>
@@ -7173,7 +8064,7 @@
         <v>23415</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I70">
         <v>-125</v>
@@ -7188,7 +8079,7 @@
         <v>32</v>
       </c>
       <c r="O70" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="P70">
         <v>1</v>
@@ -7202,19 +8093,19 @@
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C71" s="2">
         <v>234</v>
       </c>
       <c r="D71" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E71" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F71" t="s">
         <v>44</v>
@@ -7223,7 +8114,7 @@
         <v>23416</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="I71">
         <v>-52</v>
@@ -7238,7 +8129,7 @@
         <v>32</v>
       </c>
       <c r="O71" s="9" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P71">
         <v>1</v>
@@ -7252,19 +8143,19 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C72" s="2">
         <v>234</v>
       </c>
       <c r="D72" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E72" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F72" t="s">
         <v>44</v>
@@ -7273,7 +8164,7 @@
         <v>23417</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I72">
         <v>-21</v>
@@ -7288,7 +8179,7 @@
         <v>32</v>
       </c>
       <c r="O72" s="9" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="P72">
         <v>1</v>
@@ -7302,19 +8193,19 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C73" s="2">
         <v>234</v>
       </c>
       <c r="D73" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E73" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F73" t="s">
         <v>44</v>
@@ -7323,7 +8214,7 @@
         <v>23422</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I73">
         <v>-82</v>
@@ -7338,7 +8229,7 @@
         <v>32</v>
       </c>
       <c r="O73" s="9" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="P73">
         <v>1</v>
@@ -7352,19 +8243,19 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C74" s="2">
         <v>234</v>
       </c>
       <c r="D74" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E74" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F74" t="s">
         <v>46</v>
@@ -7373,7 +8264,7 @@
         <v>23423</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="I74">
         <v>-52</v>
@@ -7388,7 +8279,7 @@
         <v>32</v>
       </c>
       <c r="O74" s="9" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="P74">
         <v>1</v>
@@ -7402,28 +8293,28 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C75" s="2">
         <v>234</v>
       </c>
       <c r="D75" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E75" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F75" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G75">
         <v>23426</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I75">
         <v>-52</v>
@@ -7438,7 +8329,7 @@
         <v>32</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="P75">
         <v>1</v>
@@ -7452,19 +8343,19 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C76" s="2">
         <v>234</v>
       </c>
       <c r="D76" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E76" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F76" t="s">
         <v>44</v>
@@ -7473,7 +8364,7 @@
         <v>23429</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="I76">
         <v>-41</v>
@@ -7488,7 +8379,7 @@
         <v>32</v>
       </c>
       <c r="O76" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="P76">
         <v>1</v>
@@ -7502,19 +8393,19 @@
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C77" s="2">
         <v>234</v>
       </c>
       <c r="D77" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E77" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F77" t="s">
         <v>52</v>
@@ -7523,7 +8414,7 @@
         <v>23430</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I77">
         <v>-73</v>
@@ -7538,7 +8429,7 @@
         <v>32</v>
       </c>
       <c r="O77" s="9" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="P77">
         <v>1</v>
@@ -7552,19 +8443,19 @@
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C78" s="2">
         <v>234</v>
       </c>
       <c r="D78" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E78" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F78" t="s">
         <v>44</v>
@@ -7573,7 +8464,7 @@
         <v>23431</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I78">
         <v>-41</v>
@@ -7588,7 +8479,7 @@
         <v>32</v>
       </c>
       <c r="O78" s="9" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="P78">
         <v>1</v>
@@ -7602,19 +8493,19 @@
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C79" s="2">
         <v>234</v>
       </c>
       <c r="D79" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E79" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F79" t="s">
         <v>44</v>
@@ -7623,7 +8514,7 @@
         <v>23432</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I79">
         <v>-23</v>
@@ -7638,7 +8529,7 @@
         <v>32</v>
       </c>
       <c r="O79" s="9" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="P79">
         <v>1</v>
@@ -7650,21 +8541,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" hidden="1">
       <c r="A80" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C80" s="2">
         <v>234</v>
       </c>
       <c r="D80" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E80" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F80" t="s">
         <v>46</v>
@@ -7673,7 +8564,7 @@
         <v>23433</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I80">
         <v>-21</v>
@@ -7691,7 +8582,7 @@
         <v>32</v>
       </c>
       <c r="O80" s="9" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -7703,21 +8594,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" hidden="1">
       <c r="A81" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C81" s="2">
         <v>234</v>
       </c>
       <c r="D81" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E81" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F81" t="s">
         <v>46</v>
@@ -7726,7 +8617,7 @@
         <v>23434</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I81">
         <v>-20</v>
@@ -7744,10 +8635,10 @@
         <v>23</v>
       </c>
       <c r="N81" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O81" s="9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="P81" s="9">
         <v>2</v>
@@ -7758,28 +8649,28 @@
     </row>
     <row r="82" spans="1:18">
       <c r="A82" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C82" s="2">
         <v>234</v>
       </c>
       <c r="D82" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E82" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F82" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G82">
         <v>23435</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I82">
         <v>2</v>
@@ -7794,7 +8685,7 @@
         <v>32</v>
       </c>
       <c r="O82" s="9" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="P82">
         <v>1</v>
@@ -7808,19 +8699,19 @@
     </row>
     <row r="83" spans="1:18">
       <c r="A83" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C83" s="2">
         <v>234</v>
       </c>
       <c r="D83" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E83" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F83" t="s">
         <v>46</v>
@@ -7829,7 +8720,7 @@
         <v>23436</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I83">
         <v>-50</v>
@@ -7844,7 +8735,7 @@
         <v>32</v>
       </c>
       <c r="O83" s="9" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="P83">
         <v>1</v>
@@ -7858,28 +8749,28 @@
     </row>
     <row r="84" spans="1:18">
       <c r="A84" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C84" s="2">
         <v>234</v>
       </c>
       <c r="D84" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E84" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F84" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G84">
         <v>23437</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="I84">
         <v>-52</v>
@@ -7894,7 +8785,7 @@
         <v>32</v>
       </c>
       <c r="O84" s="9" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="P84">
         <v>1</v>
@@ -7908,19 +8799,19 @@
     </row>
     <row r="85" spans="1:18">
       <c r="A85" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C85" s="2">
         <v>234</v>
       </c>
       <c r="D85" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E85" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F85" t="s">
         <v>44</v>
@@ -7929,7 +8820,7 @@
         <v>23438</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="I85">
         <v>-50</v>
@@ -7944,7 +8835,7 @@
         <v>32</v>
       </c>
       <c r="O85" s="9" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="P85">
         <v>1</v>
@@ -7956,21 +8847,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" hidden="1">
       <c r="A86" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C86" s="2">
         <v>235</v>
       </c>
       <c r="D86" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E86" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F86" t="s">
         <v>48</v>
@@ -7979,7 +8870,7 @@
         <v>23504</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -7991,10 +8882,10 @@
         <v>23</v>
       </c>
       <c r="N86" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="O86" s="9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="P86" s="9">
         <v>2</v>
@@ -8003,21 +8894,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" hidden="1">
       <c r="A87" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C87" s="2">
         <v>235</v>
       </c>
       <c r="D87" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E87" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F87" t="s">
         <v>44</v>
@@ -8026,7 +8917,7 @@
         <v>23506</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I87">
         <v>-8</v>
@@ -8044,10 +8935,10 @@
         <v>23</v>
       </c>
       <c r="N87" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O87" s="9" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="P87" s="9">
         <v>2</v>
@@ -8056,21 +8947,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" hidden="1">
       <c r="A88" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C88" s="2">
         <v>235</v>
       </c>
       <c r="D88" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E88" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F88" t="s">
         <v>44</v>
@@ -8079,7 +8970,7 @@
         <v>23521</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I88">
         <v>-125</v>
@@ -8097,7 +8988,7 @@
         <v>32</v>
       </c>
       <c r="O88" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="P88">
         <v>0</v>
@@ -8109,21 +9000,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" hidden="1">
       <c r="A89" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C89" s="2">
         <v>235</v>
       </c>
       <c r="D89" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E89" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F89" t="s">
         <v>44</v>
@@ -8132,7 +9023,7 @@
         <v>23530</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="I89">
         <v>-124</v>
@@ -8147,10 +9038,10 @@
         <v>32</v>
       </c>
       <c r="O89" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="P89" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -8159,30 +9050,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" hidden="1">
       <c r="A90" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C90" s="2">
         <v>235</v>
       </c>
       <c r="D90" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E90" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F90" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G90">
         <v>23531</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I90">
         <v>-16</v>
@@ -8200,10 +9091,10 @@
         <v>23</v>
       </c>
       <c r="N90" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O90" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="P90">
         <v>2</v>
@@ -8212,30 +9103,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" hidden="1">
       <c r="A91" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C91" s="2">
         <v>235</v>
       </c>
       <c r="D91" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E91" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F91" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G91">
         <v>23533</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="I91">
         <v>-27</v>
@@ -8253,10 +9144,10 @@
         <v>23</v>
       </c>
       <c r="N91" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O91" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P91">
         <v>2</v>
@@ -8265,21 +9156,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" hidden="1">
       <c r="A92" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C92" s="2">
         <v>235</v>
       </c>
       <c r="D92" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E92" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F92" t="s">
         <v>44</v>
@@ -8288,7 +9179,7 @@
         <v>23534</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="I92">
         <v>-64</v>
@@ -8306,10 +9197,10 @@
         <v>23</v>
       </c>
       <c r="N92" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O92" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="P92">
         <v>2</v>
@@ -8318,21 +9209,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" hidden="1">
       <c r="A93" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C93" s="2">
         <v>235</v>
       </c>
       <c r="D93" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E93" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F93" t="s">
         <v>45</v>
@@ -8341,7 +9232,7 @@
         <v>23535</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I93">
         <v>-64</v>
@@ -8359,10 +9250,10 @@
         <v>23</v>
       </c>
       <c r="N93" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O93" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="P93">
         <v>2</v>
@@ -8373,19 +9264,19 @@
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C94" s="2">
         <v>235</v>
       </c>
       <c r="D94" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E94" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F94" t="s">
         <v>44</v>
@@ -8394,7 +9285,7 @@
         <v>23536</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I94">
         <v>-65</v>
@@ -8409,7 +9300,7 @@
         <v>32</v>
       </c>
       <c r="O94" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="P94">
         <v>1</v>
@@ -8423,19 +9314,19 @@
     </row>
     <row r="95" spans="1:18">
       <c r="A95" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B95" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C95">
         <v>405</v>
       </c>
       <c r="D95" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E95" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F95" t="s">
         <v>44</v>
@@ -8444,7 +9335,7 @@
         <v>40506</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I95">
         <v>-124</v>
@@ -8459,7 +9350,7 @@
         <v>32</v>
       </c>
       <c r="O95" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P95">
         <v>1</v>
@@ -8470,19 +9361,19 @@
     </row>
     <row r="96" spans="1:18">
       <c r="A96" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B96" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C96">
         <v>405</v>
       </c>
       <c r="D96" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E96" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F96" t="s">
         <v>45</v>
@@ -8491,7 +9382,7 @@
         <v>40508</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I96">
         <v>-124</v>
@@ -8506,7 +9397,7 @@
         <v>32</v>
       </c>
       <c r="O96" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P96">
         <v>1</v>
@@ -8515,30 +9406,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" hidden="1">
       <c r="A97" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C97" s="2">
         <v>301</v>
       </c>
       <c r="D97" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E97" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F97" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G97">
         <v>30119</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="I97">
         <v>-51</v>
@@ -8556,10 +9447,10 @@
         <v>23</v>
       </c>
       <c r="N97" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O97" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="P97">
         <v>2</v>
@@ -8568,21 +9459,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" hidden="1">
       <c r="A98" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C98" s="2">
         <v>301</v>
       </c>
       <c r="D98" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E98" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F98" t="s">
         <v>47</v>
@@ -8591,7 +9482,7 @@
         <v>30120</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I98">
         <v>-27</v>
@@ -8606,10 +9497,10 @@
         <v>23</v>
       </c>
       <c r="N98" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O98" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="P98">
         <v>2</v>
@@ -8618,30 +9509,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" hidden="1">
       <c r="A99" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C99" s="2">
         <v>301</v>
       </c>
       <c r="D99" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E99" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F99" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G99">
         <v>30121</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I99">
         <v>-99</v>
@@ -8659,10 +9550,10 @@
         <v>23</v>
       </c>
       <c r="N99" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="O99" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="P99">
         <v>2</v>
@@ -8673,19 +9564,19 @@
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C100" s="2">
         <v>301</v>
       </c>
       <c r="D100" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E100" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F100" t="s">
         <v>44</v>
@@ -8694,7 +9585,7 @@
         <v>30122</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I100">
         <v>-13</v>
@@ -8709,7 +9600,7 @@
         <v>32</v>
       </c>
       <c r="O100" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="P100">
         <v>1</v>
@@ -8723,28 +9614,28 @@
     </row>
     <row r="101" spans="1:18">
       <c r="A101" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C101" s="2">
         <v>301</v>
       </c>
       <c r="D101" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E101" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F101" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G101">
         <v>30123</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="I101">
         <v>-34</v>
@@ -8759,7 +9650,7 @@
         <v>32</v>
       </c>
       <c r="O101" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="P101">
         <v>1</v>
@@ -8773,19 +9664,19 @@
     </row>
     <row r="102" spans="1:18">
       <c r="A102" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C102" s="2">
         <v>301</v>
       </c>
       <c r="D102" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E102" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F102" t="s">
         <v>45</v>
@@ -8794,7 +9685,7 @@
         <v>30124</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I102">
         <v>-34</v>
@@ -8809,7 +9700,7 @@
         <v>32</v>
       </c>
       <c r="O102" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="P102">
         <v>1</v>
@@ -8823,28 +9714,28 @@
     </row>
     <row r="103" spans="1:18">
       <c r="A103" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C103" s="2">
         <v>301</v>
       </c>
       <c r="D103" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E103" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F103" t="s">
-        <v>248</v>
+        <v>895</v>
       </c>
       <c r="G103">
         <v>30125</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="I103">
         <v>-39</v>
@@ -8859,7 +9750,7 @@
         <v>32</v>
       </c>
       <c r="O103" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="P103">
         <v>1</v>
@@ -8871,21 +9762,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" hidden="1">
       <c r="A104" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C104" s="2">
         <v>301</v>
       </c>
       <c r="D104" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E104" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F104" t="s">
         <v>44</v>
@@ -8894,7 +9785,7 @@
         <v>30129</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="I104">
         <v>-66</v>
@@ -8912,10 +9803,10 @@
         <v>23</v>
       </c>
       <c r="N104" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O104" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="P104">
         <v>2</v>
@@ -8926,28 +9817,28 @@
     </row>
     <row r="105" spans="1:18">
       <c r="A105" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C105" s="2">
         <v>308</v>
       </c>
       <c r="D105" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E105" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="F105" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G105">
         <v>30818</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="I105">
         <v>-48</v>
@@ -8962,7 +9853,7 @@
         <v>32</v>
       </c>
       <c r="O105" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="P105">
         <v>1</v>
@@ -8974,30 +9865,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" hidden="1">
       <c r="A106" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C106" s="2">
         <v>218</v>
       </c>
       <c r="D106" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E106" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F106" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G106">
         <v>21812</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="I106">
         <v>-27</v>
@@ -9015,30 +9906,30 @@
         <v>23</v>
       </c>
       <c r="N106" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O106" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="P106">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" hidden="1">
       <c r="A107" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C107" s="2">
         <v>218</v>
       </c>
       <c r="D107" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E107" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F107" t="s">
         <v>44</v>
@@ -9047,7 +9938,7 @@
         <v>21813</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="I107">
         <v>-38</v>
@@ -9065,7 +9956,7 @@
         <v>32</v>
       </c>
       <c r="O107" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="P107">
         <v>0</v>
@@ -9074,21 +9965,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" hidden="1">
       <c r="A108" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C108" s="2">
         <v>218</v>
       </c>
       <c r="D108" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E108" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F108" t="s">
         <v>46</v>
@@ -9097,7 +9988,7 @@
         <v>21814</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="I108">
         <v>-68</v>
@@ -9112,42 +10003,42 @@
         <v>3</v>
       </c>
       <c r="M108" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="N108" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="O108" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="P108">
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" hidden="1">
       <c r="A109" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C109" s="2">
         <v>218</v>
       </c>
       <c r="D109" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E109" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F109" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="G109">
         <v>21815</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="I109">
         <v>-64</v>
@@ -9165,30 +10056,30 @@
         <v>23</v>
       </c>
       <c r="N109" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O109" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="P109">
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" hidden="1">
       <c r="A110" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C110" s="2">
         <v>218</v>
       </c>
       <c r="D110" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E110" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F110" t="s">
         <v>44</v>
@@ -9197,7 +10088,7 @@
         <v>21816</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="I110">
         <v>-38</v>
@@ -9215,7 +10106,7 @@
         <v>32</v>
       </c>
       <c r="O110" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="P110">
         <v>0</v>
@@ -9226,19 +10117,19 @@
     </row>
     <row r="111" spans="1:18">
       <c r="A111" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C111" s="2">
         <v>218</v>
       </c>
       <c r="D111" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E111" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F111" t="s">
         <v>44</v>
@@ -9247,7 +10138,7 @@
         <v>21817</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="I111">
         <v>-38</v>
@@ -9262,7 +10153,7 @@
         <v>32</v>
       </c>
       <c r="O111" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="P111">
         <v>1</v>
@@ -9273,19 +10164,19 @@
     </row>
     <row r="112" spans="1:18">
       <c r="A112" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C112" s="2">
         <v>218</v>
       </c>
       <c r="D112" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E112" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F112" t="s">
         <v>44</v>
@@ -9294,7 +10185,7 @@
         <v>21818</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="I112">
         <v>-38</v>
@@ -9309,7 +10200,7 @@
         <v>32</v>
       </c>
       <c r="O112" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="P112">
         <v>1</v>
@@ -9318,21 +10209,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" hidden="1">
       <c r="A113" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C113" s="2">
         <v>218</v>
       </c>
       <c r="D113" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E113" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F113" t="s">
         <v>44</v>
@@ -9341,7 +10232,7 @@
         <v>21819</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="I113">
         <v>-126</v>
@@ -9356,27 +10247,27 @@
         <v>32</v>
       </c>
       <c r="O113" s="9" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="Q113">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:18" hidden="1">
       <c r="A114" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C114" s="2">
         <v>218</v>
       </c>
       <c r="D114" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E114" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F114" t="s">
         <v>44</v>
@@ -9387,19 +10278,19 @@
     </row>
     <row r="115" spans="1:18">
       <c r="A115" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C115" s="2">
         <v>218</v>
       </c>
       <c r="D115" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E115" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F115" t="s">
         <v>46</v>
@@ -9408,7 +10299,7 @@
         <v>21821</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I115">
         <v>-20</v>
@@ -9423,7 +10314,7 @@
         <v>32</v>
       </c>
       <c r="O115" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P115">
         <v>1</v>
@@ -9434,19 +10325,19 @@
     </row>
     <row r="116" spans="1:18">
       <c r="A116" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C116" s="2">
         <v>218</v>
       </c>
       <c r="D116" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E116" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F116" t="s">
         <v>44</v>
@@ -9455,7 +10346,7 @@
         <v>21822</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I116">
         <v>-15</v>
@@ -9470,7 +10361,7 @@
         <v>32</v>
       </c>
       <c r="O116" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="P116">
         <v>1</v>
@@ -9481,19 +10372,19 @@
     </row>
     <row r="117" spans="1:18">
       <c r="A117" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C117" s="2">
         <v>218</v>
       </c>
       <c r="D117" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E117" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F117" t="s">
         <v>44</v>
@@ -9502,7 +10393,7 @@
         <v>21823</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I117">
         <v>-11</v>
@@ -9517,7 +10408,7 @@
         <v>32</v>
       </c>
       <c r="O117" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="P117">
         <v>1</v>
@@ -9526,21 +10417,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" hidden="1">
       <c r="A118" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C118" s="2">
         <v>207</v>
       </c>
       <c r="D118" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E118" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F118" t="s">
         <v>45</v>
@@ -9549,45 +10440,45 @@
         <v>20704</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K118">
         <v>1</v>
       </c>
       <c r="N118" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="O118" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" hidden="1">
       <c r="A119" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C119" s="2">
         <v>207</v>
       </c>
       <c r="D119" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E119" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F119" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G119">
         <v>20712</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="I119">
         <v>-76</v>
@@ -9602,7 +10493,7 @@
         <v>32</v>
       </c>
       <c r="O119" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="Q119">
         <v>1</v>
@@ -9610,19 +10501,19 @@
     </row>
     <row r="120" spans="1:18">
       <c r="A120" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C120" s="2">
         <v>207</v>
       </c>
       <c r="D120" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E120" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F120" t="s">
         <v>44</v>
@@ -9631,7 +10522,7 @@
         <v>20714</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I120">
         <v>-73</v>
@@ -9646,7 +10537,7 @@
         <v>32</v>
       </c>
       <c r="O120" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="P120">
         <v>1</v>
@@ -9657,28 +10548,28 @@
     </row>
     <row r="121" spans="1:18">
       <c r="A121" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C121" s="2">
         <v>207</v>
       </c>
       <c r="D121" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E121" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F121" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G121">
         <v>20716</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="I121">
         <v>-59</v>
@@ -9693,7 +10584,7 @@
         <v>32</v>
       </c>
       <c r="O121" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="P121">
         <v>1</v>
@@ -9704,19 +10595,19 @@
     </row>
     <row r="122" spans="1:18">
       <c r="A122" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C122" s="2">
         <v>207</v>
       </c>
       <c r="D122" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E122" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F122" t="s">
         <v>44</v>
@@ -9725,7 +10616,7 @@
         <v>20717</v>
       </c>
       <c r="H122" s="10" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="I122">
         <v>-59</v>
@@ -9740,7 +10631,7 @@
         <v>32</v>
       </c>
       <c r="O122" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="P122">
         <v>1</v>
@@ -9751,19 +10642,19 @@
     </row>
     <row r="123" spans="1:18">
       <c r="A123" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C123" s="2">
         <v>207</v>
       </c>
       <c r="D123" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E123" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F123" t="s">
         <v>44</v>
@@ -9772,7 +10663,7 @@
         <v>20718</v>
       </c>
       <c r="H123" s="10" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="I123">
         <v>-57</v>
@@ -9787,7 +10678,7 @@
         <v>32</v>
       </c>
       <c r="O123" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="P123">
         <v>1</v>
@@ -9798,19 +10689,19 @@
     </row>
     <row r="124" spans="1:18">
       <c r="A124" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C124" s="2">
         <v>207</v>
       </c>
       <c r="D124" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E124" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F124" t="s">
         <v>44</v>
@@ -9819,7 +10710,7 @@
         <v>20719</v>
       </c>
       <c r="H124" s="10" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="I124">
         <v>-33</v>
@@ -9834,7 +10725,7 @@
         <v>32</v>
       </c>
       <c r="O124" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="P124">
         <v>1</v>
@@ -9845,19 +10736,19 @@
     </row>
     <row r="125" spans="1:18">
       <c r="A125" s="2" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C125" s="2">
         <v>207</v>
       </c>
       <c r="D125" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E125" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F125" t="s">
         <v>44</v>
@@ -9866,7 +10757,7 @@
         <v>20720</v>
       </c>
       <c r="H125" s="10" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="I125">
         <v>-33</v>
@@ -9881,7 +10772,7 @@
         <v>32</v>
       </c>
       <c r="O125" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="P125">
         <v>1</v>
@@ -9892,19 +10783,19 @@
     </row>
     <row r="126" spans="1:18">
       <c r="A126" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C126" s="2">
         <v>209</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F126" s="12" t="s">
         <v>47</v>
@@ -9913,7 +10804,7 @@
         <v>20910</v>
       </c>
       <c r="H126" s="14" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="I126">
         <v>-70</v>
@@ -9928,7 +10819,7 @@
         <v>32</v>
       </c>
       <c r="O126" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="P126">
         <v>1</v>
@@ -9940,21 +10831,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" hidden="1">
       <c r="A127" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C127" s="2">
         <v>209</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F127" s="12" t="s">
         <v>44</v>
@@ -9963,7 +10854,7 @@
         <v>20911</v>
       </c>
       <c r="H127" s="14" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="I127">
         <v>-70</v>
@@ -9978,7 +10869,7 @@
         <v>32</v>
       </c>
       <c r="O127" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="P127">
         <v>2</v>
@@ -9992,19 +10883,19 @@
     </row>
     <row r="128" spans="1:18">
       <c r="A128" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C128" s="2">
         <v>208</v>
       </c>
       <c r="D128" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E128" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="F128" t="s">
         <v>44</v>
@@ -10013,7 +10904,7 @@
         <v>20803</v>
       </c>
       <c r="H128" s="14" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="I128">
         <v>-67</v>
@@ -10028,7 +10919,7 @@
         <v>32</v>
       </c>
       <c r="O128" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="P128">
         <v>1</v>
@@ -10037,21 +10928,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" spans="1:18" hidden="1">
       <c r="A129" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C129" s="2">
         <v>208</v>
       </c>
       <c r="D129" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E129" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="F129" t="s">
         <v>44</v>
@@ -10060,7 +10951,7 @@
         <v>20811</v>
       </c>
       <c r="H129" s="14" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="I129">
         <v>-127</v>
@@ -10075,24 +10966,24 @@
         <v>32</v>
       </c>
       <c r="O129" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="130" spans="1:18">
       <c r="A130" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C130" s="2">
         <v>208</v>
       </c>
       <c r="D130" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E130" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F130" t="s">
         <v>45</v>
@@ -10101,7 +10992,7 @@
         <v>20815</v>
       </c>
       <c r="H130" s="14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="I130">
         <v>-67</v>
@@ -10116,7 +11007,7 @@
         <v>32</v>
       </c>
       <c r="O130" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="P130">
         <v>1</v>
@@ -10125,30 +11016,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:18">
+    <row r="131" spans="1:18" hidden="1">
       <c r="A131" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C131" s="2">
         <v>208</v>
       </c>
       <c r="D131" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E131" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="F131" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G131">
         <v>20816</v>
       </c>
       <c r="H131" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="I131">
         <v>-64</v>
@@ -10163,36 +11054,36 @@
         <v>3</v>
       </c>
       <c r="N131" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O131" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="132" spans="1:18">
       <c r="A132" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C132" s="2">
         <v>208</v>
       </c>
       <c r="D132" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E132" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F132" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G132">
         <v>20817</v>
       </c>
       <c r="H132" s="10" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="I132">
         <v>-52</v>
@@ -10207,7 +11098,7 @@
         <v>32</v>
       </c>
       <c r="O132" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="P132">
         <v>1</v>
@@ -10216,30 +11107,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133" spans="1:18" hidden="1">
       <c r="A133" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C133" s="2">
         <v>206</v>
       </c>
       <c r="D133" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E133" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F133" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G133">
         <v>20612</v>
       </c>
       <c r="H133" s="10" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="I133" s="4">
         <v>-127</v>
@@ -10248,30 +11139,30 @@
         <v>1</v>
       </c>
       <c r="N133" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="O133" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="R133" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:18">
+    <row r="134" spans="1:18" hidden="1">
       <c r="A134" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C134" s="2">
         <v>206</v>
       </c>
       <c r="D134" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E134" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F134" t="s">
         <v>44</v>
@@ -10280,7 +11171,7 @@
         <v>20614</v>
       </c>
       <c r="H134" s="10" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="I134">
         <v>-127</v>
@@ -10295,7 +11186,7 @@
         <v>32</v>
       </c>
       <c r="O134" s="9" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="P134">
         <v>0</v>
@@ -10307,30 +11198,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:18">
+    <row r="135" spans="1:18" hidden="1">
       <c r="A135" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C135" s="2">
         <v>206</v>
       </c>
       <c r="D135" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E135" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F135" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G135">
         <v>20616</v>
       </c>
       <c r="H135" s="10" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="I135">
         <v>-67</v>
@@ -10348,10 +11239,10 @@
         <v>23</v>
       </c>
       <c r="N135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O135" s="9" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="P135" s="9">
         <v>2</v>
@@ -10362,19 +11253,19 @@
     </row>
     <row r="136" spans="1:18">
       <c r="A136" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C136" s="2">
         <v>206</v>
       </c>
       <c r="D136" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E136" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F136" t="s">
         <v>44</v>
@@ -10383,7 +11274,7 @@
         <v>20617</v>
       </c>
       <c r="H136" s="10" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="I136">
         <v>-67</v>
@@ -10398,7 +11289,7 @@
         <v>32</v>
       </c>
       <c r="O136" s="9" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="P136" s="9">
         <v>1</v>
@@ -10412,19 +11303,19 @@
     </row>
     <row r="137" spans="1:18">
       <c r="A137" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C137" s="2">
         <v>402</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F137" s="12" t="s">
         <v>45</v>
@@ -10433,7 +11324,7 @@
         <v>40214</v>
       </c>
       <c r="H137" s="16" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="I137">
         <v>-65</v>
@@ -10448,7 +11339,7 @@
         <v>32</v>
       </c>
       <c r="O137" s="9" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="P137" s="9">
         <v>1</v>
@@ -10459,19 +11350,19 @@
     </row>
     <row r="138" spans="1:18">
       <c r="A138" s="2" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="C138" s="2">
         <v>403</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F138" s="12" t="s">
         <v>44</v>
@@ -10480,7 +11371,7 @@
         <v>40307</v>
       </c>
       <c r="H138" s="16" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="I138">
         <v>-48</v>
@@ -10495,7 +11386,7 @@
         <v>32</v>
       </c>
       <c r="O138" s="9" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="P138" s="9">
         <v>1</v>
@@ -10504,21 +11395,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:18">
+    <row r="139" spans="1:18" hidden="1">
       <c r="A139" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C139" s="2">
         <v>238</v>
       </c>
       <c r="D139" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E139" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F139" t="s">
         <v>44</v>
@@ -10527,7 +11418,7 @@
         <v>23810</v>
       </c>
       <c r="H139" s="10" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="I139">
         <v>-127</v>
@@ -10542,7 +11433,7 @@
         <v>32</v>
       </c>
       <c r="O139" s="9" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="Q139">
         <v>0</v>
@@ -10550,19 +11441,19 @@
     </row>
     <row r="140" spans="1:18">
       <c r="A140" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B140" s="17" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C140" s="2">
         <v>238</v>
       </c>
       <c r="D140" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E140" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="F140" t="s">
         <v>44</v>
@@ -10571,7 +11462,7 @@
         <v>23813</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="I140">
         <v>-126</v>
@@ -10587,7 +11478,7 @@
         <v>32</v>
       </c>
       <c r="O140" s="9" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="P140">
         <v>1</v>
@@ -10598,19 +11489,19 @@
     </row>
     <row r="141" spans="1:18">
       <c r="A141" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C141" s="2">
         <v>238</v>
       </c>
       <c r="D141" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E141" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="F141" t="s">
         <v>45</v>
@@ -10619,7 +11510,7 @@
         <v>23815</v>
       </c>
       <c r="H141" s="10" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="I141">
         <v>-124</v>
@@ -10634,7 +11525,7 @@
         <v>32</v>
       </c>
       <c r="O141" s="9" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="P141">
         <v>1</v>
@@ -10643,21 +11534,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:18">
+    <row r="142" spans="1:18" hidden="1">
       <c r="A142" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C142" s="2">
         <v>238</v>
       </c>
       <c r="D142" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E142" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="F142" t="s">
         <v>45</v>
@@ -10666,7 +11557,7 @@
         <v>23816</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="I142">
         <v>-76</v>
@@ -10684,7 +11575,7 @@
         <v>32</v>
       </c>
       <c r="O142" s="9" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="P142">
         <v>0</v>
@@ -10695,19 +11586,19 @@
     </row>
     <row r="143" spans="1:18">
       <c r="A143" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C143" s="2">
         <v>238</v>
       </c>
       <c r="D143" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E143" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F143" t="s">
         <v>47</v>
@@ -10716,7 +11607,7 @@
         <v>23817</v>
       </c>
       <c r="H143" s="10" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="I143">
         <v>-8</v>
@@ -10731,7 +11622,7 @@
         <v>32</v>
       </c>
       <c r="O143" s="9" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="P143">
         <v>1</v>
@@ -10742,19 +11633,19 @@
     </row>
     <row r="144" spans="1:18">
       <c r="A144" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C144" s="2">
         <v>238</v>
       </c>
       <c r="D144" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E144" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F144" t="s">
         <v>45</v>
@@ -10763,7 +11654,7 @@
         <v>23818</v>
       </c>
       <c r="H144" s="10" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="I144">
         <v>-53</v>
@@ -10778,7 +11669,7 @@
         <v>32</v>
       </c>
       <c r="O144" s="9" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="P144">
         <v>1</v>
@@ -10789,19 +11680,19 @@
     </row>
     <row r="145" spans="1:17">
       <c r="A145" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C145" s="2">
         <v>238</v>
       </c>
       <c r="D145" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E145" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F145" t="s">
         <v>44</v>
@@ -10810,7 +11701,7 @@
         <v>23819</v>
       </c>
       <c r="H145" s="10" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="I145">
         <v>-44</v>
@@ -10825,7 +11716,7 @@
         <v>32</v>
       </c>
       <c r="O145" s="9" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="P145">
         <v>1</v>
@@ -10836,19 +11727,19 @@
     </row>
     <row r="146" spans="1:17">
       <c r="A146" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C146" s="2">
         <v>238</v>
       </c>
       <c r="D146" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E146" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F146" t="s">
         <v>45</v>
@@ -10857,7 +11748,7 @@
         <v>23820</v>
       </c>
       <c r="H146" s="10" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="I146">
         <v>-41</v>
@@ -10872,7 +11763,7 @@
         <v>32</v>
       </c>
       <c r="O146" s="9" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="P146">
         <v>1</v>
@@ -10883,19 +11774,19 @@
     </row>
     <row r="147" spans="1:17">
       <c r="A147" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B147" s="17" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C147" s="2">
         <v>238</v>
       </c>
       <c r="D147" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E147" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F147" t="s">
         <v>45</v>
@@ -10904,7 +11795,7 @@
         <v>23821</v>
       </c>
       <c r="H147" s="10" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="I147">
         <v>-44</v>
@@ -10919,7 +11810,7 @@
         <v>32</v>
       </c>
       <c r="O147" s="9" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="P147">
         <v>1</v>
@@ -10930,19 +11821,19 @@
     </row>
     <row r="148" spans="1:17">
       <c r="A148" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C148" s="2">
         <v>238</v>
       </c>
       <c r="D148" t="s">
-        <v>669</v>
+        <v>734</v>
       </c>
       <c r="E148" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="F148" t="s">
         <v>45</v>
@@ -10950,22 +11841,46 @@
       <c r="G148">
         <v>23822</v>
       </c>
+      <c r="H148" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="I148">
+        <v>-44</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="N148" t="s">
+        <v>32</v>
+      </c>
+      <c r="O148" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="P148">
+        <v>1</v>
+      </c>
+      <c r="Q148">
+        <v>1</v>
+      </c>
     </row>
     <row r="149" spans="1:17">
       <c r="A149" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C149" s="2">
         <v>238</v>
       </c>
       <c r="D149" t="s">
-        <v>671</v>
+        <v>736</v>
       </c>
       <c r="E149" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="F149" t="s">
         <v>44</v>
@@ -10973,22 +11888,46 @@
       <c r="G149">
         <v>23827</v>
       </c>
-    </row>
-    <row r="150" spans="1:17">
+      <c r="H149" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="I149">
+        <v>-126</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>6</v>
+      </c>
+      <c r="N149" t="s">
+        <v>32</v>
+      </c>
+      <c r="O149" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="P149">
+        <v>1</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" ht="18">
       <c r="A150" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C150" s="2">
         <v>238</v>
       </c>
       <c r="D150" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="E150" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="F150" t="s">
         <v>52</v>
@@ -10996,22 +11935,46 @@
       <c r="G150">
         <v>23828</v>
       </c>
+      <c r="H150" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="I150">
+        <v>-68</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>7</v>
+      </c>
+      <c r="N150" t="s">
+        <v>32</v>
+      </c>
+      <c r="O150" s="18" t="s">
+        <v>738</v>
+      </c>
+      <c r="P150">
+        <v>1</v>
+      </c>
+      <c r="Q150">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:17">
       <c r="A151" s="2" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C151" s="2">
         <v>238</v>
       </c>
       <c r="D151" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="E151" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="F151" t="s">
         <v>44</v>
@@ -11019,9 +11982,2116 @@
       <c r="G151">
         <v>23829</v>
       </c>
+      <c r="H151" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="I151">
+        <v>-70</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>5</v>
+      </c>
+      <c r="N151" t="s">
+        <v>32</v>
+      </c>
+      <c r="O151" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="P151">
+        <v>1</v>
+      </c>
+      <c r="Q151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" hidden="1">
+      <c r="A152" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C152" s="2">
+        <v>220</v>
+      </c>
+      <c r="D152" t="s">
+        <v>694</v>
+      </c>
+      <c r="E152" t="s">
+        <v>695</v>
+      </c>
+      <c r="F152" t="s">
+        <v>44</v>
+      </c>
+      <c r="G152">
+        <v>22008</v>
+      </c>
+      <c r="H152" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="I152">
+        <v>-125</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>5</v>
+      </c>
+      <c r="N152" t="s">
+        <v>32</v>
+      </c>
+      <c r="O152" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" hidden="1">
+      <c r="A153" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C153" s="2">
+        <v>220</v>
+      </c>
+      <c r="D153" t="s">
+        <v>745</v>
+      </c>
+      <c r="E153" t="s">
+        <v>696</v>
+      </c>
+      <c r="F153" t="s">
+        <v>314</v>
+      </c>
+      <c r="G153">
+        <v>22019</v>
+      </c>
+      <c r="H153" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="I153">
+        <v>-126</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>5</v>
+      </c>
+      <c r="N153" t="s">
+        <v>32</v>
+      </c>
+      <c r="O153" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17">
+      <c r="A154" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C154" s="2">
+        <v>220</v>
+      </c>
+      <c r="D154" t="s">
+        <v>697</v>
+      </c>
+      <c r="E154" t="s">
+        <v>698</v>
+      </c>
+      <c r="F154" t="s">
+        <v>44</v>
+      </c>
+      <c r="G154">
+        <v>22020</v>
+      </c>
+      <c r="H154" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="I154">
+        <v>-124</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>3</v>
+      </c>
+      <c r="M154">
+        <v>-62</v>
+      </c>
+      <c r="N154" t="s">
+        <v>32</v>
+      </c>
+      <c r="O154" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="P154">
+        <v>1</v>
+      </c>
+      <c r="Q154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17">
+      <c r="A155" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C155" s="2">
+        <v>220</v>
+      </c>
+      <c r="D155" t="s">
+        <v>699</v>
+      </c>
+      <c r="E155" t="s">
+        <v>700</v>
+      </c>
+      <c r="F155" t="s">
+        <v>44</v>
+      </c>
+      <c r="G155">
+        <v>22021</v>
+      </c>
+      <c r="H155" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="I155">
+        <v>-15</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="N155" t="s">
+        <v>753</v>
+      </c>
+      <c r="O155" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="P155">
+        <v>1</v>
+      </c>
+      <c r="Q155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17">
+      <c r="A156" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C156" s="2">
+        <v>220</v>
+      </c>
+      <c r="D156" t="s">
+        <v>701</v>
+      </c>
+      <c r="E156" t="s">
+        <v>702</v>
+      </c>
+      <c r="F156" t="s">
+        <v>47</v>
+      </c>
+      <c r="G156">
+        <v>22022</v>
+      </c>
+      <c r="H156" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="I156">
+        <v>-14</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="N156" t="s">
+        <v>753</v>
+      </c>
+      <c r="O156" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="P156">
+        <v>1</v>
+      </c>
+      <c r="Q156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17">
+      <c r="A157" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C157" s="2">
+        <v>220</v>
+      </c>
+      <c r="D157" t="s">
+        <v>703</v>
+      </c>
+      <c r="E157" t="s">
+        <v>704</v>
+      </c>
+      <c r="F157" t="s">
+        <v>46</v>
+      </c>
+      <c r="G157">
+        <v>22023</v>
+      </c>
+      <c r="H157" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="I157">
+        <v>-19</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>2</v>
+      </c>
+      <c r="N157" t="s">
+        <v>753</v>
+      </c>
+      <c r="O157" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="P157">
+        <v>1</v>
+      </c>
+      <c r="Q157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17">
+      <c r="A158" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C158" s="2">
+        <v>220</v>
+      </c>
+      <c r="D158" t="s">
+        <v>705</v>
+      </c>
+      <c r="E158" t="s">
+        <v>706</v>
+      </c>
+      <c r="F158" t="s">
+        <v>44</v>
+      </c>
+      <c r="G158">
+        <v>22024</v>
+      </c>
+      <c r="H158" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="I158">
+        <v>-48</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>3</v>
+      </c>
+      <c r="N158" t="s">
+        <v>753</v>
+      </c>
+      <c r="O158" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="P158">
+        <v>1</v>
+      </c>
+      <c r="Q158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" hidden="1">
+      <c r="A159" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C159" s="2">
+        <v>224</v>
+      </c>
+      <c r="D159" t="s">
+        <v>759</v>
+      </c>
+      <c r="E159" t="s">
+        <v>709</v>
+      </c>
+      <c r="F159" t="s">
+        <v>44</v>
+      </c>
+      <c r="G159">
+        <v>22405</v>
+      </c>
+      <c r="H159" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="I159">
+        <v>-66</v>
+      </c>
+      <c r="J159">
+        <v>600</v>
+      </c>
+      <c r="K159">
+        <v>3</v>
+      </c>
+      <c r="L159">
+        <v>4</v>
+      </c>
+      <c r="N159" t="s">
+        <v>753</v>
+      </c>
+      <c r="O159" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="P159">
+        <v>2</v>
+      </c>
+      <c r="Q159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17">
+      <c r="A160" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C160" s="2">
+        <v>224</v>
+      </c>
+      <c r="D160" t="s">
+        <v>710</v>
+      </c>
+      <c r="E160" t="s">
+        <v>711</v>
+      </c>
+      <c r="F160" t="s">
+        <v>712</v>
+      </c>
+      <c r="G160">
+        <v>22406</v>
+      </c>
+      <c r="H160" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="I160">
+        <v>-126</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>3</v>
+      </c>
+      <c r="N160" t="s">
+        <v>753</v>
+      </c>
+      <c r="O160" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="P160">
+        <v>1</v>
+      </c>
+      <c r="Q160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" hidden="1">
+      <c r="A161" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C161" s="2">
+        <v>224</v>
+      </c>
+      <c r="D161" t="s">
+        <v>713</v>
+      </c>
+      <c r="E161" t="s">
+        <v>714</v>
+      </c>
+      <c r="F161" t="s">
+        <v>46</v>
+      </c>
+      <c r="G161">
+        <v>22414</v>
+      </c>
+      <c r="H161" s="11" t="s">
+        <v>764</v>
+      </c>
+      <c r="I161">
+        <v>-75</v>
+      </c>
+      <c r="J161">
+        <v>3640</v>
+      </c>
+      <c r="K161">
+        <v>3</v>
+      </c>
+      <c r="L161">
+        <v>6</v>
+      </c>
+      <c r="M161" t="s">
+        <v>765</v>
+      </c>
+      <c r="N161" t="s">
+        <v>204</v>
+      </c>
+      <c r="O161" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="P161">
+        <v>2</v>
+      </c>
+      <c r="Q161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" hidden="1">
+      <c r="A162" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C162" s="2">
+        <v>224</v>
+      </c>
+      <c r="D162" t="s">
+        <v>715</v>
+      </c>
+      <c r="E162" t="s">
+        <v>716</v>
+      </c>
+      <c r="F162" t="s">
+        <v>114</v>
+      </c>
+      <c r="G162">
+        <v>22416</v>
+      </c>
+      <c r="H162" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="I162">
+        <v>-50</v>
+      </c>
+      <c r="J162">
+        <v>1600</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>2</v>
+      </c>
+      <c r="M162">
+        <v>-32</v>
+      </c>
+      <c r="N162" t="s">
+        <v>753</v>
+      </c>
+      <c r="O162" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="P162">
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" hidden="1">
+      <c r="A163" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C163" s="2">
+        <v>224</v>
+      </c>
+      <c r="D163" t="s">
+        <v>769</v>
+      </c>
+      <c r="E163" t="s">
+        <v>717</v>
+      </c>
+      <c r="F163" t="s">
+        <v>44</v>
+      </c>
+      <c r="G163">
+        <v>22417</v>
+      </c>
+      <c r="H163" s="10" t="s">
+        <v>770</v>
+      </c>
+      <c r="I163">
+        <v>-13</v>
+      </c>
+      <c r="J163">
+        <v>1000</v>
+      </c>
+      <c r="K163">
+        <v>2</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="N163" t="s">
+        <v>379</v>
+      </c>
+      <c r="O163" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="P163" t="s">
+        <v>771</v>
+      </c>
+      <c r="Q163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" hidden="1">
+      <c r="A164" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C164" s="2">
+        <v>224</v>
+      </c>
+      <c r="D164" t="s">
+        <v>718</v>
+      </c>
+      <c r="E164" t="s">
+        <v>719</v>
+      </c>
+      <c r="F164" t="s">
+        <v>114</v>
+      </c>
+      <c r="G164">
+        <v>22418</v>
+      </c>
+      <c r="H164" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="I164">
+        <v>-124</v>
+      </c>
+      <c r="J164">
+        <v>1300</v>
+      </c>
+      <c r="K164">
+        <v>2</v>
+      </c>
+      <c r="L164">
+        <v>7</v>
+      </c>
+      <c r="N164" t="s">
+        <v>773</v>
+      </c>
+      <c r="O164" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="P164">
+        <v>2</v>
+      </c>
+      <c r="Q164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" hidden="1">
+      <c r="A165" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C165" s="2">
+        <v>224</v>
+      </c>
+      <c r="D165" t="s">
+        <v>720</v>
+      </c>
+      <c r="E165" t="s">
+        <v>721</v>
+      </c>
+      <c r="F165" t="s">
+        <v>44</v>
+      </c>
+      <c r="G165">
+        <v>22419</v>
+      </c>
+      <c r="H165" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="I165">
+        <v>-126</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>5</v>
+      </c>
+      <c r="N165" t="s">
+        <v>753</v>
+      </c>
+      <c r="O165" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="P165">
+        <v>0</v>
+      </c>
+      <c r="Q165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" hidden="1">
+      <c r="A166" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C166" s="2">
+        <v>225</v>
+      </c>
+      <c r="D166" t="s">
+        <v>724</v>
+      </c>
+      <c r="E166" t="s">
+        <v>725</v>
+      </c>
+      <c r="F166" t="s">
+        <v>45</v>
+      </c>
+      <c r="G166">
+        <v>22504</v>
+      </c>
+      <c r="H166" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="I166">
+        <v>-48</v>
+      </c>
+      <c r="K166">
+        <v>3</v>
+      </c>
+      <c r="L166">
+        <v>4</v>
+      </c>
+      <c r="N166" t="s">
+        <v>204</v>
+      </c>
+      <c r="O166" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="P166">
+        <v>2</v>
+      </c>
+      <c r="Q166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17">
+      <c r="A167" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C167" s="2">
+        <v>225</v>
+      </c>
+      <c r="D167" t="s">
+        <v>726</v>
+      </c>
+      <c r="E167" t="s">
+        <v>727</v>
+      </c>
+      <c r="F167" t="s">
+        <v>44</v>
+      </c>
+      <c r="G167">
+        <v>22511</v>
+      </c>
+      <c r="H167" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="I167">
+        <v>-125</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <v>6</v>
+      </c>
+      <c r="N167" t="s">
+        <v>753</v>
+      </c>
+      <c r="O167" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="P167">
+        <v>1</v>
+      </c>
+      <c r="Q167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" ht="18" hidden="1">
+      <c r="A168" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C168" s="2">
+        <v>225</v>
+      </c>
+      <c r="D168" t="s">
+        <v>728</v>
+      </c>
+      <c r="E168" t="s">
+        <v>729</v>
+      </c>
+      <c r="F168" t="s">
+        <v>44</v>
+      </c>
+      <c r="G168">
+        <v>22512</v>
+      </c>
+      <c r="H168" s="10" t="s">
+        <v>781</v>
+      </c>
+      <c r="I168">
+        <v>-68</v>
+      </c>
+      <c r="J168">
+        <v>79</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
+        <v>4</v>
+      </c>
+      <c r="M168">
+        <v>-1</v>
+      </c>
+      <c r="N168" t="s">
+        <v>773</v>
+      </c>
+      <c r="O168" s="19" t="s">
+        <v>782</v>
+      </c>
+      <c r="P168">
+        <v>0</v>
+      </c>
+      <c r="Q168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17">
+      <c r="A169" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C169" s="2">
+        <v>225</v>
+      </c>
+      <c r="D169" t="s">
+        <v>730</v>
+      </c>
+      <c r="E169" t="s">
+        <v>731</v>
+      </c>
+      <c r="F169" t="s">
+        <v>46</v>
+      </c>
+      <c r="G169">
+        <v>22513</v>
+      </c>
+      <c r="H169" s="10" t="s">
+        <v>783</v>
+      </c>
+      <c r="I169">
+        <v>-125</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>6</v>
+      </c>
+      <c r="N169" t="s">
+        <v>753</v>
+      </c>
+      <c r="O169" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="P169">
+        <v>1</v>
+      </c>
+      <c r="Q169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" hidden="1">
+      <c r="A170" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C170" s="2">
+        <v>225</v>
+      </c>
+      <c r="D170" t="s">
+        <v>732</v>
+      </c>
+      <c r="E170" t="s">
+        <v>733</v>
+      </c>
+      <c r="F170" t="s">
+        <v>44</v>
+      </c>
+      <c r="G170">
+        <v>22515</v>
+      </c>
+      <c r="H170" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="I170">
+        <v>-13</v>
+      </c>
+      <c r="J170">
+        <v>1000</v>
+      </c>
+      <c r="K170">
+        <v>2</v>
+      </c>
+      <c r="L170">
+        <v>2</v>
+      </c>
+      <c r="N170" t="s">
+        <v>773</v>
+      </c>
+      <c r="O170" s="9" t="s">
+        <v>786</v>
+      </c>
+      <c r="P170">
+        <v>2</v>
+      </c>
+      <c r="Q170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17">
+      <c r="A171" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C171" s="2">
+        <v>226</v>
+      </c>
+      <c r="D171" t="s">
+        <v>841</v>
+      </c>
+      <c r="E171" t="s">
+        <v>789</v>
+      </c>
+      <c r="F171" t="s">
+        <v>305</v>
+      </c>
+      <c r="G171">
+        <v>22610</v>
+      </c>
+      <c r="H171" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="I171">
+        <v>-72</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>3</v>
+      </c>
+      <c r="N171" t="s">
+        <v>753</v>
+      </c>
+      <c r="O171" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="P171">
+        <v>1</v>
+      </c>
+      <c r="Q171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17">
+      <c r="A172" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C172" s="2">
+        <v>226</v>
+      </c>
+      <c r="D172" t="s">
+        <v>844</v>
+      </c>
+      <c r="E172" t="s">
+        <v>790</v>
+      </c>
+      <c r="F172" t="s">
+        <v>45</v>
+      </c>
+      <c r="G172">
+        <v>22612</v>
+      </c>
+      <c r="H172" s="10" t="s">
+        <v>845</v>
+      </c>
+      <c r="I172">
+        <v>-92</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>5</v>
+      </c>
+      <c r="N172" t="s">
+        <v>753</v>
+      </c>
+      <c r="O172" s="9" t="s">
+        <v>846</v>
+      </c>
+      <c r="P172">
+        <v>1</v>
+      </c>
+      <c r="Q172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" hidden="1">
+      <c r="A173" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C173" s="2">
+        <v>226</v>
+      </c>
+      <c r="D173" t="s">
+        <v>791</v>
+      </c>
+      <c r="E173" t="s">
+        <v>792</v>
+      </c>
+      <c r="F173" t="s">
+        <v>44</v>
+      </c>
+      <c r="G173">
+        <v>22614</v>
+      </c>
+      <c r="H173" s="10" t="s">
+        <v>847</v>
+      </c>
+      <c r="I173">
+        <v>-129</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>2</v>
+      </c>
+      <c r="M173">
+        <v>-104</v>
+      </c>
+      <c r="N173" t="s">
+        <v>753</v>
+      </c>
+      <c r="O173" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="P173">
+        <v>0</v>
+      </c>
+      <c r="Q173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17">
+      <c r="A174" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C174" s="2">
+        <v>227</v>
+      </c>
+      <c r="D174" t="s">
+        <v>794</v>
+      </c>
+      <c r="E174" t="s">
+        <v>795</v>
+      </c>
+      <c r="F174" t="s">
+        <v>44</v>
+      </c>
+      <c r="G174">
+        <v>22706</v>
+      </c>
+      <c r="H174" s="10" t="s">
+        <v>849</v>
+      </c>
+      <c r="I174">
+        <v>-33</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>3</v>
+      </c>
+      <c r="N174" t="s">
+        <v>753</v>
+      </c>
+      <c r="O174" s="9" t="s">
+        <v>850</v>
+      </c>
+      <c r="P174">
+        <v>1</v>
+      </c>
+      <c r="Q174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17">
+      <c r="A175" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C175" s="2">
+        <v>227</v>
+      </c>
+      <c r="D175" t="s">
+        <v>796</v>
+      </c>
+      <c r="E175" t="s">
+        <v>797</v>
+      </c>
+      <c r="F175" t="s">
+        <v>44</v>
+      </c>
+      <c r="G175">
+        <v>22707</v>
+      </c>
+      <c r="H175" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="I175">
+        <v>-122</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>3</v>
+      </c>
+      <c r="N175" t="s">
+        <v>753</v>
+      </c>
+      <c r="O175" s="9" t="s">
+        <v>852</v>
+      </c>
+      <c r="P175">
+        <v>1</v>
+      </c>
+      <c r="Q175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" hidden="1">
+      <c r="A176" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C176" s="2">
+        <v>227</v>
+      </c>
+      <c r="D176" t="s">
+        <v>798</v>
+      </c>
+      <c r="E176" t="s">
+        <v>799</v>
+      </c>
+      <c r="F176" t="s">
+        <v>800</v>
+      </c>
+      <c r="G176">
+        <v>22709</v>
+      </c>
+      <c r="H176" s="10" t="s">
+        <v>853</v>
+      </c>
+      <c r="I176">
+        <v>-129</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>6</v>
+      </c>
+      <c r="N176" t="s">
+        <v>753</v>
+      </c>
+      <c r="O176" s="9" t="s">
+        <v>854</v>
+      </c>
+      <c r="P176" t="s">
+        <v>855</v>
+      </c>
+      <c r="Q176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17">
+      <c r="A177" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C177" s="2">
+        <v>227</v>
+      </c>
+      <c r="D177" t="s">
+        <v>801</v>
+      </c>
+      <c r="E177" t="s">
+        <v>802</v>
+      </c>
+      <c r="F177" t="s">
+        <v>289</v>
+      </c>
+      <c r="G177">
+        <v>22710</v>
+      </c>
+      <c r="H177" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="I177">
+        <v>-35</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="N177" t="s">
+        <v>753</v>
+      </c>
+      <c r="O177" s="9" t="s">
+        <v>857</v>
+      </c>
+      <c r="P177">
+        <v>1</v>
+      </c>
+      <c r="Q177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17">
+      <c r="A178" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C178" s="2">
+        <v>227</v>
+      </c>
+      <c r="D178" t="s">
+        <v>803</v>
+      </c>
+      <c r="E178" t="s">
+        <v>804</v>
+      </c>
+      <c r="F178" t="s">
+        <v>44</v>
+      </c>
+      <c r="G178">
+        <v>22711</v>
+      </c>
+      <c r="H178" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="I178">
+        <v>-33</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="N178" t="s">
+        <v>753</v>
+      </c>
+      <c r="O178" s="9" t="s">
+        <v>859</v>
+      </c>
+      <c r="P178">
+        <v>1</v>
+      </c>
+      <c r="Q178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17">
+      <c r="A179" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C179" s="2">
+        <v>227</v>
+      </c>
+      <c r="D179" t="s">
+        <v>805</v>
+      </c>
+      <c r="E179" t="s">
+        <v>806</v>
+      </c>
+      <c r="F179" t="s">
+        <v>44</v>
+      </c>
+      <c r="G179">
+        <v>22712</v>
+      </c>
+      <c r="H179" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="I179">
+        <v>-11</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="N179" t="s">
+        <v>753</v>
+      </c>
+      <c r="O179" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="P179">
+        <v>1</v>
+      </c>
+      <c r="Q179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" hidden="1">
+      <c r="A180" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C180" s="2">
+        <v>228</v>
+      </c>
+      <c r="D180" t="s">
+        <v>808</v>
+      </c>
+      <c r="E180" t="s">
+        <v>809</v>
+      </c>
+      <c r="F180" t="s">
+        <v>45</v>
+      </c>
+      <c r="G180">
+        <v>22802</v>
+      </c>
+      <c r="H180" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="I180">
+        <v>-129</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>6</v>
+      </c>
+      <c r="N180" t="s">
+        <v>753</v>
+      </c>
+      <c r="O180" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="P180" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" ht="18" hidden="1">
+      <c r="A181" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C181" s="2">
+        <v>228</v>
+      </c>
+      <c r="D181" t="s">
+        <v>864</v>
+      </c>
+      <c r="E181" t="s">
+        <v>810</v>
+      </c>
+      <c r="F181" t="s">
+        <v>45</v>
+      </c>
+      <c r="G181">
+        <v>22804</v>
+      </c>
+      <c r="H181" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="I181">
+        <v>-116</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>-55</v>
+      </c>
+      <c r="N181" t="s">
+        <v>753</v>
+      </c>
+      <c r="O181" s="19" t="s">
+        <v>866</v>
+      </c>
+      <c r="P181">
+        <v>0</v>
+      </c>
+      <c r="Q181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17">
+      <c r="A182" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C182" s="2">
+        <v>228</v>
+      </c>
+      <c r="D182" t="s">
+        <v>869</v>
+      </c>
+      <c r="E182" t="s">
+        <v>811</v>
+      </c>
+      <c r="F182" t="s">
+        <v>44</v>
+      </c>
+      <c r="G182">
+        <v>22808</v>
+      </c>
+      <c r="H182" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="I182">
+        <v>-128</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>6</v>
+      </c>
+      <c r="N182" t="s">
+        <v>753</v>
+      </c>
+      <c r="O182" s="9" t="s">
+        <v>871</v>
+      </c>
+      <c r="P182">
+        <v>1</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17">
+      <c r="A183" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C183" s="2">
+        <v>228</v>
+      </c>
+      <c r="D183" t="s">
+        <v>812</v>
+      </c>
+      <c r="E183" t="s">
+        <v>813</v>
+      </c>
+      <c r="F183" t="s">
+        <v>289</v>
+      </c>
+      <c r="G183">
+        <v>22810</v>
+      </c>
+      <c r="H183" s="10" t="s">
+        <v>872</v>
+      </c>
+      <c r="I183">
+        <v>-129</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>6</v>
+      </c>
+      <c r="N183" t="s">
+        <v>753</v>
+      </c>
+      <c r="O183" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="P183">
+        <v>1</v>
+      </c>
+      <c r="Q183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17">
+      <c r="A184" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C184" s="2">
+        <v>228</v>
+      </c>
+      <c r="D184" t="s">
+        <v>814</v>
+      </c>
+      <c r="E184" t="s">
+        <v>815</v>
+      </c>
+      <c r="F184" t="s">
+        <v>44</v>
+      </c>
+      <c r="G184">
+        <v>22811</v>
+      </c>
+      <c r="H184" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="I184">
+        <v>-129</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>6</v>
+      </c>
+      <c r="N184" t="s">
+        <v>753</v>
+      </c>
+      <c r="O184" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="P184">
+        <v>1</v>
+      </c>
+      <c r="Q184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17">
+      <c r="A185" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C185" s="2">
+        <v>228</v>
+      </c>
+      <c r="D185" t="s">
+        <v>816</v>
+      </c>
+      <c r="E185" t="s">
+        <v>817</v>
+      </c>
+      <c r="F185" t="s">
+        <v>45</v>
+      </c>
+      <c r="G185">
+        <v>22812</v>
+      </c>
+      <c r="H185" s="10" t="s">
+        <v>876</v>
+      </c>
+      <c r="I185">
+        <v>-66</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>4</v>
+      </c>
+      <c r="N185" t="s">
+        <v>753</v>
+      </c>
+      <c r="O185" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="P185">
+        <v>1</v>
+      </c>
+      <c r="Q185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17">
+      <c r="A186" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C186" s="2">
+        <v>228</v>
+      </c>
+      <c r="D186" t="s">
+        <v>878</v>
+      </c>
+      <c r="E186" t="s">
+        <v>818</v>
+      </c>
+      <c r="F186" t="s">
+        <v>44</v>
+      </c>
+      <c r="G186">
+        <v>22814</v>
+      </c>
+      <c r="H186" s="10" t="s">
+        <v>879</v>
+      </c>
+      <c r="I186">
+        <v>-66</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>3</v>
+      </c>
+      <c r="N186" t="s">
+        <v>753</v>
+      </c>
+      <c r="O186" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="P186">
+        <v>1</v>
+      </c>
+      <c r="Q186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17">
+      <c r="A187" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C187" s="2">
+        <v>228</v>
+      </c>
+      <c r="D187" t="s">
+        <v>881</v>
+      </c>
+      <c r="E187" t="s">
+        <v>819</v>
+      </c>
+      <c r="F187" t="s">
+        <v>44</v>
+      </c>
+      <c r="G187">
+        <v>22815</v>
+      </c>
+      <c r="H187" s="10" t="s">
+        <v>882</v>
+      </c>
+      <c r="I187">
+        <v>-66</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>2</v>
+      </c>
+      <c r="N187" t="s">
+        <v>753</v>
+      </c>
+      <c r="O187" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="P187">
+        <v>1</v>
+      </c>
+      <c r="Q187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17">
+      <c r="A188" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C188" s="2">
+        <v>228</v>
+      </c>
+      <c r="D188" t="s">
+        <v>820</v>
+      </c>
+      <c r="E188" t="s">
+        <v>821</v>
+      </c>
+      <c r="F188" t="s">
+        <v>44</v>
+      </c>
+      <c r="G188">
+        <v>22818</v>
+      </c>
+      <c r="H188" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="I188">
+        <v>-31</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>3</v>
+      </c>
+      <c r="N188" t="s">
+        <v>753</v>
+      </c>
+      <c r="O188" s="9" t="s">
+        <v>886</v>
+      </c>
+      <c r="P188">
+        <v>1</v>
+      </c>
+      <c r="Q188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17">
+      <c r="A189" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C189" s="2">
+        <v>228</v>
+      </c>
+      <c r="D189" t="s">
+        <v>822</v>
+      </c>
+      <c r="E189" t="s">
+        <v>823</v>
+      </c>
+      <c r="F189" t="s">
+        <v>44</v>
+      </c>
+      <c r="G189">
+        <v>22819</v>
+      </c>
+      <c r="H189" s="10" t="s">
+        <v>887</v>
+      </c>
+      <c r="I189">
+        <v>-31</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>3</v>
+      </c>
+      <c r="N189" t="s">
+        <v>753</v>
+      </c>
+      <c r="O189" s="9" t="s">
+        <v>888</v>
+      </c>
+      <c r="P189">
+        <v>1</v>
+      </c>
+      <c r="Q189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17">
+      <c r="A190" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C190" s="2">
+        <v>228</v>
+      </c>
+      <c r="D190" t="s">
+        <v>824</v>
+      </c>
+      <c r="E190" t="s">
+        <v>825</v>
+      </c>
+      <c r="F190" t="s">
+        <v>44</v>
+      </c>
+      <c r="G190">
+        <v>22820</v>
+      </c>
+      <c r="H190" s="10" t="s">
+        <v>889</v>
+      </c>
+      <c r="I190">
+        <v>-41</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>3</v>
+      </c>
+      <c r="N190" t="s">
+        <v>753</v>
+      </c>
+      <c r="O190" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="P190">
+        <v>1</v>
+      </c>
+      <c r="Q190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17">
+      <c r="A191" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C191" s="2">
+        <v>228</v>
+      </c>
+      <c r="D191" t="s">
+        <v>826</v>
+      </c>
+      <c r="E191" t="s">
+        <v>892</v>
+      </c>
+      <c r="F191" t="s">
+        <v>296</v>
+      </c>
+      <c r="G191">
+        <v>22821</v>
+      </c>
+      <c r="H191" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="I191">
+        <v>-31</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>3</v>
+      </c>
+      <c r="N191" t="s">
+        <v>753</v>
+      </c>
+      <c r="O191" s="9" t="s">
+        <v>891</v>
+      </c>
+      <c r="P191">
+        <v>1</v>
+      </c>
+      <c r="Q191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" hidden="1">
+      <c r="A192" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C192" s="2">
+        <v>228</v>
+      </c>
+      <c r="D192" t="s">
+        <v>827</v>
+      </c>
+      <c r="E192" t="s">
+        <v>828</v>
+      </c>
+      <c r="F192" t="s">
+        <v>44</v>
+      </c>
+      <c r="G192">
+        <v>22822</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" hidden="1">
+      <c r="A193" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C193" s="2">
+        <v>228</v>
+      </c>
+      <c r="D193" t="s">
+        <v>829</v>
+      </c>
+      <c r="E193" t="s">
+        <v>830</v>
+      </c>
+      <c r="F193" t="s">
+        <v>44</v>
+      </c>
+      <c r="G193">
+        <v>22823</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" hidden="1">
+      <c r="A194" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C194" s="2">
+        <v>228</v>
+      </c>
+      <c r="D194" t="s">
+        <v>831</v>
+      </c>
+      <c r="E194" t="s">
+        <v>832</v>
+      </c>
+      <c r="F194" t="s">
+        <v>44</v>
+      </c>
+      <c r="G194">
+        <v>22824</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" hidden="1">
+      <c r="A195" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C195" s="2">
+        <v>228</v>
+      </c>
+      <c r="D195" t="s">
+        <v>833</v>
+      </c>
+      <c r="E195" t="s">
+        <v>834</v>
+      </c>
+      <c r="F195" t="s">
+        <v>45</v>
+      </c>
+      <c r="G195">
+        <v>22825</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" hidden="1">
+      <c r="A196" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C196" s="2">
+        <v>228</v>
+      </c>
+      <c r="D196" t="s">
+        <v>835</v>
+      </c>
+      <c r="E196" t="s">
+        <v>836</v>
+      </c>
+      <c r="F196" t="s">
+        <v>44</v>
+      </c>
+      <c r="G196">
+        <v>22826</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" hidden="1">
+      <c r="A197" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C197" s="2">
+        <v>229</v>
+      </c>
+      <c r="D197" t="s">
+        <v>838</v>
+      </c>
+      <c r="E197" t="s">
+        <v>799</v>
+      </c>
+      <c r="F197" t="s">
+        <v>800</v>
+      </c>
+      <c r="G197">
+        <v>22905</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" hidden="1">
+      <c r="A198" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C198" s="2">
+        <v>229</v>
+      </c>
+      <c r="D198" t="s">
+        <v>839</v>
+      </c>
+      <c r="E198" t="s">
+        <v>840</v>
+      </c>
+      <c r="F198" t="s">
+        <v>314</v>
+      </c>
+      <c r="G198">
+        <v>22915</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R132" xr:uid="{1094BEFC-A808-8B41-9FFA-7B4A00011995}"/>
+  <autoFilter ref="A1:R198" xr:uid="{A18FB839-D275-3849-B1F0-EEC7EA876C74}">
+    <filterColumn colId="15">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A44:R78">
     <sortCondition ref="G50"/>
   </sortState>
